--- a/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -704,34 +656,34 @@
         <v>1.003166001736026</v>
       </c>
       <c r="D3">
+        <v>0.999956579275511</v>
+      </c>
+      <c r="E3">
         <v>0.997304852903845</v>
       </c>
-      <c r="E3">
-        <v>0.999956579275511</v>
-      </c>
       <c r="F3">
+        <v>0.997304852903845</v>
+      </c>
+      <c r="G3">
+        <v>0.9989653300344956</v>
+      </c>
+      <c r="H3">
+        <v>0.9980921909400586</v>
+      </c>
+      <c r="I3">
+        <v>1.001084009809193</v>
+      </c>
+      <c r="J3">
+        <v>0.9993449377786714</v>
+      </c>
+      <c r="K3">
+        <v>1.000949544097575</v>
+      </c>
+      <c r="L3">
         <v>1.003166001736026</v>
       </c>
-      <c r="G3">
-        <v>0.9993449377786714</v>
-      </c>
-      <c r="H3">
-        <v>1.000949544097575</v>
-      </c>
-      <c r="I3">
+      <c r="M3">
         <v>1.003166001736026</v>
-      </c>
-      <c r="J3">
-        <v>0.997304852903845</v>
-      </c>
-      <c r="K3">
-        <v>0.9989653300344956</v>
-      </c>
-      <c r="L3">
-        <v>1.001084009809193</v>
-      </c>
-      <c r="M3">
-        <v>0.9980921909400586</v>
       </c>
       <c r="N3">
         <v>1.003166001736026</v>
@@ -764,7 +716,7 @@
         <v>0.999857930821922</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,34 +727,34 @@
         <v>1.006075388941423</v>
       </c>
       <c r="D4">
+        <v>0.9999442128770267</v>
+      </c>
+      <c r="E4">
         <v>0.9947711345066477</v>
       </c>
-      <c r="E4">
-        <v>0.9999442128770267</v>
-      </c>
       <c r="F4">
+        <v>0.9947711345066477</v>
+      </c>
+      <c r="G4">
+        <v>0.9980172208326777</v>
+      </c>
+      <c r="H4">
+        <v>0.9963090169025666</v>
+      </c>
+      <c r="I4">
+        <v>1.002085235838659</v>
+      </c>
+      <c r="J4">
+        <v>0.9987365376642181</v>
+      </c>
+      <c r="K4">
+        <v>1.001840950761083</v>
+      </c>
+      <c r="L4">
         <v>1.006075388941423</v>
       </c>
-      <c r="G4">
-        <v>0.9987365376642181</v>
-      </c>
-      <c r="H4">
-        <v>1.001840950761083</v>
-      </c>
-      <c r="I4">
+      <c r="M4">
         <v>1.006075388941423</v>
-      </c>
-      <c r="J4">
-        <v>0.9947711345066477</v>
-      </c>
-      <c r="K4">
-        <v>0.9980172208326777</v>
-      </c>
-      <c r="L4">
-        <v>1.002085235838659</v>
-      </c>
-      <c r="M4">
-        <v>0.9963090169025666</v>
       </c>
       <c r="N4">
         <v>1.006075388941423</v>
@@ -835,7 +787,7 @@
         <v>0.9997224622905378</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.011546378197386</v>
       </c>
       <c r="D5">
+        <v>0.9999897673437576</v>
+      </c>
+      <c r="E5">
         <v>0.9899339271328537</v>
       </c>
-      <c r="E5">
-        <v>0.9999897673437576</v>
-      </c>
       <c r="F5">
+        <v>0.9899339271328537</v>
+      </c>
+      <c r="G5">
+        <v>0.9962360473525032</v>
+      </c>
+      <c r="H5">
+        <v>0.9929035683717753</v>
+      </c>
+      <c r="I5">
+        <v>1.003963222549076</v>
+      </c>
+      <c r="J5">
+        <v>0.9975653954254531</v>
+      </c>
+      <c r="K5">
+        <v>1.003560273854366</v>
+      </c>
+      <c r="L5">
         <v>1.011546378197386</v>
       </c>
-      <c r="G5">
-        <v>0.9975653954254531</v>
-      </c>
-      <c r="H5">
-        <v>1.003560273854366</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>1.011546378197386</v>
-      </c>
-      <c r="J5">
-        <v>0.9899339271328537</v>
-      </c>
-      <c r="K5">
-        <v>0.9962360473525032</v>
-      </c>
-      <c r="L5">
-        <v>1.003963222549076</v>
-      </c>
-      <c r="M5">
-        <v>0.9929035683717752</v>
       </c>
       <c r="N5">
         <v>1.011546378197386</v>
@@ -906,7 +858,7 @@
         <v>0.9994623225283964</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,34 +869,34 @@
         <v>1.016871945593192</v>
       </c>
       <c r="D6">
+        <v>1.000047605705663</v>
+      </c>
+      <c r="E6">
         <v>0.9852060016232991</v>
       </c>
-      <c r="E6">
-        <v>1.000047605705663</v>
-      </c>
       <c r="F6">
+        <v>0.9852060016232991</v>
+      </c>
+      <c r="G6">
+        <v>0.9945029157349994</v>
+      </c>
+      <c r="H6">
+        <v>0.989576744589478</v>
+      </c>
+      <c r="I6">
+        <v>1.005791617891779</v>
+      </c>
+      <c r="J6">
+        <v>0.9964208632342935</v>
+      </c>
+      <c r="K6">
+        <v>1.005242633223139</v>
+      </c>
+      <c r="L6">
         <v>1.016871945593192</v>
       </c>
-      <c r="G6">
-        <v>0.9964208632342935</v>
-      </c>
-      <c r="H6">
-        <v>1.005242633223139</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>1.016871945593192</v>
-      </c>
-      <c r="J6">
-        <v>0.9852060016232991</v>
-      </c>
-      <c r="K6">
-        <v>0.9945029157349994</v>
-      </c>
-      <c r="L6">
-        <v>1.005791617891779</v>
-      </c>
-      <c r="M6">
-        <v>0.989576744589478</v>
       </c>
       <c r="N6">
         <v>1.016871945593192</v>
@@ -974,10 +926,10 @@
         <v>1.003083672349928</v>
       </c>
       <c r="W6">
-        <v>0.9992075409494803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9992075409494804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000090348058648</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="D7">
+        <v>1.000135435698753</v>
+      </c>
+      <c r="E7">
         <v>0.9997075823087631</v>
       </c>
-      <c r="E7">
-        <v>1.000135435698753</v>
-      </c>
       <c r="F7">
-        <v>1.000090348058648</v>
+        <v>0.9997075823087631</v>
       </c>
       <c r="G7">
+        <v>0.9999789897606983</v>
+      </c>
+      <c r="H7">
+        <v>0.9998185999654037</v>
+      </c>
+      <c r="I7">
+        <v>1.000039252907075</v>
+      </c>
+      <c r="J7">
         <v>0.9999387483940305</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>1.000116695933364</v>
       </c>
-      <c r="I7">
-        <v>1.000090348058648</v>
-      </c>
-      <c r="J7">
-        <v>0.9997075823087631</v>
-      </c>
-      <c r="K7">
-        <v>0.9999789897606983</v>
-      </c>
       <c r="L7">
-        <v>1.000039252907075</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="M7">
-        <v>0.9998185999654037</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="N7">
-        <v>1.000090348058648</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="O7">
         <v>1.000135435698753</v>
@@ -1030,25 +982,25 @@
         <v>1.000037092046392</v>
       </c>
       <c r="R7">
-        <v>0.9999777886887217</v>
+        <v>0.9999777886887218</v>
       </c>
       <c r="S7">
         <v>0.9999272554671824</v>
       </c>
       <c r="T7">
-        <v>0.9999777886887217</v>
+        <v>0.9999777886887218</v>
       </c>
       <c r="U7">
-        <v>0.9999680286150489</v>
+        <v>0.999968028615049</v>
       </c>
       <c r="V7">
-        <v>0.9999924925037688</v>
+        <v>0.9999924925037689</v>
       </c>
       <c r="W7">
-        <v>0.9999782066283421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999782066283422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,34 +1011,34 @@
         <v>1.00030428254203</v>
       </c>
       <c r="D8">
-        <v>0.9991751046503063</v>
+        <v>1.00035231334972</v>
       </c>
       <c r="E8">
-        <v>1.00035231334972</v>
+        <v>0.9991751046503056</v>
       </c>
       <c r="F8">
+        <v>0.9991751046503056</v>
+      </c>
+      <c r="G8">
+        <v>0.999923046342244</v>
+      </c>
+      <c r="H8">
+        <v>0.9994842789127147</v>
+      </c>
+      <c r="I8">
+        <v>1.000126821552818</v>
+      </c>
+      <c r="J8">
+        <v>0.9998266291087592</v>
+      </c>
+      <c r="K8">
+        <v>1.000325174324371</v>
+      </c>
+      <c r="L8">
         <v>1.00030428254203</v>
       </c>
-      <c r="G8">
-        <v>0.9998266291087594</v>
-      </c>
-      <c r="H8">
-        <v>1.000325174324371</v>
-      </c>
-      <c r="I8">
+      <c r="M8">
         <v>1.00030428254203</v>
-      </c>
-      <c r="J8">
-        <v>0.9991751046503063</v>
-      </c>
-      <c r="K8">
-        <v>0.9999230463422438</v>
-      </c>
-      <c r="L8">
-        <v>1.000126821552818</v>
-      </c>
-      <c r="M8">
-        <v>0.999484278912715</v>
       </c>
       <c r="N8">
         <v>1.00030428254203</v>
@@ -1095,31 +1047,31 @@
         <v>1.00035231334972</v>
       </c>
       <c r="P8">
-        <v>0.9997637090000133</v>
+        <v>0.9997637090000129</v>
       </c>
       <c r="Q8">
         <v>1.00008947122924</v>
       </c>
       <c r="R8">
-        <v>0.9999439001806856</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="S8">
-        <v>0.9997846823695954</v>
+        <v>0.9997846823695949</v>
       </c>
       <c r="T8">
-        <v>0.9999439001806856</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="U8">
-        <v>0.999914582412704</v>
+        <v>0.9999145824127038</v>
       </c>
       <c r="V8">
-        <v>0.9999925224385692</v>
+        <v>0.999992522438569</v>
       </c>
       <c r="W8">
-        <v>0.9999397063478705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999397063478703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1130,34 +1082,34 @@
         <v>1.000451236333151</v>
       </c>
       <c r="D9">
+        <v>1.000455258133818</v>
+      </c>
+      <c r="E9">
         <v>0.9988772102273744</v>
       </c>
-      <c r="E9">
-        <v>1.000455258133818</v>
-      </c>
       <c r="F9">
+        <v>0.9988772102273744</v>
+      </c>
+      <c r="G9">
+        <v>0.9998820880198608</v>
+      </c>
+      <c r="H9">
+        <v>0.9992958561857638</v>
+      </c>
+      <c r="I9">
+        <v>1.000185349296607</v>
+      </c>
+      <c r="J9">
+        <v>0.9997646875420867</v>
+      </c>
+      <c r="K9">
+        <v>1.000438472515704</v>
+      </c>
+      <c r="L9">
         <v>1.000451236333151</v>
       </c>
-      <c r="G9">
-        <v>0.9997646875420867</v>
-      </c>
-      <c r="H9">
-        <v>1.000438472515704</v>
-      </c>
-      <c r="I9">
+      <c r="M9">
         <v>1.000451236333151</v>
-      </c>
-      <c r="J9">
-        <v>0.9988772102273744</v>
-      </c>
-      <c r="K9">
-        <v>0.9998820880198608</v>
-      </c>
-      <c r="L9">
-        <v>1.000185349296607</v>
-      </c>
-      <c r="M9">
-        <v>0.999295856185764</v>
       </c>
       <c r="N9">
         <v>1.000451236333151</v>
@@ -1187,10 +1139,10 @@
         <v>0.9999999257139163</v>
       </c>
       <c r="W9">
-        <v>0.9999187697817959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999187697817957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1201,34 +1153,34 @@
         <v>1.000942004445748</v>
       </c>
       <c r="D10">
+        <v>1.001016650829176</v>
+      </c>
+      <c r="E10">
         <v>0.997556749281068</v>
       </c>
-      <c r="E10">
-        <v>1.001016650829176</v>
-      </c>
       <c r="F10">
+        <v>0.997556749281068</v>
+      </c>
+      <c r="G10">
+        <v>0.9997576082703614</v>
+      </c>
+      <c r="H10">
+        <v>0.9984701628103774</v>
+      </c>
+      <c r="I10">
+        <v>1.000389679812437</v>
+      </c>
+      <c r="J10">
+        <v>0.9994873188634162</v>
+      </c>
+      <c r="K10">
+        <v>1.000958496658609</v>
+      </c>
+      <c r="L10">
         <v>1.000942004445748</v>
       </c>
-      <c r="G10">
-        <v>0.9994873188634162</v>
-      </c>
-      <c r="H10">
-        <v>1.000958496658609</v>
-      </c>
-      <c r="I10">
+      <c r="M10">
         <v>1.000942004445748</v>
-      </c>
-      <c r="J10">
-        <v>0.997556749281068</v>
-      </c>
-      <c r="K10">
-        <v>0.9997576082703614</v>
-      </c>
-      <c r="L10">
-        <v>1.000389679812437</v>
-      </c>
-      <c r="M10">
-        <v>0.9984701628103774</v>
       </c>
       <c r="N10">
         <v>1.000942004445748</v>
@@ -1261,7 +1213,7 @@
         <v>0.9998223338713992</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1272,34 +1224,34 @@
         <v>1.00168976191782</v>
       </c>
       <c r="D11">
+        <v>1.001595319650741</v>
+      </c>
+      <c r="E11">
         <v>0.9959670550547646</v>
       </c>
-      <c r="E11">
-        <v>1.001595319650741</v>
-      </c>
       <c r="F11">
+        <v>0.9959670550547646</v>
+      </c>
+      <c r="G11">
+        <v>0.9995517108120338</v>
+      </c>
+      <c r="H11">
+        <v>0.9974645432644438</v>
+      </c>
+      <c r="I11">
+        <v>1.000687681620744</v>
+      </c>
+      <c r="J11">
+        <v>0.999153078663312</v>
+      </c>
+      <c r="K11">
+        <v>1.001570240064787</v>
+      </c>
+      <c r="L11">
         <v>1.00168976191782</v>
       </c>
-      <c r="G11">
-        <v>0.999153078663312</v>
-      </c>
-      <c r="H11">
-        <v>1.001570240064787</v>
-      </c>
-      <c r="I11">
+      <c r="M11">
         <v>1.00168976191782</v>
-      </c>
-      <c r="J11">
-        <v>0.9959670550547646</v>
-      </c>
-      <c r="K11">
-        <v>0.9995517108120338</v>
-      </c>
-      <c r="L11">
-        <v>1.000687681620744</v>
-      </c>
-      <c r="M11">
-        <v>0.9974645432644438</v>
       </c>
       <c r="N11">
         <v>1.00168976191782</v>
@@ -1332,7 +1284,7 @@
         <v>0.9997099238810807</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1343,34 +1295,34 @@
         <v>0.9965019244963467</v>
       </c>
       <c r="D12">
+        <v>0.9594567272800399</v>
+      </c>
+      <c r="E12">
         <v>1.069141523448</v>
       </c>
-      <c r="E12">
-        <v>0.9594567272800399</v>
-      </c>
       <c r="F12">
+        <v>1.069141523448</v>
+      </c>
+      <c r="G12">
+        <v>0.9984576684976421</v>
+      </c>
+      <c r="H12">
+        <v>1.040515235750937</v>
+      </c>
+      <c r="I12">
+        <v>0.9957917862874346</v>
+      </c>
+      <c r="J12">
+        <v>1.013023637876957</v>
+      </c>
+      <c r="K12">
+        <v>0.9722175508210755</v>
+      </c>
+      <c r="L12">
         <v>0.9965019244963467</v>
       </c>
-      <c r="G12">
-        <v>1.013023637876956</v>
-      </c>
-      <c r="H12">
-        <v>0.9722175508210755</v>
-      </c>
-      <c r="I12">
+      <c r="M12">
         <v>0.9965019244963467</v>
-      </c>
-      <c r="J12">
-        <v>1.069141523448</v>
-      </c>
-      <c r="K12">
-        <v>0.9984576684976419</v>
-      </c>
-      <c r="L12">
-        <v>0.9957917862874346</v>
-      </c>
-      <c r="M12">
-        <v>1.040515235750937</v>
       </c>
       <c r="N12">
         <v>0.9965019244963467</v>
@@ -1382,7 +1334,7 @@
         <v>1.01429912536402</v>
       </c>
       <c r="Q12">
-        <v>0.9862401825784981</v>
+        <v>0.9862401825784983</v>
       </c>
       <c r="R12">
         <v>1.008366725074796</v>
@@ -1403,7 +1355,7 @@
         <v>1.005638256807304</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9779654731025208</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="D13">
+        <v>1.008161395417337</v>
+      </c>
+      <c r="E13">
         <v>1.005407163069637</v>
       </c>
-      <c r="E13">
-        <v>1.008161395417337</v>
-      </c>
       <c r="F13">
-        <v>0.9779654731025208</v>
+        <v>1.005407163069637</v>
       </c>
       <c r="G13">
+        <v>1.007759843366767</v>
+      </c>
+      <c r="H13">
+        <v>1.005665950102044</v>
+      </c>
+      <c r="I13">
+        <v>0.9931734290768449</v>
+      </c>
+      <c r="J13">
         <v>1.002262543567484</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>0.998598238224771</v>
       </c>
-      <c r="I13">
-        <v>0.9779654731025208</v>
-      </c>
-      <c r="J13">
-        <v>1.005407163069637</v>
-      </c>
-      <c r="K13">
-        <v>1.007759843366767</v>
-      </c>
       <c r="L13">
-        <v>0.9931734290768449</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="M13">
-        <v>1.005665950102044</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="N13">
-        <v>0.9779654731025208</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="O13">
         <v>1.008161395417337</v>
@@ -1456,7 +1408,7 @@
         <v>1.005211969492411</v>
       </c>
       <c r="R13">
-        <v>0.9971780105298317</v>
+        <v>0.9971780105298316</v>
       </c>
       <c r="S13">
         <v>1.005277034018153</v>
@@ -1474,7 +1426,7 @@
         <v>0.9998742544909258</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1485,34 +1437,34 @@
         <v>0.89463729043138</v>
       </c>
       <c r="D14">
+        <v>0.9573552903254847</v>
+      </c>
+      <c r="E14">
         <v>1.161103579616915</v>
       </c>
-      <c r="E14">
-        <v>0.9573552903254847</v>
-      </c>
       <c r="F14">
+        <v>1.161103579616915</v>
+      </c>
+      <c r="G14">
+        <v>1.031548966570685</v>
+      </c>
+      <c r="H14">
+        <v>1.105060194807737</v>
+      </c>
+      <c r="I14">
+        <v>0.9607686697632367</v>
+      </c>
+      <c r="J14">
+        <v>1.035231789831039</v>
+      </c>
+      <c r="K14">
+        <v>0.9393882919782899</v>
+      </c>
+      <c r="L14">
         <v>0.89463729043138</v>
       </c>
-      <c r="G14">
-        <v>1.035231789831039</v>
-      </c>
-      <c r="H14">
-        <v>0.9393882919782899</v>
-      </c>
-      <c r="I14">
+      <c r="M14">
         <v>0.89463729043138</v>
-      </c>
-      <c r="J14">
-        <v>1.161103579616915</v>
-      </c>
-      <c r="K14">
-        <v>1.031548966570685</v>
-      </c>
-      <c r="L14">
-        <v>0.9607686697632367</v>
-      </c>
-      <c r="M14">
-        <v>1.105060194807738</v>
       </c>
       <c r="N14">
         <v>0.89463729043138</v>
@@ -1545,7 +1497,7 @@
         <v>1.010636759165596</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,40 +1505,40 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9706216024922361</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="D15">
+        <v>0.990880108767745</v>
+      </c>
+      <c r="E15">
         <v>1.043426412315435</v>
       </c>
-      <c r="E15">
-        <v>0.990880108767745</v>
-      </c>
       <c r="F15">
-        <v>0.9706216024922361</v>
+        <v>1.043426412315435</v>
       </c>
       <c r="G15">
+        <v>1.008762563423589</v>
+      </c>
+      <c r="H15">
+        <v>1.0276550026992</v>
+      </c>
+      <c r="I15">
+        <v>0.9885110615170581</v>
+      </c>
+      <c r="J15">
         <v>1.008508557083274</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>0.9847522425780185</v>
       </c>
-      <c r="I15">
-        <v>0.9706216024922361</v>
-      </c>
-      <c r="J15">
-        <v>1.043426412315435</v>
-      </c>
-      <c r="K15">
-        <v>1.008762563423589</v>
-      </c>
       <c r="L15">
-        <v>0.9885110615170581</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="M15">
-        <v>1.0276550026992</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="N15">
-        <v>0.9706216024922361</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="O15">
         <v>0.990880108767745</v>
@@ -1616,7 +1568,7 @@
         <v>1.002889693859569</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000070610020828</v>
+        <v>1.059559228292769</v>
       </c>
       <c r="D16">
-        <v>1.000027075291534</v>
+        <v>1.00107985801002</v>
       </c>
       <c r="E16">
-        <v>0.9999530686903806</v>
+        <v>0.9460907496902093</v>
       </c>
       <c r="F16">
-        <v>1.000070610020828</v>
+        <v>0.9460907496902093</v>
       </c>
       <c r="G16">
-        <v>0.9999973893643973</v>
+        <v>0.9806695492288213</v>
       </c>
       <c r="H16">
-        <v>0.9999902070150725</v>
+        <v>0.9622776416323947</v>
       </c>
       <c r="I16">
-        <v>1.000070610020828</v>
+        <v>1.020562260057345</v>
       </c>
       <c r="J16">
-        <v>1.000027075291534</v>
+        <v>0.987120416645702</v>
       </c>
       <c r="K16">
-        <v>0.9999729974937414</v>
+        <v>1.019118721834708</v>
       </c>
       <c r="L16">
-        <v>1.000017701335252</v>
+        <v>1.059559228292769</v>
       </c>
       <c r="M16">
-        <v>1.000004927928033</v>
+        <v>1.059559228292769</v>
       </c>
       <c r="N16">
-        <v>1.000070610020828</v>
+        <v>1.059559228292769</v>
       </c>
       <c r="O16">
-        <v>0.9999530686903806</v>
+        <v>1.00107985801002</v>
       </c>
       <c r="P16">
-        <v>0.9999900719909574</v>
+        <v>0.9735853038501145</v>
       </c>
       <c r="Q16">
-        <v>0.9999752290273889</v>
+        <v>0.9941001373278608</v>
       </c>
       <c r="R16">
-        <v>1.000016918000914</v>
+        <v>1.002243278664333</v>
       </c>
       <c r="S16">
-        <v>0.9999925111154373</v>
+        <v>0.9780970081153103</v>
       </c>
       <c r="T16">
-        <v>1.000016918000914</v>
+        <v>1.002243278664333</v>
       </c>
       <c r="U16">
-        <v>1.000012035841785</v>
+        <v>0.998462563159675</v>
       </c>
       <c r="V16">
-        <v>1.000023750677594</v>
+        <v>1.010681896186294</v>
       </c>
       <c r="W16">
-        <v>1.000004247142405</v>
+        <v>0.9970598031739961</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999476322264607</v>
+        <v>1.043611246988111</v>
       </c>
       <c r="D17">
-        <v>0.999573190733364</v>
+        <v>1.005582568431504</v>
       </c>
       <c r="E17">
-        <v>1.000291231875085</v>
+        <v>0.9529293034371055</v>
       </c>
       <c r="F17">
-        <v>0.9999476322264607</v>
+        <v>0.9529293034371055</v>
       </c>
       <c r="G17">
-        <v>0.9999224674843125</v>
+        <v>0.9861472089520124</v>
       </c>
       <c r="H17">
-        <v>1.000175503499418</v>
+        <v>0.9679140310754165</v>
       </c>
       <c r="I17">
-        <v>0.9999476322264607</v>
+        <v>1.015358221456395</v>
       </c>
       <c r="J17">
-        <v>0.999573190733364</v>
+        <v>0.9890834181252125</v>
       </c>
       <c r="K17">
-        <v>1.000036176740857</v>
+        <v>1.017143071046135</v>
       </c>
       <c r="L17">
-        <v>1.000003078975113</v>
+        <v>1.043611246988111</v>
       </c>
       <c r="M17">
-        <v>0.9997573707530741</v>
+        <v>1.043611246988111</v>
       </c>
       <c r="N17">
-        <v>0.9999476322264607</v>
+        <v>1.043611246988111</v>
       </c>
       <c r="O17">
-        <v>1.000291231875085</v>
+        <v>1.005582568431504</v>
       </c>
       <c r="P17">
-        <v>0.9999322113042246</v>
+        <v>0.9792559359343047</v>
       </c>
       <c r="Q17">
-        <v>1.000106849679699</v>
+        <v>0.9973329932783581</v>
       </c>
       <c r="R17">
-        <v>0.9999373516116367</v>
+        <v>1.000707706285574</v>
       </c>
       <c r="S17">
-        <v>0.9999289633642539</v>
+        <v>0.982531763331274</v>
       </c>
       <c r="T17">
-        <v>0.9999373516116367</v>
+        <v>1.000707706285574</v>
       </c>
       <c r="U17">
-        <v>0.9999336305798056</v>
+        <v>0.9978016342454834</v>
       </c>
       <c r="V17">
-        <v>0.9999364309091365</v>
+        <v>1.006963556794009</v>
       </c>
       <c r="W17">
-        <v>0.9999633315359605</v>
+        <v>0.9972211336889865</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001315513607491</v>
+        <v>1.011850488244805</v>
       </c>
       <c r="D18">
-        <v>0.9993740361229927</v>
+        <v>1.014415985132418</v>
       </c>
       <c r="E18">
-        <v>0.9996873674551708</v>
+        <v>0.9667514014235385</v>
       </c>
       <c r="F18">
-        <v>1.001315513607491</v>
+        <v>0.9667514014235385</v>
       </c>
       <c r="G18">
-        <v>0.9998149181037561</v>
+        <v>0.9970483299296931</v>
       </c>
       <c r="H18">
-        <v>1.000199750539145</v>
+        <v>0.9792607191321341</v>
       </c>
       <c r="I18">
-        <v>1.001315513607491</v>
+        <v>1.004988130920911</v>
       </c>
       <c r="J18">
-        <v>0.9993740361229927</v>
+        <v>0.9930357199061246</v>
       </c>
       <c r="K18">
-        <v>0.9995495986713612</v>
+        <v>1.013121244367353</v>
       </c>
       <c r="L18">
-        <v>1.000425139997132</v>
+        <v>1.011850488244805</v>
       </c>
       <c r="M18">
-        <v>0.9994904793614778</v>
+        <v>1.011850488244805</v>
       </c>
       <c r="N18">
-        <v>1.001315513607491</v>
+        <v>1.011850488244805</v>
       </c>
       <c r="O18">
-        <v>0.9996873674551708</v>
+        <v>1.014415985132418</v>
       </c>
       <c r="P18">
-        <v>0.9995307017890818</v>
+        <v>0.9905836932779783</v>
       </c>
       <c r="Q18">
-        <v>0.9997511427794634</v>
+        <v>1.003725852519271</v>
       </c>
       <c r="R18">
-        <v>1.000125639061885</v>
+        <v>0.9976726249335871</v>
       </c>
       <c r="S18">
-        <v>0.9996254405606398</v>
+        <v>0.9914010354873604</v>
       </c>
       <c r="T18">
-        <v>1.000125639061885</v>
+        <v>0.9976726249335871</v>
       </c>
       <c r="U18">
-        <v>1.000047958822353</v>
+        <v>0.9965133986767214</v>
       </c>
       <c r="V18">
-        <v>1.000301469779381</v>
+        <v>0.999580816590338</v>
       </c>
       <c r="W18">
-        <v>0.9999821004823158</v>
+        <v>0.9975590023821221</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="D19">
+        <v>1.018463276485346</v>
+      </c>
+      <c r="E19">
+        <v>0.9617164770676671</v>
+      </c>
+      <c r="F19">
+        <v>0.9617164770676671</v>
+      </c>
+      <c r="G19">
+        <v>0.9976309788869148</v>
+      </c>
+      <c r="H19">
+        <v>0.976303509590548</v>
+      </c>
+      <c r="I19">
+        <v>1.004760367749201</v>
+      </c>
+      <c r="J19">
+        <v>0.9919465959711762</v>
+      </c>
+      <c r="K19">
+        <v>1.015412902769276</v>
+      </c>
+      <c r="L19">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="M19">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="N19">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="O19">
+        <v>1.018463276485346</v>
+      </c>
+      <c r="P19">
+        <v>0.9900898767765063</v>
+      </c>
+      <c r="Q19">
+        <v>1.005204936228261</v>
+      </c>
+      <c r="R19">
+        <v>0.9969770216267534</v>
+      </c>
+      <c r="S19">
+        <v>0.9907087831747295</v>
+      </c>
+      <c r="T19">
+        <v>0.9969770216267534</v>
+      </c>
+      <c r="U19">
+        <v>0.995719415212859</v>
+      </c>
+      <c r="V19">
+        <v>0.9987257944357367</v>
+      </c>
+      <c r="W19">
+        <v>0.9971231774809219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="D20">
+        <v>0.9999530686903806</v>
+      </c>
+      <c r="E20">
+        <v>1.000027075291534</v>
+      </c>
+      <c r="F20">
+        <v>1.000027075291534</v>
+      </c>
+      <c r="G20">
+        <v>0.9999729974937414</v>
+      </c>
+      <c r="H20">
+        <v>1.000004927928034</v>
+      </c>
+      <c r="I20">
+        <v>1.000017701335252</v>
+      </c>
+      <c r="J20">
+        <v>0.9999973893643973</v>
+      </c>
+      <c r="K20">
+        <v>0.9999902070150725</v>
+      </c>
+      <c r="L20">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="M20">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="N20">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="O20">
+        <v>0.9999530686903806</v>
+      </c>
+      <c r="P20">
+        <v>0.9999900719909574</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999752290273889</v>
+      </c>
+      <c r="R20">
+        <v>1.000016918000914</v>
+      </c>
+      <c r="S20">
+        <v>0.9999925111154373</v>
+      </c>
+      <c r="T20">
+        <v>1.000016918000914</v>
+      </c>
+      <c r="U20">
+        <v>1.000012035841785</v>
+      </c>
+      <c r="V20">
+        <v>1.000023750677594</v>
+      </c>
+      <c r="W20">
+        <v>1.000004247142405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="D21">
+        <v>1.000291231875085</v>
+      </c>
+      <c r="E21">
+        <v>0.999573190733364</v>
+      </c>
+      <c r="F21">
+        <v>0.999573190733364</v>
+      </c>
+      <c r="G21">
+        <v>1.000036176740857</v>
+      </c>
+      <c r="H21">
+        <v>0.9997573707530741</v>
+      </c>
+      <c r="I21">
+        <v>1.000003078975113</v>
+      </c>
+      <c r="J21">
+        <v>0.9999224674843126</v>
+      </c>
+      <c r="K21">
+        <v>1.000175503499418</v>
+      </c>
+      <c r="L21">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="M21">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="N21">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="O21">
+        <v>1.000291231875085</v>
+      </c>
+      <c r="P21">
+        <v>0.9999322113042246</v>
+      </c>
+      <c r="Q21">
+        <v>1.000106849679699</v>
+      </c>
+      <c r="R21">
+        <v>0.9999373516116367</v>
+      </c>
+      <c r="S21">
+        <v>0.9999289633642539</v>
+      </c>
+      <c r="T21">
+        <v>0.9999373516116367</v>
+      </c>
+      <c r="U21">
+        <v>0.9999336305798057</v>
+      </c>
+      <c r="V21">
+        <v>0.9999364309091368</v>
+      </c>
+      <c r="W21">
+        <v>0.9999633315359606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="D22">
+        <v>0.9996873674551708</v>
+      </c>
+      <c r="E22">
+        <v>0.9993740361229927</v>
+      </c>
+      <c r="F22">
+        <v>0.9993740361229927</v>
+      </c>
+      <c r="G22">
+        <v>0.9995495986713612</v>
+      </c>
+      <c r="H22">
+        <v>0.9994904793614778</v>
+      </c>
+      <c r="I22">
+        <v>1.000425139997132</v>
+      </c>
+      <c r="J22">
+        <v>0.9998149181037561</v>
+      </c>
+      <c r="K22">
+        <v>1.000199750539145</v>
+      </c>
+      <c r="L22">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="M22">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="N22">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="O22">
+        <v>0.9996873674551708</v>
+      </c>
+      <c r="P22">
+        <v>0.9995307017890818</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997511427794634</v>
+      </c>
+      <c r="R22">
+        <v>1.000125639061885</v>
+      </c>
+      <c r="S22">
+        <v>0.9996254405606398</v>
+      </c>
+      <c r="T22">
+        <v>1.000125639061885</v>
+      </c>
+      <c r="U22">
+        <v>1.000047958822353</v>
+      </c>
+      <c r="V22">
+        <v>1.000301469779381</v>
+      </c>
+      <c r="W22">
+        <v>0.9999821004823158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.004104699977789</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9983670130676044</v>
+      </c>
+      <c r="E23">
         <v>0.9991432514157653</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.9991432514157653</v>
+      </c>
+      <c r="G23">
+        <v>0.9985493924986193</v>
+      </c>
+      <c r="H23">
+        <v>0.9990403434268971</v>
+      </c>
+      <c r="I23">
+        <v>1.001271601577097</v>
+      </c>
+      <c r="J23">
+        <v>0.999617864157611</v>
+      </c>
+      <c r="K23">
+        <v>1.000188825627091</v>
+      </c>
+      <c r="L23">
+        <v>1.004104699977789</v>
+      </c>
+      <c r="M23">
+        <v>1.004104699977789</v>
+      </c>
+      <c r="N23">
+        <v>1.004104699977789</v>
+      </c>
+      <c r="O23">
         <v>0.9983670130676044</v>
       </c>
-      <c r="F19">
-        <v>1.004104699977789</v>
-      </c>
-      <c r="G19">
-        <v>0.999617864157611</v>
-      </c>
-      <c r="H19">
-        <v>1.000188825627091</v>
-      </c>
-      <c r="I19">
-        <v>1.004104699977789</v>
-      </c>
-      <c r="J19">
-        <v>0.9991432514157653</v>
-      </c>
-      <c r="K19">
-        <v>0.99854939249862</v>
-      </c>
-      <c r="L19">
-        <v>1.001271601577097</v>
-      </c>
-      <c r="M19">
-        <v>0.9990403434268971</v>
-      </c>
-      <c r="N19">
-        <v>1.004104699977789</v>
-      </c>
-      <c r="O19">
-        <v>0.9983670130676044</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9987551322416849</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9989924386126077</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000538321487053</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9990427095469935</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000538321487053</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000308207154692</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.001067505719312</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000035373968559</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003166001736026</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="D3">
-        <v>0.999956579275511</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="E3">
-        <v>0.997304852903845</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="F3">
-        <v>0.997304852903845</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="G3">
-        <v>0.9989653300344956</v>
+        <v>0.9960940470605191</v>
       </c>
       <c r="H3">
-        <v>0.9980921909400586</v>
+        <v>0.9740881128025944</v>
       </c>
       <c r="I3">
-        <v>1.001084009809193</v>
+        <v>1.006396116268012</v>
       </c>
       <c r="J3">
-        <v>0.9993449377786714</v>
+        <v>0.9912800949135443</v>
       </c>
       <c r="K3">
-        <v>1.000949544097575</v>
+        <v>1.016330616412103</v>
       </c>
       <c r="L3">
-        <v>1.003166001736026</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="M3">
-        <v>1.003166001736026</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="N3">
-        <v>1.003166001736026</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="O3">
-        <v>0.999956579275511</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="P3">
-        <v>0.9986307160896779</v>
+        <v>0.9881150499963951</v>
       </c>
       <c r="Q3">
-        <v>0.9996507585270912</v>
+        <v>1.004462140367433</v>
       </c>
       <c r="R3">
-        <v>1.000142477971794</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="S3">
-        <v>0.998868789986009</v>
+        <v>0.9891700649687781</v>
       </c>
       <c r="T3">
-        <v>1.000142477971794</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="U3">
-        <v>0.9999430929235134</v>
+        <v>0.9957255313310497</v>
       </c>
       <c r="V3">
-        <v>1.000587674686016</v>
+        <v>0.9996588111484126</v>
       </c>
       <c r="W3">
-        <v>0.999857930821922</v>
+        <v>0.9969763772334284</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006075388941423</v>
+        <v>1.013349994263879</v>
       </c>
       <c r="D4">
-        <v>0.9999442128770267</v>
+        <v>1.016007191623176</v>
       </c>
       <c r="E4">
-        <v>0.9947711345066477</v>
+        <v>0.962947489867685</v>
       </c>
       <c r="F4">
-        <v>0.9947711345066477</v>
+        <v>0.962947489867685</v>
       </c>
       <c r="G4">
-        <v>0.9980172208326777</v>
+        <v>0.9966577324049557</v>
       </c>
       <c r="H4">
-        <v>0.9963090169025666</v>
+        <v>0.9768645175074521</v>
       </c>
       <c r="I4">
-        <v>1.002085235838659</v>
+        <v>1.00559614547335</v>
       </c>
       <c r="J4">
-        <v>0.9987365376642181</v>
+        <v>0.9922213685519934</v>
       </c>
       <c r="K4">
-        <v>1.001840950761083</v>
+        <v>1.014626798794261</v>
       </c>
       <c r="L4">
-        <v>1.006075388941423</v>
+        <v>1.013349994263879</v>
       </c>
       <c r="M4">
-        <v>1.006075388941423</v>
+        <v>1.013349994263879</v>
       </c>
       <c r="N4">
-        <v>1.006075388941423</v>
+        <v>1.013349994263879</v>
       </c>
       <c r="O4">
-        <v>0.9999442128770267</v>
+        <v>1.016007191623176</v>
       </c>
       <c r="P4">
-        <v>0.9973576736918373</v>
+        <v>0.9894773407454303</v>
       </c>
       <c r="Q4">
-        <v>0.9993403752706225</v>
+        <v>1.004114280087585</v>
       </c>
       <c r="R4">
-        <v>1.000263578775032</v>
+        <v>0.9974348919182464</v>
       </c>
       <c r="S4">
-        <v>0.9978172950159642</v>
+        <v>0.9903920166809513</v>
       </c>
       <c r="T4">
-        <v>1.000263578775032</v>
+        <v>0.9974348919182465</v>
       </c>
       <c r="U4">
-        <v>0.9998818184973289</v>
+        <v>0.9961315110766833</v>
       </c>
       <c r="V4">
-        <v>1.001120532586148</v>
+        <v>0.9995752077141224</v>
       </c>
       <c r="W4">
-        <v>0.9997224622905378</v>
+        <v>0.9972839048108439</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011546378197386</v>
+        <v>1.019217612291105</v>
       </c>
       <c r="D5">
-        <v>0.9999897673437576</v>
+        <v>1.020770640754716</v>
       </c>
       <c r="E5">
-        <v>0.9899339271328537</v>
+        <v>0.950318847843665</v>
       </c>
       <c r="F5">
-        <v>0.9899339271328537</v>
+        <v>0.950318847843665</v>
       </c>
       <c r="G5">
-        <v>0.9962360473525032</v>
+        <v>0.9950417760377347</v>
       </c>
       <c r="H5">
-        <v>0.9929035683717753</v>
+        <v>0.9688305922371957</v>
       </c>
       <c r="I5">
-        <v>1.003963222549076</v>
+        <v>1.007898937250673</v>
       </c>
       <c r="J5">
-        <v>0.9975653954254531</v>
+        <v>0.9894983109433952</v>
       </c>
       <c r="K5">
-        <v>1.003560273854366</v>
+        <v>1.019561889002695</v>
       </c>
       <c r="L5">
-        <v>1.011546378197386</v>
+        <v>1.019217612291105</v>
       </c>
       <c r="M5">
-        <v>1.011546378197386</v>
+        <v>1.019217612291105</v>
       </c>
       <c r="N5">
-        <v>1.011546378197386</v>
+        <v>1.019217612291105</v>
       </c>
       <c r="O5">
-        <v>0.9999897673437576</v>
+        <v>1.020770640754716</v>
       </c>
       <c r="P5">
-        <v>0.9949618472383056</v>
+        <v>0.9855447442991907</v>
       </c>
       <c r="Q5">
-        <v>0.9987775813846054</v>
+        <v>1.005134475849056</v>
       </c>
       <c r="R5">
-        <v>1.000490024224666</v>
+        <v>0.9967690336298287</v>
       </c>
       <c r="S5">
-        <v>0.9958296966340215</v>
+        <v>0.9868625998472589</v>
       </c>
       <c r="T5">
-        <v>1.000490024224666</v>
+        <v>0.9967690336298287</v>
       </c>
       <c r="U5">
-        <v>0.9997588670248627</v>
+        <v>0.9949513529582203</v>
       </c>
       <c r="V5">
-        <v>1.002116369259368</v>
+        <v>0.9998046048247972</v>
       </c>
       <c r="W5">
-        <v>0.9994623225283964</v>
+        <v>0.9963923257951476</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016871945593192</v>
+        <v>1.022727600113637</v>
       </c>
       <c r="D6">
-        <v>1.000047605705663</v>
+        <v>1.02371076909091</v>
       </c>
       <c r="E6">
-        <v>0.9852060016232991</v>
+        <v>0.9426189842045454</v>
       </c>
       <c r="F6">
-        <v>0.9852060016232991</v>
+        <v>0.9426189842045454</v>
       </c>
       <c r="G6">
-        <v>0.9945029157349994</v>
+        <v>0.994080947556818</v>
       </c>
       <c r="H6">
-        <v>0.989576744589478</v>
+        <v>0.9639397090340914</v>
       </c>
       <c r="I6">
-        <v>1.005791617891779</v>
+        <v>1.009282606477273</v>
       </c>
       <c r="J6">
-        <v>0.9964208632342935</v>
+        <v>0.9878415621590912</v>
       </c>
       <c r="K6">
-        <v>1.005242633223139</v>
+        <v>1.022573612954545</v>
       </c>
       <c r="L6">
-        <v>1.016871945593192</v>
+        <v>1.022727600113637</v>
       </c>
       <c r="M6">
-        <v>1.016871945593192</v>
+        <v>1.022727600113637</v>
       </c>
       <c r="N6">
-        <v>1.016871945593192</v>
+        <v>1.022727600113637</v>
       </c>
       <c r="O6">
-        <v>1.000047605705663</v>
+        <v>1.02371076909091</v>
       </c>
       <c r="P6">
-        <v>0.9926268036644809</v>
+        <v>0.9831648766477274</v>
       </c>
       <c r="Q6">
-        <v>0.9982342344699781</v>
+        <v>1.005776165625</v>
       </c>
       <c r="R6">
-        <v>1.000708517640718</v>
+        <v>0.9963524511363641</v>
       </c>
       <c r="S6">
-        <v>0.9938914901877517</v>
+        <v>0.984723771818182</v>
       </c>
       <c r="T6">
-        <v>1.000708517640718</v>
+        <v>0.9963524511363641</v>
       </c>
       <c r="U6">
-        <v>0.9996366040391118</v>
+        <v>0.9942247288920458</v>
       </c>
       <c r="V6">
-        <v>1.003083672349928</v>
+        <v>0.999925303136364</v>
       </c>
       <c r="W6">
-        <v>0.9992075409494804</v>
+        <v>0.9958469739488639</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000090348058649</v>
+        <v>1.110239844800318</v>
       </c>
       <c r="D7">
-        <v>1.000135435698753</v>
+        <v>1.072902375049891</v>
       </c>
       <c r="E7">
-        <v>0.9997075823087631</v>
+        <v>0.7847622185519366</v>
       </c>
       <c r="F7">
-        <v>0.9997075823087631</v>
+        <v>0.7847622185519366</v>
       </c>
       <c r="G7">
-        <v>0.9999789897606983</v>
+        <v>0.9689032636466873</v>
       </c>
       <c r="H7">
-        <v>0.9998185999654037</v>
+        <v>0.8631279215819206</v>
       </c>
       <c r="I7">
-        <v>1.000039252907075</v>
+        <v>1.043288630031106</v>
       </c>
       <c r="J7">
-        <v>0.9999387483940305</v>
+        <v>0.9546573058164763</v>
       </c>
       <c r="K7">
-        <v>1.000116695933364</v>
+        <v>1.08207768073703</v>
       </c>
       <c r="L7">
-        <v>1.000090348058649</v>
+        <v>1.110239844800318</v>
       </c>
       <c r="M7">
-        <v>1.000090348058649</v>
+        <v>1.110239844800318</v>
       </c>
       <c r="N7">
-        <v>1.000090348058649</v>
+        <v>1.110239844800318</v>
       </c>
       <c r="O7">
-        <v>1.000135435698753</v>
+        <v>1.072902375049891</v>
       </c>
       <c r="P7">
-        <v>0.9999215090037582</v>
+        <v>0.9288322968009139</v>
       </c>
       <c r="Q7">
-        <v>1.000037092046392</v>
+        <v>1.013779840433184</v>
       </c>
       <c r="R7">
-        <v>0.9999777886887218</v>
+        <v>0.989301479467382</v>
       </c>
       <c r="S7">
-        <v>0.9999272554671824</v>
+        <v>0.9374406331394347</v>
       </c>
       <c r="T7">
-        <v>0.9999777886887218</v>
+        <v>0.9893014794673821</v>
       </c>
       <c r="U7">
-        <v>0.999968028615049</v>
+        <v>0.9806404360546557</v>
       </c>
       <c r="V7">
-        <v>0.9999924925037689</v>
+        <v>1.006560317803788</v>
       </c>
       <c r="W7">
-        <v>0.9999782066283422</v>
+        <v>0.9849949050269208</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00030428254203</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="D8">
-        <v>1.00035231334972</v>
+        <v>1.073018885183037</v>
       </c>
       <c r="E8">
-        <v>0.9991751046503056</v>
+        <v>0.7846985202821278</v>
       </c>
       <c r="F8">
-        <v>0.9991751046503056</v>
+        <v>0.7846985202821278</v>
       </c>
       <c r="G8">
-        <v>0.999923046342244</v>
+        <v>0.9689493520426443</v>
       </c>
       <c r="H8">
-        <v>0.9994842789127147</v>
+        <v>0.8630991910460672</v>
       </c>
       <c r="I8">
-        <v>1.000126821552818</v>
+        <v>1.043250456861195</v>
       </c>
       <c r="J8">
-        <v>0.9998266291087592</v>
+        <v>0.9546446918649614</v>
       </c>
       <c r="K8">
-        <v>1.000325174324371</v>
+        <v>1.082115581142487</v>
       </c>
       <c r="L8">
-        <v>1.00030428254203</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="M8">
-        <v>1.00030428254203</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="N8">
-        <v>1.00030428254203</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="O8">
-        <v>1.00035231334972</v>
+        <v>1.073018885183037</v>
       </c>
       <c r="P8">
-        <v>0.9997637090000129</v>
+        <v>0.9288587027325825</v>
       </c>
       <c r="Q8">
-        <v>1.00008947122924</v>
+        <v>1.013831788523999</v>
       </c>
       <c r="R8">
-        <v>0.9999439001806852</v>
+        <v>0.9892783877655945</v>
       </c>
       <c r="S8">
-        <v>0.9997846823695949</v>
+        <v>0.9374540324433754</v>
       </c>
       <c r="T8">
-        <v>0.9999439001806852</v>
+        <v>0.9892783877655944</v>
       </c>
       <c r="U8">
-        <v>0.9999145824127038</v>
+        <v>0.9806199637904361</v>
       </c>
       <c r="V8">
-        <v>0.999992522438569</v>
+        <v>1.006519522598673</v>
       </c>
       <c r="W8">
-        <v>0.9999397063478703</v>
+        <v>0.9849868045317673</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000451236333151</v>
+        <v>1.10988415609072</v>
       </c>
       <c r="D9">
-        <v>1.000455258133818</v>
+        <v>1.073241852309568</v>
       </c>
       <c r="E9">
-        <v>0.9988772102273744</v>
+        <v>0.7845765859746656</v>
       </c>
       <c r="F9">
-        <v>0.9988772102273744</v>
+        <v>0.7845765859746656</v>
       </c>
       <c r="G9">
-        <v>0.9998820880198608</v>
+        <v>0.9690375397859712</v>
       </c>
       <c r="H9">
-        <v>0.9992958561857638</v>
+        <v>0.8630441854470641</v>
       </c>
       <c r="I9">
-        <v>1.000185349296607</v>
+        <v>1.04317741773995</v>
       </c>
       <c r="J9">
-        <v>0.9997646875420867</v>
+        <v>0.9546205445738813</v>
       </c>
       <c r="K9">
-        <v>1.000438472515704</v>
+        <v>1.082188123571898</v>
       </c>
       <c r="L9">
-        <v>1.000451236333151</v>
+        <v>1.10988415609072</v>
       </c>
       <c r="M9">
-        <v>1.000451236333151</v>
+        <v>1.10988415609072</v>
       </c>
       <c r="N9">
-        <v>1.000451236333151</v>
+        <v>1.10988415609072</v>
       </c>
       <c r="O9">
-        <v>1.000455258133818</v>
+        <v>1.073241852309568</v>
       </c>
       <c r="P9">
-        <v>0.9996662341805964</v>
+        <v>0.9289092191421168</v>
       </c>
       <c r="Q9">
-        <v>1.000109972837953</v>
+        <v>1.013931198441725</v>
       </c>
       <c r="R9">
-        <v>0.9999279015647812</v>
+        <v>0.9892341981249843</v>
       </c>
       <c r="S9">
-        <v>0.9996990519677599</v>
+        <v>0.9374796609527051</v>
       </c>
       <c r="T9">
-        <v>0.9999279015647812</v>
+        <v>0.9892341981249843</v>
       </c>
       <c r="U9">
-        <v>0.9998870980591076</v>
+        <v>0.9805807847372086</v>
       </c>
       <c r="V9">
-        <v>0.9999999257139163</v>
+        <v>1.006441459007911</v>
       </c>
       <c r="W9">
-        <v>0.9999187697817957</v>
+        <v>0.9849713006867147</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000942004445748</v>
+        <v>1.109901867086223</v>
       </c>
       <c r="D10">
-        <v>1.001016650829176</v>
+        <v>1.073224828384219</v>
       </c>
       <c r="E10">
-        <v>0.997556749281068</v>
+        <v>0.7845860087376004</v>
       </c>
       <c r="F10">
-        <v>0.997556749281068</v>
+        <v>0.7845860087376004</v>
       </c>
       <c r="G10">
-        <v>0.9997576082703614</v>
+        <v>0.9690308471198902</v>
       </c>
       <c r="H10">
-        <v>0.9984701628103774</v>
+        <v>0.8630484633926959</v>
       </c>
       <c r="I10">
-        <v>1.000389679812437</v>
+        <v>1.043182950303133</v>
       </c>
       <c r="J10">
-        <v>0.9994873188634162</v>
+        <v>0.9546224140872129</v>
       </c>
       <c r="K10">
-        <v>1.000958496658609</v>
+        <v>1.082182545956026</v>
       </c>
       <c r="L10">
-        <v>1.000942004445748</v>
+        <v>1.109901867086223</v>
       </c>
       <c r="M10">
-        <v>1.000942004445748</v>
+        <v>1.109901867086223</v>
       </c>
       <c r="N10">
-        <v>1.000942004445748</v>
+        <v>1.109901867086223</v>
       </c>
       <c r="O10">
-        <v>1.001016650829176</v>
+        <v>1.073224828384219</v>
       </c>
       <c r="P10">
-        <v>0.9992867000551219</v>
+        <v>0.9289054185609095</v>
       </c>
       <c r="Q10">
-        <v>1.000251984846296</v>
+        <v>1.013923621235716</v>
       </c>
       <c r="R10">
-        <v>0.9998384681853306</v>
+        <v>0.9892375680693473</v>
       </c>
       <c r="S10">
-        <v>0.99935357299122</v>
+        <v>0.9374777504030106</v>
       </c>
       <c r="T10">
-        <v>0.9998384681853306</v>
+        <v>0.9892375680693473</v>
       </c>
       <c r="U10">
-        <v>0.9997506808548521</v>
+        <v>0.9805837795738137</v>
       </c>
       <c r="V10">
-        <v>0.9999889455730313</v>
+        <v>1.006447397076295</v>
       </c>
       <c r="W10">
-        <v>0.9998223338713992</v>
+        <v>0.984972490633375</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00168976191782</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="D11">
-        <v>1.001595319650741</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="E11">
-        <v>0.9959670550547646</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="F11">
-        <v>0.9959670550547646</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="G11">
-        <v>0.9995517108120338</v>
+        <v>0.9987491634336652</v>
       </c>
       <c r="H11">
-        <v>0.9974645432644438</v>
+        <v>0.9974361374035087</v>
       </c>
       <c r="I11">
-        <v>1.000687681620744</v>
+        <v>1.001353219328736</v>
       </c>
       <c r="J11">
-        <v>0.999153078663312</v>
+        <v>0.9991329644187323</v>
       </c>
       <c r="K11">
-        <v>1.001570240064787</v>
+        <v>1.001315581313455</v>
       </c>
       <c r="L11">
-        <v>1.00168976191782</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="M11">
-        <v>1.00168976191782</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="N11">
-        <v>1.00168976191782</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="O11">
-        <v>1.001595319650741</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="P11">
-        <v>0.9987811873527526</v>
+        <v>0.998234557890705</v>
       </c>
       <c r="Q11">
-        <v>1.000374199157026</v>
+        <v>0.9996537699467982</v>
       </c>
       <c r="R11">
-        <v>0.999750712207775</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="S11">
-        <v>0.9989051511229391</v>
+        <v>0.9985340267333808</v>
       </c>
       <c r="T11">
-        <v>0.999750712207775</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="U11">
-        <v>0.9996013038216592</v>
+        <v>0.9998706133408559</v>
       </c>
       <c r="V11">
-        <v>1.000018995440891</v>
+        <v>1.000672565305341</v>
       </c>
       <c r="W11">
-        <v>0.9997099238810807</v>
+        <v>0.9997920693553485</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9965019244963467</v>
+        <v>1.002101923254007</v>
       </c>
       <c r="D12">
-        <v>0.9594567272800399</v>
+        <v>1.000342790761932</v>
       </c>
       <c r="E12">
-        <v>1.069141523448</v>
+        <v>0.9976058715490418</v>
       </c>
       <c r="F12">
-        <v>1.069141523448</v>
+        <v>0.9976058715490418</v>
       </c>
       <c r="G12">
-        <v>0.9984576684976421</v>
+        <v>0.9993375959749866</v>
       </c>
       <c r="H12">
-        <v>1.040515235750937</v>
+        <v>0.9983820748973589</v>
       </c>
       <c r="I12">
-        <v>0.9957917862874346</v>
+        <v>1.000747009109521</v>
       </c>
       <c r="J12">
-        <v>1.013023637876957</v>
+        <v>0.9994523487194312</v>
       </c>
       <c r="K12">
-        <v>0.9722175508210755</v>
+        <v>1.00087510006711</v>
       </c>
       <c r="L12">
-        <v>0.9965019244963467</v>
+        <v>1.002101923254007</v>
       </c>
       <c r="M12">
-        <v>0.9965019244963467</v>
+        <v>1.002101923254007</v>
       </c>
       <c r="N12">
-        <v>0.9965019244963467</v>
+        <v>1.002101923254007</v>
       </c>
       <c r="O12">
-        <v>0.9594567272800399</v>
+        <v>1.000342790761932</v>
       </c>
       <c r="P12">
-        <v>1.01429912536402</v>
+        <v>0.9989743311554871</v>
       </c>
       <c r="Q12">
-        <v>0.9862401825784983</v>
+        <v>0.9998975697406818</v>
       </c>
       <c r="R12">
-        <v>1.008366725074796</v>
+        <v>1.000016861854994</v>
       </c>
       <c r="S12">
-        <v>1.013873962868332</v>
+        <v>0.9991336703434684</v>
       </c>
       <c r="T12">
-        <v>1.008366725074796</v>
+        <v>1.000016861854994</v>
       </c>
       <c r="U12">
-        <v>1.009530953275336</v>
+        <v>0.999875733571103</v>
       </c>
       <c r="V12">
-        <v>1.006925147519538</v>
+        <v>1.000320971507684</v>
       </c>
       <c r="W12">
-        <v>1.005638256807304</v>
+        <v>0.9998555892916735</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9779654731025206</v>
+        <v>1.007200527555865</v>
       </c>
       <c r="D13">
-        <v>1.008161395417337</v>
+        <v>1.000988977635733</v>
       </c>
       <c r="E13">
-        <v>1.005407163069637</v>
+        <v>0.9921130646504354</v>
       </c>
       <c r="F13">
-        <v>1.005407163069637</v>
+        <v>0.9921130646504354</v>
       </c>
       <c r="G13">
-        <v>1.007759843366767</v>
+        <v>0.9977176571498347</v>
       </c>
       <c r="H13">
-        <v>1.005665950102044</v>
+        <v>0.9946369184277802</v>
       </c>
       <c r="I13">
-        <v>0.9931734290768449</v>
+        <v>1.002542136794172</v>
       </c>
       <c r="J13">
-        <v>1.002262543567484</v>
+        <v>0.9981780952967051</v>
       </c>
       <c r="K13">
-        <v>0.998598238224771</v>
+        <v>1.002875057337013</v>
       </c>
       <c r="L13">
-        <v>0.9779654731025206</v>
+        <v>1.007200527555865</v>
       </c>
       <c r="M13">
-        <v>0.9779654731025206</v>
+        <v>1.007200527555865</v>
       </c>
       <c r="N13">
-        <v>0.9779654731025206</v>
+        <v>1.007200527555865</v>
       </c>
       <c r="O13">
-        <v>1.008161395417337</v>
+        <v>1.000988977635733</v>
       </c>
       <c r="P13">
-        <v>1.006784279243487</v>
+        <v>0.9965510211430841</v>
       </c>
       <c r="Q13">
-        <v>1.005211969492411</v>
+        <v>0.9995835364662191</v>
       </c>
       <c r="R13">
-        <v>0.9971780105298316</v>
+        <v>1.000100856614011</v>
       </c>
       <c r="S13">
-        <v>1.005277034018153</v>
+        <v>0.9970933791942911</v>
       </c>
       <c r="T13">
-        <v>0.9971780105298317</v>
+        <v>1.000100856614011</v>
       </c>
       <c r="U13">
-        <v>0.9984491437892449</v>
+        <v>0.9996201662846846</v>
       </c>
       <c r="V13">
-        <v>0.9943524096519001</v>
+        <v>1.001136238538921</v>
       </c>
       <c r="W13">
-        <v>0.9998742544909258</v>
+        <v>0.9995315543559424</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.89463729043138</v>
+        <v>1.008675235164905</v>
       </c>
       <c r="D14">
-        <v>0.9573552903254847</v>
+        <v>1.000053452618041</v>
       </c>
       <c r="E14">
-        <v>1.161103579616915</v>
+        <v>0.9923318239478931</v>
       </c>
       <c r="F14">
-        <v>1.161103579616915</v>
+        <v>0.9923318239478931</v>
       </c>
       <c r="G14">
-        <v>1.031548966570685</v>
+        <v>0.9971764371670626</v>
       </c>
       <c r="H14">
-        <v>1.105060194807737</v>
+        <v>0.9946085403610071</v>
       </c>
       <c r="I14">
-        <v>0.9607686697632367</v>
+        <v>1.002983628298319</v>
       </c>
       <c r="J14">
-        <v>1.035231789831039</v>
+        <v>0.9981531228903422</v>
       </c>
       <c r="K14">
-        <v>0.9393882919782899</v>
+        <v>1.002715552669192</v>
       </c>
       <c r="L14">
-        <v>0.89463729043138</v>
+        <v>1.008675235164905</v>
       </c>
       <c r="M14">
-        <v>0.89463729043138</v>
+        <v>1.008675235164905</v>
       </c>
       <c r="N14">
-        <v>0.89463729043138</v>
+        <v>1.008675235164905</v>
       </c>
       <c r="O14">
-        <v>0.9573552903254847</v>
+        <v>1.000053452618041</v>
       </c>
       <c r="P14">
-        <v>1.0592294349712</v>
+        <v>0.996192638282967</v>
       </c>
       <c r="Q14">
-        <v>0.996293540078262</v>
+        <v>0.9991032877541915</v>
       </c>
       <c r="R14">
-        <v>1.00436538679126</v>
+        <v>1.00035350391028</v>
       </c>
       <c r="S14">
-        <v>1.05123021992448</v>
+        <v>0.996846133152092</v>
       </c>
       <c r="T14">
-        <v>1.00436538679126</v>
+        <v>1.00035350391028</v>
       </c>
       <c r="U14">
-        <v>1.012081987551205</v>
+        <v>0.9998034086552955</v>
       </c>
       <c r="V14">
-        <v>0.9885930481272396</v>
+        <v>1.001577773957217</v>
       </c>
       <c r="W14">
-        <v>1.010636759165596</v>
+        <v>0.9995872241395953</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9706216024922362</v>
+        <v>1.003166001736026</v>
       </c>
       <c r="D15">
-        <v>0.990880108767745</v>
+        <v>0.999956579275511</v>
       </c>
       <c r="E15">
-        <v>1.043426412315435</v>
+        <v>0.997304852903845</v>
       </c>
       <c r="F15">
-        <v>1.043426412315435</v>
+        <v>0.997304852903845</v>
       </c>
       <c r="G15">
-        <v>1.008762563423589</v>
+        <v>0.9989653300344956</v>
       </c>
       <c r="H15">
-        <v>1.0276550026992</v>
+        <v>0.9980921909400586</v>
       </c>
       <c r="I15">
-        <v>0.9885110615170581</v>
+        <v>1.001084009809193</v>
       </c>
       <c r="J15">
-        <v>1.008508557083274</v>
+        <v>0.9993449377786714</v>
       </c>
       <c r="K15">
-        <v>0.9847522425780185</v>
+        <v>1.000949544097575</v>
       </c>
       <c r="L15">
-        <v>0.9706216024922362</v>
+        <v>1.003166001736026</v>
       </c>
       <c r="M15">
-        <v>0.9706216024922362</v>
+        <v>1.003166001736026</v>
       </c>
       <c r="N15">
-        <v>0.9706216024922362</v>
+        <v>1.003166001736026</v>
       </c>
       <c r="O15">
-        <v>0.990880108767745</v>
+        <v>0.999956579275511</v>
       </c>
       <c r="P15">
-        <v>1.01715326054159</v>
+        <v>0.9986307160896779</v>
       </c>
       <c r="Q15">
-        <v>0.9996943329255096</v>
+        <v>0.9996507585270912</v>
       </c>
       <c r="R15">
-        <v>1.001642707858472</v>
+        <v>1.000142477971794</v>
       </c>
       <c r="S15">
-        <v>1.014271692722151</v>
+        <v>0.998868789986009</v>
       </c>
       <c r="T15">
-        <v>1.001642707858472</v>
+        <v>1.000142477971794</v>
       </c>
       <c r="U15">
-        <v>1.003359170164673</v>
+        <v>0.9999430929235134</v>
       </c>
       <c r="V15">
-        <v>0.9968116566301853</v>
+        <v>1.000587674686016</v>
       </c>
       <c r="W15">
-        <v>1.002889693859569</v>
+        <v>0.999857930821922</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.059559228292769</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="D16">
-        <v>1.00107985801002</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="E16">
-        <v>0.9460907496902093</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="F16">
-        <v>0.9460907496902093</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="G16">
-        <v>0.9806695492288213</v>
+        <v>0.9980172208326777</v>
       </c>
       <c r="H16">
-        <v>0.9622776416323947</v>
+        <v>0.9963090169025666</v>
       </c>
       <c r="I16">
-        <v>1.020562260057345</v>
+        <v>1.002085235838659</v>
       </c>
       <c r="J16">
-        <v>0.987120416645702</v>
+        <v>0.9987365376642181</v>
       </c>
       <c r="K16">
-        <v>1.019118721834708</v>
+        <v>1.001840950761083</v>
       </c>
       <c r="L16">
-        <v>1.059559228292769</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="M16">
-        <v>1.059559228292769</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="N16">
-        <v>1.059559228292769</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="O16">
-        <v>1.00107985801002</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="P16">
-        <v>0.9735853038501145</v>
+        <v>0.9973576736918373</v>
       </c>
       <c r="Q16">
-        <v>0.9941001373278608</v>
+        <v>0.9993403752706225</v>
       </c>
       <c r="R16">
-        <v>1.002243278664333</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="S16">
-        <v>0.9780970081153103</v>
+        <v>0.9978172950159642</v>
       </c>
       <c r="T16">
-        <v>1.002243278664333</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="U16">
-        <v>0.998462563159675</v>
+        <v>0.9998818184973289</v>
       </c>
       <c r="V16">
-        <v>1.010681896186294</v>
+        <v>1.001120532586148</v>
       </c>
       <c r="W16">
-        <v>0.9970598031739961</v>
+        <v>0.9997224622905378</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.043611246988111</v>
+        <v>1.011546378197386</v>
       </c>
       <c r="D17">
-        <v>1.005582568431504</v>
+        <v>0.9999897673437576</v>
       </c>
       <c r="E17">
-        <v>0.9529293034371055</v>
+        <v>0.9899339271328537</v>
       </c>
       <c r="F17">
-        <v>0.9529293034371055</v>
+        <v>0.9899339271328537</v>
       </c>
       <c r="G17">
-        <v>0.9861472089520124</v>
+        <v>0.9962360473525032</v>
       </c>
       <c r="H17">
-        <v>0.9679140310754165</v>
+        <v>0.9929035683717753</v>
       </c>
       <c r="I17">
-        <v>1.015358221456395</v>
+        <v>1.003963222549076</v>
       </c>
       <c r="J17">
-        <v>0.9890834181252125</v>
+        <v>0.9975653954254531</v>
       </c>
       <c r="K17">
-        <v>1.017143071046135</v>
+        <v>1.003560273854366</v>
       </c>
       <c r="L17">
-        <v>1.043611246988111</v>
+        <v>1.011546378197386</v>
       </c>
       <c r="M17">
-        <v>1.043611246988111</v>
+        <v>1.011546378197386</v>
       </c>
       <c r="N17">
-        <v>1.043611246988111</v>
+        <v>1.011546378197386</v>
       </c>
       <c r="O17">
-        <v>1.005582568431504</v>
+        <v>0.9999897673437576</v>
       </c>
       <c r="P17">
-        <v>0.9792559359343047</v>
+        <v>0.9949618472383056</v>
       </c>
       <c r="Q17">
-        <v>0.9973329932783581</v>
+        <v>0.9987775813846054</v>
       </c>
       <c r="R17">
-        <v>1.000707706285574</v>
+        <v>1.000490024224666</v>
       </c>
       <c r="S17">
-        <v>0.982531763331274</v>
+        <v>0.9958296966340215</v>
       </c>
       <c r="T17">
-        <v>1.000707706285574</v>
+        <v>1.000490024224666</v>
       </c>
       <c r="U17">
-        <v>0.9978016342454834</v>
+        <v>0.9997588670248627</v>
       </c>
       <c r="V17">
-        <v>1.006963556794009</v>
+        <v>1.002116369259368</v>
       </c>
       <c r="W17">
-        <v>0.9972211336889865</v>
+        <v>0.9994623225283964</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.011850488244805</v>
+        <v>1.016871945593192</v>
       </c>
       <c r="D18">
-        <v>1.014415985132418</v>
+        <v>1.000047605705663</v>
       </c>
       <c r="E18">
-        <v>0.9667514014235385</v>
+        <v>0.9852060016232991</v>
       </c>
       <c r="F18">
-        <v>0.9667514014235385</v>
+        <v>0.9852060016232991</v>
       </c>
       <c r="G18">
-        <v>0.9970483299296931</v>
+        <v>0.9945029157349994</v>
       </c>
       <c r="H18">
-        <v>0.9792607191321341</v>
+        <v>0.989576744589478</v>
       </c>
       <c r="I18">
-        <v>1.004988130920911</v>
+        <v>1.005791617891779</v>
       </c>
       <c r="J18">
-        <v>0.9930357199061246</v>
+        <v>0.9964208632342935</v>
       </c>
       <c r="K18">
-        <v>1.013121244367353</v>
+        <v>1.005242633223139</v>
       </c>
       <c r="L18">
-        <v>1.011850488244805</v>
+        <v>1.016871945593192</v>
       </c>
       <c r="M18">
-        <v>1.011850488244805</v>
+        <v>1.016871945593192</v>
       </c>
       <c r="N18">
-        <v>1.011850488244805</v>
+        <v>1.016871945593192</v>
       </c>
       <c r="O18">
-        <v>1.014415985132418</v>
+        <v>1.000047605705663</v>
       </c>
       <c r="P18">
-        <v>0.9905836932779783</v>
+        <v>0.9926268036644809</v>
       </c>
       <c r="Q18">
-        <v>1.003725852519271</v>
+        <v>0.9982342344699781</v>
       </c>
       <c r="R18">
-        <v>0.9976726249335871</v>
+        <v>1.000708517640718</v>
       </c>
       <c r="S18">
-        <v>0.9914010354873604</v>
+        <v>0.9938914901877517</v>
       </c>
       <c r="T18">
-        <v>0.9976726249335871</v>
+        <v>1.000708517640718</v>
       </c>
       <c r="U18">
-        <v>0.9965133986767214</v>
+        <v>0.9996366040391118</v>
       </c>
       <c r="V18">
-        <v>0.999580816590338</v>
+        <v>1.003083672349928</v>
       </c>
       <c r="W18">
-        <v>0.9975590023821221</v>
+        <v>0.9992075409494804</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010751311327248</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="D19">
-        <v>1.018463276485346</v>
+        <v>1.000135435698753</v>
       </c>
       <c r="E19">
-        <v>0.9617164770676671</v>
+        <v>0.9997075823087631</v>
       </c>
       <c r="F19">
-        <v>0.9617164770676671</v>
+        <v>0.9997075823087631</v>
       </c>
       <c r="G19">
-        <v>0.9976309788869148</v>
+        <v>0.9999789897606983</v>
       </c>
       <c r="H19">
-        <v>0.976303509590548</v>
+        <v>0.9998185999654037</v>
       </c>
       <c r="I19">
-        <v>1.004760367749201</v>
+        <v>1.000039252907075</v>
       </c>
       <c r="J19">
-        <v>0.9919465959711762</v>
+        <v>0.9999387483940305</v>
       </c>
       <c r="K19">
-        <v>1.015412902769276</v>
+        <v>1.000116695933364</v>
       </c>
       <c r="L19">
-        <v>1.010751311327248</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="M19">
-        <v>1.010751311327248</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="N19">
-        <v>1.010751311327248</v>
+        <v>1.000090348058649</v>
       </c>
       <c r="O19">
-        <v>1.018463276485346</v>
+        <v>1.000135435698753</v>
       </c>
       <c r="P19">
-        <v>0.9900898767765063</v>
+        <v>0.9999215090037582</v>
       </c>
       <c r="Q19">
-        <v>1.005204936228261</v>
+        <v>1.000037092046392</v>
       </c>
       <c r="R19">
-        <v>0.9969770216267534</v>
+        <v>0.9999777886887218</v>
       </c>
       <c r="S19">
-        <v>0.9907087831747295</v>
+        <v>0.9999272554671824</v>
       </c>
       <c r="T19">
-        <v>0.9969770216267534</v>
+        <v>0.9999777886887218</v>
       </c>
       <c r="U19">
-        <v>0.995719415212859</v>
+        <v>0.999968028615049</v>
       </c>
       <c r="V19">
-        <v>0.9987257944357367</v>
+        <v>0.9999924925037689</v>
       </c>
       <c r="W19">
-        <v>0.9971231774809219</v>
+        <v>0.9999782066283422</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000070610020828</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="D20">
-        <v>0.9999530686903806</v>
+        <v>1.00035231334972</v>
       </c>
       <c r="E20">
-        <v>1.000027075291534</v>
+        <v>0.9991751046503056</v>
       </c>
       <c r="F20">
-        <v>1.000027075291534</v>
+        <v>0.9991751046503056</v>
       </c>
       <c r="G20">
-        <v>0.9999729974937414</v>
+        <v>0.999923046342244</v>
       </c>
       <c r="H20">
-        <v>1.000004927928034</v>
+        <v>0.9994842789127147</v>
       </c>
       <c r="I20">
-        <v>1.000017701335252</v>
+        <v>1.000126821552818</v>
       </c>
       <c r="J20">
-        <v>0.9999973893643973</v>
+        <v>0.9998266291087592</v>
       </c>
       <c r="K20">
-        <v>0.9999902070150725</v>
+        <v>1.000325174324371</v>
       </c>
       <c r="L20">
-        <v>1.000070610020828</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="M20">
-        <v>1.000070610020828</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="N20">
-        <v>1.000070610020828</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="O20">
-        <v>0.9999530686903806</v>
+        <v>1.00035231334972</v>
       </c>
       <c r="P20">
-        <v>0.9999900719909574</v>
+        <v>0.9997637090000129</v>
       </c>
       <c r="Q20">
-        <v>0.9999752290273889</v>
+        <v>1.00008947122924</v>
       </c>
       <c r="R20">
-        <v>1.000016918000914</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="S20">
-        <v>0.9999925111154373</v>
+        <v>0.9997846823695949</v>
       </c>
       <c r="T20">
-        <v>1.000016918000914</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="U20">
-        <v>1.000012035841785</v>
+        <v>0.9999145824127038</v>
       </c>
       <c r="V20">
-        <v>1.000023750677594</v>
+        <v>0.999992522438569</v>
       </c>
       <c r="W20">
-        <v>1.000004247142405</v>
+        <v>0.9999397063478703</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999476322264608</v>
+        <v>1.000451236333151</v>
       </c>
       <c r="D21">
-        <v>1.000291231875085</v>
+        <v>1.000455258133818</v>
       </c>
       <c r="E21">
-        <v>0.999573190733364</v>
+        <v>0.9988772102273744</v>
       </c>
       <c r="F21">
-        <v>0.999573190733364</v>
+        <v>0.9988772102273744</v>
       </c>
       <c r="G21">
-        <v>1.000036176740857</v>
+        <v>0.9998820880198608</v>
       </c>
       <c r="H21">
-        <v>0.9997573707530741</v>
+        <v>0.9992958561857638</v>
       </c>
       <c r="I21">
-        <v>1.000003078975113</v>
+        <v>1.000185349296607</v>
       </c>
       <c r="J21">
-        <v>0.9999224674843126</v>
+        <v>0.9997646875420867</v>
       </c>
       <c r="K21">
-        <v>1.000175503499418</v>
+        <v>1.000438472515704</v>
       </c>
       <c r="L21">
-        <v>0.9999476322264608</v>
+        <v>1.000451236333151</v>
       </c>
       <c r="M21">
-        <v>0.9999476322264608</v>
+        <v>1.000451236333151</v>
       </c>
       <c r="N21">
-        <v>0.9999476322264608</v>
+        <v>1.000451236333151</v>
       </c>
       <c r="O21">
-        <v>1.000291231875085</v>
+        <v>1.000455258133818</v>
       </c>
       <c r="P21">
-        <v>0.9999322113042246</v>
+        <v>0.9996662341805964</v>
       </c>
       <c r="Q21">
-        <v>1.000106849679699</v>
+        <v>1.000109972837953</v>
       </c>
       <c r="R21">
-        <v>0.9999373516116367</v>
+        <v>0.9999279015647812</v>
       </c>
       <c r="S21">
-        <v>0.9999289633642539</v>
+        <v>0.9996990519677599</v>
       </c>
       <c r="T21">
-        <v>0.9999373516116367</v>
+        <v>0.9999279015647812</v>
       </c>
       <c r="U21">
-        <v>0.9999336305798057</v>
+        <v>0.9998870980591076</v>
       </c>
       <c r="V21">
-        <v>0.9999364309091368</v>
+        <v>0.9999999257139163</v>
       </c>
       <c r="W21">
-        <v>0.9999633315359606</v>
+        <v>0.9999187697817957</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001315513607491</v>
+        <v>1.000942004445748</v>
       </c>
       <c r="D22">
-        <v>0.9996873674551708</v>
+        <v>1.001016650829176</v>
       </c>
       <c r="E22">
-        <v>0.9993740361229927</v>
+        <v>0.997556749281068</v>
       </c>
       <c r="F22">
-        <v>0.9993740361229927</v>
+        <v>0.997556749281068</v>
       </c>
       <c r="G22">
-        <v>0.9995495986713612</v>
+        <v>0.9997576082703614</v>
       </c>
       <c r="H22">
-        <v>0.9994904793614778</v>
+        <v>0.9984701628103774</v>
       </c>
       <c r="I22">
-        <v>1.000425139997132</v>
+        <v>1.000389679812437</v>
       </c>
       <c r="J22">
-        <v>0.9998149181037561</v>
+        <v>0.9994873188634162</v>
       </c>
       <c r="K22">
-        <v>1.000199750539145</v>
+        <v>1.000958496658609</v>
       </c>
       <c r="L22">
-        <v>1.001315513607491</v>
+        <v>1.000942004445748</v>
       </c>
       <c r="M22">
-        <v>1.001315513607491</v>
+        <v>1.000942004445748</v>
       </c>
       <c r="N22">
-        <v>1.001315513607491</v>
+        <v>1.000942004445748</v>
       </c>
       <c r="O22">
-        <v>0.9996873674551708</v>
+        <v>1.001016650829176</v>
       </c>
       <c r="P22">
-        <v>0.9995307017890818</v>
+        <v>0.9992867000551219</v>
       </c>
       <c r="Q22">
-        <v>0.9997511427794634</v>
+        <v>1.000251984846296</v>
       </c>
       <c r="R22">
-        <v>1.000125639061885</v>
+        <v>0.9998384681853306</v>
       </c>
       <c r="S22">
-        <v>0.9996254405606398</v>
+        <v>0.99935357299122</v>
       </c>
       <c r="T22">
-        <v>1.000125639061885</v>
+        <v>0.9998384681853306</v>
       </c>
       <c r="U22">
-        <v>1.000047958822353</v>
+        <v>0.9997506808548521</v>
       </c>
       <c r="V22">
-        <v>1.000301469779381</v>
+        <v>0.9999889455730313</v>
       </c>
       <c r="W22">
-        <v>0.9999821004823158</v>
+        <v>0.9998223338713992</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00168976191782</v>
+      </c>
+      <c r="D23">
+        <v>1.001595319650741</v>
+      </c>
+      <c r="E23">
+        <v>0.9959670550547646</v>
+      </c>
+      <c r="F23">
+        <v>0.9959670550547646</v>
+      </c>
+      <c r="G23">
+        <v>0.9995517108120338</v>
+      </c>
+      <c r="H23">
+        <v>0.9974645432644438</v>
+      </c>
+      <c r="I23">
+        <v>1.000687681620744</v>
+      </c>
+      <c r="J23">
+        <v>0.999153078663312</v>
+      </c>
+      <c r="K23">
+        <v>1.001570240064787</v>
+      </c>
+      <c r="L23">
+        <v>1.00168976191782</v>
+      </c>
+      <c r="M23">
+        <v>1.00168976191782</v>
+      </c>
+      <c r="N23">
+        <v>1.00168976191782</v>
+      </c>
+      <c r="O23">
+        <v>1.001595319650741</v>
+      </c>
+      <c r="P23">
+        <v>0.9987811873527526</v>
+      </c>
+      <c r="Q23">
+        <v>1.000374199157026</v>
+      </c>
+      <c r="R23">
+        <v>0.999750712207775</v>
+      </c>
+      <c r="S23">
+        <v>0.9989051511229391</v>
+      </c>
+      <c r="T23">
+        <v>0.999750712207775</v>
+      </c>
+      <c r="U23">
+        <v>0.9996013038216592</v>
+      </c>
+      <c r="V23">
+        <v>1.000018995440891</v>
+      </c>
+      <c r="W23">
+        <v>0.9997099238810807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="D24">
+        <v>0.9594567272800399</v>
+      </c>
+      <c r="E24">
+        <v>1.069141523448</v>
+      </c>
+      <c r="F24">
+        <v>1.069141523448</v>
+      </c>
+      <c r="G24">
+        <v>0.9984576684976421</v>
+      </c>
+      <c r="H24">
+        <v>1.040515235750937</v>
+      </c>
+      <c r="I24">
+        <v>0.9957917862874346</v>
+      </c>
+      <c r="J24">
+        <v>1.013023637876957</v>
+      </c>
+      <c r="K24">
+        <v>0.9722175508210755</v>
+      </c>
+      <c r="L24">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="M24">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="N24">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="O24">
+        <v>0.9594567272800399</v>
+      </c>
+      <c r="P24">
+        <v>1.01429912536402</v>
+      </c>
+      <c r="Q24">
+        <v>0.9862401825784983</v>
+      </c>
+      <c r="R24">
+        <v>1.008366725074796</v>
+      </c>
+      <c r="S24">
+        <v>1.013873962868332</v>
+      </c>
+      <c r="T24">
+        <v>1.008366725074796</v>
+      </c>
+      <c r="U24">
+        <v>1.009530953275336</v>
+      </c>
+      <c r="V24">
+        <v>1.006925147519538</v>
+      </c>
+      <c r="W24">
+        <v>1.005638256807304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="D25">
+        <v>1.008161395417337</v>
+      </c>
+      <c r="E25">
+        <v>1.005407163069637</v>
+      </c>
+      <c r="F25">
+        <v>1.005407163069637</v>
+      </c>
+      <c r="G25">
+        <v>1.007759843366767</v>
+      </c>
+      <c r="H25">
+        <v>1.005665950102044</v>
+      </c>
+      <c r="I25">
+        <v>0.9931734290768449</v>
+      </c>
+      <c r="J25">
+        <v>1.002262543567484</v>
+      </c>
+      <c r="K25">
+        <v>0.998598238224771</v>
+      </c>
+      <c r="L25">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="M25">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="N25">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="O25">
+        <v>1.008161395417337</v>
+      </c>
+      <c r="P25">
+        <v>1.006784279243487</v>
+      </c>
+      <c r="Q25">
+        <v>1.005211969492411</v>
+      </c>
+      <c r="R25">
+        <v>0.9971780105298316</v>
+      </c>
+      <c r="S25">
+        <v>1.005277034018153</v>
+      </c>
+      <c r="T25">
+        <v>0.9971780105298317</v>
+      </c>
+      <c r="U25">
+        <v>0.9984491437892449</v>
+      </c>
+      <c r="V25">
+        <v>0.9943524096519001</v>
+      </c>
+      <c r="W25">
+        <v>0.9998742544909258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="D26">
+        <v>0.9573552903254847</v>
+      </c>
+      <c r="E26">
+        <v>1.161103579616915</v>
+      </c>
+      <c r="F26">
+        <v>1.161103579616915</v>
+      </c>
+      <c r="G26">
+        <v>1.031548966570685</v>
+      </c>
+      <c r="H26">
+        <v>1.105060194807737</v>
+      </c>
+      <c r="I26">
+        <v>0.9607686697632367</v>
+      </c>
+      <c r="J26">
+        <v>1.035231789831039</v>
+      </c>
+      <c r="K26">
+        <v>0.9393882919782899</v>
+      </c>
+      <c r="L26">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="M26">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="N26">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="O26">
+        <v>0.9573552903254847</v>
+      </c>
+      <c r="P26">
+        <v>1.0592294349712</v>
+      </c>
+      <c r="Q26">
+        <v>0.996293540078262</v>
+      </c>
+      <c r="R26">
+        <v>1.00436538679126</v>
+      </c>
+      <c r="S26">
+        <v>1.05123021992448</v>
+      </c>
+      <c r="T26">
+        <v>1.00436538679126</v>
+      </c>
+      <c r="U26">
+        <v>1.012081987551205</v>
+      </c>
+      <c r="V26">
+        <v>0.9885930481272396</v>
+      </c>
+      <c r="W26">
+        <v>1.010636759165596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="D27">
+        <v>0.990880108767745</v>
+      </c>
+      <c r="E27">
+        <v>1.043426412315435</v>
+      </c>
+      <c r="F27">
+        <v>1.043426412315435</v>
+      </c>
+      <c r="G27">
+        <v>1.008762563423589</v>
+      </c>
+      <c r="H27">
+        <v>1.0276550026992</v>
+      </c>
+      <c r="I27">
+        <v>0.9885110615170581</v>
+      </c>
+      <c r="J27">
+        <v>1.008508557083274</v>
+      </c>
+      <c r="K27">
+        <v>0.9847522425780185</v>
+      </c>
+      <c r="L27">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="M27">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="N27">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="O27">
+        <v>0.990880108767745</v>
+      </c>
+      <c r="P27">
+        <v>1.01715326054159</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996943329255096</v>
+      </c>
+      <c r="R27">
+        <v>1.001642707858472</v>
+      </c>
+      <c r="S27">
+        <v>1.014271692722151</v>
+      </c>
+      <c r="T27">
+        <v>1.001642707858472</v>
+      </c>
+      <c r="U27">
+        <v>1.003359170164673</v>
+      </c>
+      <c r="V27">
+        <v>0.9968116566301853</v>
+      </c>
+      <c r="W27">
+        <v>1.002889693859569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.059559228292769</v>
+      </c>
+      <c r="D28">
+        <v>1.00107985801002</v>
+      </c>
+      <c r="E28">
+        <v>0.9460907496902093</v>
+      </c>
+      <c r="F28">
+        <v>0.9460907496902093</v>
+      </c>
+      <c r="G28">
+        <v>0.9806695492288213</v>
+      </c>
+      <c r="H28">
+        <v>0.9622776416323947</v>
+      </c>
+      <c r="I28">
+        <v>1.020562260057345</v>
+      </c>
+      <c r="J28">
+        <v>0.987120416645702</v>
+      </c>
+      <c r="K28">
+        <v>1.019118721834708</v>
+      </c>
+      <c r="L28">
+        <v>1.059559228292769</v>
+      </c>
+      <c r="M28">
+        <v>1.059559228292769</v>
+      </c>
+      <c r="N28">
+        <v>1.059559228292769</v>
+      </c>
+      <c r="O28">
+        <v>1.00107985801002</v>
+      </c>
+      <c r="P28">
+        <v>0.9735853038501145</v>
+      </c>
+      <c r="Q28">
+        <v>0.9941001373278608</v>
+      </c>
+      <c r="R28">
+        <v>1.002243278664333</v>
+      </c>
+      <c r="S28">
+        <v>0.9780970081153103</v>
+      </c>
+      <c r="T28">
+        <v>1.002243278664333</v>
+      </c>
+      <c r="U28">
+        <v>0.998462563159675</v>
+      </c>
+      <c r="V28">
+        <v>1.010681896186294</v>
+      </c>
+      <c r="W28">
+        <v>0.9970598031739961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.043611246988111</v>
+      </c>
+      <c r="D29">
+        <v>1.005582568431504</v>
+      </c>
+      <c r="E29">
+        <v>0.9529293034371055</v>
+      </c>
+      <c r="F29">
+        <v>0.9529293034371055</v>
+      </c>
+      <c r="G29">
+        <v>0.9861472089520124</v>
+      </c>
+      <c r="H29">
+        <v>0.9679140310754165</v>
+      </c>
+      <c r="I29">
+        <v>1.015358221456395</v>
+      </c>
+      <c r="J29">
+        <v>0.9890834181252125</v>
+      </c>
+      <c r="K29">
+        <v>1.017143071046135</v>
+      </c>
+      <c r="L29">
+        <v>1.043611246988111</v>
+      </c>
+      <c r="M29">
+        <v>1.043611246988111</v>
+      </c>
+      <c r="N29">
+        <v>1.043611246988111</v>
+      </c>
+      <c r="O29">
+        <v>1.005582568431504</v>
+      </c>
+      <c r="P29">
+        <v>0.9792559359343047</v>
+      </c>
+      <c r="Q29">
+        <v>0.9973329932783581</v>
+      </c>
+      <c r="R29">
+        <v>1.000707706285574</v>
+      </c>
+      <c r="S29">
+        <v>0.982531763331274</v>
+      </c>
+      <c r="T29">
+        <v>1.000707706285574</v>
+      </c>
+      <c r="U29">
+        <v>0.9978016342454834</v>
+      </c>
+      <c r="V29">
+        <v>1.006963556794009</v>
+      </c>
+      <c r="W29">
+        <v>0.9972211336889865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.011850488244805</v>
+      </c>
+      <c r="D30">
+        <v>1.014415985132418</v>
+      </c>
+      <c r="E30">
+        <v>0.9667514014235385</v>
+      </c>
+      <c r="F30">
+        <v>0.9667514014235385</v>
+      </c>
+      <c r="G30">
+        <v>0.9970483299296931</v>
+      </c>
+      <c r="H30">
+        <v>0.9792607191321341</v>
+      </c>
+      <c r="I30">
+        <v>1.004988130920911</v>
+      </c>
+      <c r="J30">
+        <v>0.9930357199061246</v>
+      </c>
+      <c r="K30">
+        <v>1.013121244367353</v>
+      </c>
+      <c r="L30">
+        <v>1.011850488244805</v>
+      </c>
+      <c r="M30">
+        <v>1.011850488244805</v>
+      </c>
+      <c r="N30">
+        <v>1.011850488244805</v>
+      </c>
+      <c r="O30">
+        <v>1.014415985132418</v>
+      </c>
+      <c r="P30">
+        <v>0.9905836932779783</v>
+      </c>
+      <c r="Q30">
+        <v>1.003725852519271</v>
+      </c>
+      <c r="R30">
+        <v>0.9976726249335871</v>
+      </c>
+      <c r="S30">
+        <v>0.9914010354873604</v>
+      </c>
+      <c r="T30">
+        <v>0.9976726249335871</v>
+      </c>
+      <c r="U30">
+        <v>0.9965133986767214</v>
+      </c>
+      <c r="V30">
+        <v>0.999580816590338</v>
+      </c>
+      <c r="W30">
+        <v>0.9975590023821221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="D31">
+        <v>1.018463276485346</v>
+      </c>
+      <c r="E31">
+        <v>0.9617164770676671</v>
+      </c>
+      <c r="F31">
+        <v>0.9617164770676671</v>
+      </c>
+      <c r="G31">
+        <v>0.9976309788869148</v>
+      </c>
+      <c r="H31">
+        <v>0.976303509590548</v>
+      </c>
+      <c r="I31">
+        <v>1.004760367749201</v>
+      </c>
+      <c r="J31">
+        <v>0.9919465959711762</v>
+      </c>
+      <c r="K31">
+        <v>1.015412902769276</v>
+      </c>
+      <c r="L31">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="M31">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="N31">
+        <v>1.010751311327248</v>
+      </c>
+      <c r="O31">
+        <v>1.018463276485346</v>
+      </c>
+      <c r="P31">
+        <v>0.9900898767765063</v>
+      </c>
+      <c r="Q31">
+        <v>1.005204936228261</v>
+      </c>
+      <c r="R31">
+        <v>0.9969770216267534</v>
+      </c>
+      <c r="S31">
+        <v>0.9907087831747295</v>
+      </c>
+      <c r="T31">
+        <v>0.9969770216267534</v>
+      </c>
+      <c r="U31">
+        <v>0.995719415212859</v>
+      </c>
+      <c r="V31">
+        <v>0.9987257944357367</v>
+      </c>
+      <c r="W31">
+        <v>0.9971231774809219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.076692977534247</v>
+      </c>
+      <c r="D32">
+        <v>0.9970526312328769</v>
+      </c>
+      <c r="E32">
+        <v>0.9373407967123291</v>
+      </c>
+      <c r="F32">
+        <v>0.9373407967123291</v>
+      </c>
+      <c r="G32">
+        <v>0.974844139041096</v>
+      </c>
+      <c r="H32">
+        <v>0.9554287716438354</v>
+      </c>
+      <c r="I32">
+        <v>1.026233874794521</v>
+      </c>
+      <c r="J32">
+        <v>0.9847788705479451</v>
+      </c>
+      <c r="K32">
+        <v>1.021779590958904</v>
+      </c>
+      <c r="L32">
+        <v>1.076692977534247</v>
+      </c>
+      <c r="M32">
+        <v>1.076692977534247</v>
+      </c>
+      <c r="N32">
+        <v>1.076692977534247</v>
+      </c>
+      <c r="O32">
+        <v>0.9970526312328769</v>
+      </c>
+      <c r="P32">
+        <v>0.967196713972603</v>
+      </c>
+      <c r="Q32">
+        <v>0.990915750890411</v>
+      </c>
+      <c r="R32">
+        <v>1.003695468493151</v>
+      </c>
+      <c r="S32">
+        <v>0.9730574328310504</v>
+      </c>
+      <c r="T32">
+        <v>1.003695468493151</v>
+      </c>
+      <c r="U32">
+        <v>0.9989663190068494</v>
+      </c>
+      <c r="V32">
+        <v>1.014511650712329</v>
+      </c>
+      <c r="W32">
+        <v>0.9967689565582193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.053399895789474</v>
+      </c>
+      <c r="D33">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="E33">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="F33">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="G33">
+        <v>0.9846318899999998</v>
+      </c>
+      <c r="H33">
+        <v>0.9390472268421051</v>
+      </c>
+      <c r="I33">
+        <v>1.020864081578947</v>
+      </c>
+      <c r="J33">
+        <v>0.9801148489473686</v>
+      </c>
+      <c r="K33">
+        <v>1.035798827894737</v>
+      </c>
+      <c r="L33">
+        <v>1.053399895789474</v>
+      </c>
+      <c r="M33">
+        <v>1.053399895789474</v>
+      </c>
+      <c r="N33">
+        <v>1.053399895789474</v>
+      </c>
+      <c r="O33">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="P33">
+        <v>0.9667583423684212</v>
+      </c>
+      <c r="Q33">
+        <v>1.004647810526316</v>
+      </c>
+      <c r="R33">
+        <v>0.9956388601754388</v>
+      </c>
+      <c r="S33">
+        <v>0.9712105112280703</v>
+      </c>
+      <c r="T33">
+        <v>0.9956388601754386</v>
+      </c>
+      <c r="U33">
+        <v>0.9917578573684211</v>
+      </c>
+      <c r="V33">
+        <v>1.004086265052632</v>
+      </c>
+      <c r="W33">
+        <v>0.9934216819736842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="D34">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="E34">
+        <v>0.7833150921052633</v>
+      </c>
+      <c r="F34">
+        <v>0.7833150921052633</v>
+      </c>
+      <c r="G34">
+        <v>0.969950027368421</v>
+      </c>
+      <c r="H34">
+        <v>0.8624751426315789</v>
+      </c>
+      <c r="I34">
+        <v>1.042421663157895</v>
+      </c>
+      <c r="J34">
+        <v>0.9543707278947368</v>
+      </c>
+      <c r="K34">
+        <v>1.082938652631579</v>
+      </c>
+      <c r="L34">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="M34">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="N34">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="O34">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="P34">
+        <v>0.9294319513157896</v>
+      </c>
+      <c r="Q34">
+        <v>1.014959769210526</v>
+      </c>
+      <c r="R34">
+        <v>0.9887769798245615</v>
+      </c>
+      <c r="S34">
+        <v>0.9377448768421054</v>
+      </c>
+      <c r="T34">
+        <v>0.9887769798245615</v>
+      </c>
+      <c r="U34">
+        <v>0.9801754168421053</v>
+      </c>
+      <c r="V34">
+        <v>1.005633740842105</v>
+      </c>
+      <c r="W34">
+        <v>0.9848108941447369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.033537262110857</v>
+      </c>
+      <c r="D35">
+        <v>1.069567627413651</v>
+      </c>
+      <c r="E35">
+        <v>0.8619164280076904</v>
+      </c>
+      <c r="F35">
+        <v>0.8619164280076904</v>
+      </c>
+      <c r="G35">
+        <v>0.9933408665187913</v>
+      </c>
+      <c r="H35">
+        <v>0.9150300462953779</v>
+      </c>
+      <c r="I35">
+        <v>1.015523829004678</v>
+      </c>
+      <c r="J35">
+        <v>0.9711157609153556</v>
+      </c>
+      <c r="K35">
+        <v>1.05591581705943</v>
+      </c>
+      <c r="L35">
+        <v>1.033537262110857</v>
+      </c>
+      <c r="M35">
+        <v>1.033537262110857</v>
+      </c>
+      <c r="N35">
+        <v>1.033537262110857</v>
+      </c>
+      <c r="O35">
+        <v>1.069567627413651</v>
+      </c>
+      <c r="P35">
+        <v>0.9657420277106707</v>
+      </c>
+      <c r="Q35">
+        <v>1.020341694164503</v>
+      </c>
+      <c r="R35">
+        <v>0.9883404391773994</v>
+      </c>
+      <c r="S35">
+        <v>0.9675332721122324</v>
+      </c>
+      <c r="T35">
+        <v>0.9883404391773997</v>
+      </c>
+      <c r="U35">
+        <v>0.9840342696118887</v>
+      </c>
+      <c r="V35">
+        <v>0.9939348681116822</v>
+      </c>
+      <c r="W35">
+        <v>0.9894934546657289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="D36">
+        <v>0.9999530686903806</v>
+      </c>
+      <c r="E36">
+        <v>1.000027075291534</v>
+      </c>
+      <c r="F36">
+        <v>1.000027075291534</v>
+      </c>
+      <c r="G36">
+        <v>0.9999729974937414</v>
+      </c>
+      <c r="H36">
+        <v>1.000004927928034</v>
+      </c>
+      <c r="I36">
+        <v>1.000017701335252</v>
+      </c>
+      <c r="J36">
+        <v>0.9999973893643973</v>
+      </c>
+      <c r="K36">
+        <v>0.9999902070150725</v>
+      </c>
+      <c r="L36">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="M36">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="N36">
+        <v>1.000070610020828</v>
+      </c>
+      <c r="O36">
+        <v>0.9999530686903806</v>
+      </c>
+      <c r="P36">
+        <v>0.9999900719909574</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999752290273889</v>
+      </c>
+      <c r="R36">
+        <v>1.000016918000914</v>
+      </c>
+      <c r="S36">
+        <v>0.9999925111154373</v>
+      </c>
+      <c r="T36">
+        <v>1.000016918000914</v>
+      </c>
+      <c r="U36">
+        <v>1.000012035841785</v>
+      </c>
+      <c r="V36">
+        <v>1.000023750677594</v>
+      </c>
+      <c r="W36">
+        <v>1.000004247142405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="D37">
+        <v>1.000291231875085</v>
+      </c>
+      <c r="E37">
+        <v>0.999573190733364</v>
+      </c>
+      <c r="F37">
+        <v>0.999573190733364</v>
+      </c>
+      <c r="G37">
+        <v>1.000036176740857</v>
+      </c>
+      <c r="H37">
+        <v>0.9997573707530741</v>
+      </c>
+      <c r="I37">
+        <v>1.000003078975113</v>
+      </c>
+      <c r="J37">
+        <v>0.9999224674843126</v>
+      </c>
+      <c r="K37">
+        <v>1.000175503499418</v>
+      </c>
+      <c r="L37">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="M37">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="N37">
+        <v>0.9999476322264608</v>
+      </c>
+      <c r="O37">
+        <v>1.000291231875085</v>
+      </c>
+      <c r="P37">
+        <v>0.9999322113042246</v>
+      </c>
+      <c r="Q37">
+        <v>1.000106849679699</v>
+      </c>
+      <c r="R37">
+        <v>0.9999373516116367</v>
+      </c>
+      <c r="S37">
+        <v>0.9999289633642539</v>
+      </c>
+      <c r="T37">
+        <v>0.9999373516116367</v>
+      </c>
+      <c r="U37">
+        <v>0.9999336305798057</v>
+      </c>
+      <c r="V37">
+        <v>0.9999364309091368</v>
+      </c>
+      <c r="W37">
+        <v>0.9999633315359606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="D38">
+        <v>0.9996873674551708</v>
+      </c>
+      <c r="E38">
+        <v>0.9993740361229927</v>
+      </c>
+      <c r="F38">
+        <v>0.9993740361229927</v>
+      </c>
+      <c r="G38">
+        <v>0.9995495986713612</v>
+      </c>
+      <c r="H38">
+        <v>0.9994904793614778</v>
+      </c>
+      <c r="I38">
+        <v>1.000425139997132</v>
+      </c>
+      <c r="J38">
+        <v>0.9998149181037561</v>
+      </c>
+      <c r="K38">
+        <v>1.000199750539145</v>
+      </c>
+      <c r="L38">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="M38">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="N38">
+        <v>1.001315513607491</v>
+      </c>
+      <c r="O38">
+        <v>0.9996873674551708</v>
+      </c>
+      <c r="P38">
+        <v>0.9995307017890818</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997511427794634</v>
+      </c>
+      <c r="R38">
+        <v>1.000125639061885</v>
+      </c>
+      <c r="S38">
+        <v>0.9996254405606398</v>
+      </c>
+      <c r="T38">
+        <v>1.000125639061885</v>
+      </c>
+      <c r="U38">
+        <v>1.000047958822353</v>
+      </c>
+      <c r="V38">
+        <v>1.000301469779381</v>
+      </c>
+      <c r="W38">
+        <v>0.9999821004823158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.004104699977789</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9983670130676044</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9991432514157653</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9991432514157653</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9985493924986193</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9990403434268971</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.001271601577097</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.999617864157611</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000188825627091</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.004104699977789</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.004104699977789</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.004104699977789</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9983670130676044</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9987551322416849</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9989924386126077</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000538321487053</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9990427095469935</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000538321487053</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000308207154692</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.001067505719312</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000035373968559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.056054842841322</v>
+      </c>
+      <c r="D40">
+        <v>1.011555445068153</v>
+      </c>
+      <c r="E40">
+        <v>0.9312455402087398</v>
+      </c>
+      <c r="F40">
+        <v>0.9312455402087398</v>
+      </c>
+      <c r="G40">
+        <v>0.9825645577762353</v>
+      </c>
+      <c r="H40">
+        <v>0.9542524713355498</v>
+      </c>
+      <c r="I40">
+        <v>1.020343656544964</v>
+      </c>
+      <c r="J40">
+        <v>0.9848166266046325</v>
+      </c>
+      <c r="K40">
+        <v>1.024982598807834</v>
+      </c>
+      <c r="L40">
+        <v>1.056054842841322</v>
+      </c>
+      <c r="M40">
+        <v>1.056054842841322</v>
+      </c>
+      <c r="N40">
+        <v>1.056054842841322</v>
+      </c>
+      <c r="O40">
+        <v>1.011555445068153</v>
+      </c>
+      <c r="P40">
+        <v>0.9714004926384462</v>
+      </c>
+      <c r="Q40">
+        <v>0.9981860358363925</v>
+      </c>
+      <c r="R40">
+        <v>0.9996186093727383</v>
+      </c>
+      <c r="S40">
+        <v>0.9758725372938416</v>
+      </c>
+      <c r="T40">
+        <v>0.9996186093727383</v>
+      </c>
+      <c r="U40">
+        <v>0.9959181136807118</v>
+      </c>
+      <c r="V40">
+        <v>1.007945459512834</v>
+      </c>
+      <c r="W40">
+        <v>0.9957269673984288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000265006671852</v>
+      </c>
+      <c r="D41">
+        <v>0.9991756914459842</v>
+      </c>
+      <c r="E41">
+        <v>1.001134957824219</v>
+      </c>
+      <c r="F41">
+        <v>1.001134957824219</v>
+      </c>
+      <c r="G41">
+        <v>0.9998574495852466</v>
+      </c>
+      <c r="H41">
+        <v>1.000624257468865</v>
+      </c>
+      <c r="I41">
+        <v>1.000024155783657</v>
+      </c>
+      <c r="J41">
+        <v>1.000190252793833</v>
+      </c>
+      <c r="K41">
+        <v>0.9995376845742188</v>
+      </c>
+      <c r="L41">
+        <v>1.000265006671852</v>
+      </c>
+      <c r="M41">
+        <v>1.000265006671852</v>
+      </c>
+      <c r="N41">
+        <v>1.000265006671852</v>
+      </c>
+      <c r="O41">
+        <v>0.9991756914459842</v>
+      </c>
+      <c r="P41">
+        <v>1.000155324635101</v>
+      </c>
+      <c r="Q41">
+        <v>0.9996829721199086</v>
+      </c>
+      <c r="R41">
+        <v>1.000191885314018</v>
+      </c>
+      <c r="S41">
+        <v>1.000166967354678</v>
+      </c>
+      <c r="T41">
+        <v>1.000191885314018</v>
+      </c>
+      <c r="U41">
+        <v>1.000191477183972</v>
+      </c>
+      <c r="V41">
+        <v>1.000206183081548</v>
+      </c>
+      <c r="W41">
+        <v>1.000101182018484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.055312408032222</v>
+      </c>
+      <c r="D42">
+        <v>1.012238844447522</v>
+      </c>
+      <c r="E42">
+        <v>0.9307542073991897</v>
+      </c>
+      <c r="F42">
+        <v>0.9307542073991897</v>
+      </c>
+      <c r="G42">
+        <v>0.9828536022424126</v>
+      </c>
+      <c r="H42">
+        <v>0.9540544012345477</v>
+      </c>
+      <c r="I42">
+        <v>1.020145887674484</v>
+      </c>
+      <c r="J42">
+        <v>0.9847703365963872</v>
+      </c>
+      <c r="K42">
+        <v>1.025204789733147</v>
+      </c>
+      <c r="L42">
+        <v>1.055312408032222</v>
+      </c>
+      <c r="M42">
+        <v>1.055312408032222</v>
+      </c>
+      <c r="N42">
+        <v>1.055312408032222</v>
+      </c>
+      <c r="O42">
+        <v>1.012238844447522</v>
+      </c>
+      <c r="P42">
+        <v>0.971496525923356</v>
+      </c>
+      <c r="Q42">
+        <v>0.9985045905219547</v>
+      </c>
+      <c r="R42">
+        <v>0.9994351532929781</v>
+      </c>
+      <c r="S42">
+        <v>0.975921129481033</v>
+      </c>
+      <c r="T42">
+        <v>0.9994351532929781</v>
+      </c>
+      <c r="U42">
+        <v>0.9957689491188304</v>
+      </c>
+      <c r="V42">
+        <v>1.007677640901509</v>
+      </c>
+      <c r="W42">
+        <v>0.995666809669989</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003166001736026</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="D3">
-        <v>0.997304852903845</v>
+        <v>1.00035231334972</v>
       </c>
       <c r="E3">
-        <v>0.999956579275511</v>
+        <v>0.9991751046503056</v>
       </c>
       <c r="F3">
-        <v>1.003166001736026</v>
+        <v>0.9991751046503056</v>
       </c>
       <c r="G3">
-        <v>0.9993449377786714</v>
+        <v>0.999923046342244</v>
       </c>
       <c r="H3">
-        <v>1.000949544097575</v>
+        <v>0.9994842789127147</v>
       </c>
       <c r="I3">
-        <v>1.003166001736026</v>
+        <v>1.000126821552818</v>
       </c>
       <c r="J3">
-        <v>0.997304852903845</v>
+        <v>0.9998266291087592</v>
       </c>
       <c r="K3">
-        <v>0.9989653300344956</v>
+        <v>1.000325174324371</v>
       </c>
       <c r="L3">
-        <v>1.001084009809193</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="M3">
-        <v>0.9980921909400586</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="N3">
-        <v>1.003166001736026</v>
+        <v>1.00030428254203</v>
       </c>
       <c r="O3">
-        <v>0.999956579275511</v>
+        <v>1.00035231334972</v>
       </c>
       <c r="P3">
-        <v>0.9986307160896779</v>
+        <v>0.9997637090000129</v>
       </c>
       <c r="Q3">
-        <v>0.9996507585270912</v>
+        <v>1.00008947122924</v>
       </c>
       <c r="R3">
-        <v>1.000142477971794</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="S3">
-        <v>0.998868789986009</v>
+        <v>0.9997846823695949</v>
       </c>
       <c r="T3">
-        <v>1.000142477971794</v>
+        <v>0.9999439001806852</v>
       </c>
       <c r="U3">
-        <v>0.9999430929235134</v>
+        <v>0.9999145824127038</v>
       </c>
       <c r="V3">
-        <v>1.000587674686016</v>
+        <v>0.999992522438569</v>
       </c>
       <c r="W3">
-        <v>0.999857930821922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999397063478703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006075388941423</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="D4">
-        <v>0.9947711345066477</v>
+        <v>1.011555445068153</v>
       </c>
       <c r="E4">
-        <v>0.9999442128770267</v>
+        <v>0.9312455402087398</v>
       </c>
       <c r="F4">
-        <v>1.006075388941423</v>
+        <v>0.9312455402087398</v>
       </c>
       <c r="G4">
-        <v>0.9987365376642181</v>
+        <v>0.9825645577762353</v>
       </c>
       <c r="H4">
-        <v>1.001840950761083</v>
+        <v>0.9542524713355498</v>
       </c>
       <c r="I4">
-        <v>1.006075388941423</v>
+        <v>1.020343656544964</v>
       </c>
       <c r="J4">
-        <v>0.9947711345066477</v>
+        <v>0.9848166266046325</v>
       </c>
       <c r="K4">
-        <v>0.9980172208326777</v>
+        <v>1.024982598807834</v>
       </c>
       <c r="L4">
-        <v>1.002085235838659</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="M4">
-        <v>0.9963090169025666</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="N4">
-        <v>1.006075388941423</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="O4">
-        <v>0.9999442128770267</v>
+        <v>1.011555445068153</v>
       </c>
       <c r="P4">
-        <v>0.9973576736918373</v>
+        <v>0.9714004926384462</v>
       </c>
       <c r="Q4">
-        <v>0.9993403752706225</v>
+        <v>0.9981860358363925</v>
       </c>
       <c r="R4">
-        <v>1.000263578775032</v>
+        <v>0.9996186093727383</v>
       </c>
       <c r="S4">
-        <v>0.9978172950159642</v>
+        <v>0.9758725372938416</v>
       </c>
       <c r="T4">
-        <v>1.000263578775032</v>
+        <v>0.9996186093727383</v>
       </c>
       <c r="U4">
-        <v>0.9998818184973289</v>
+        <v>0.9959181136807118</v>
       </c>
       <c r="V4">
-        <v>1.001120532586148</v>
+        <v>1.007945459512834</v>
       </c>
       <c r="W4">
-        <v>0.9997224622905378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9957269673984288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011546378197386</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="D5">
-        <v>0.9899339271328537</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="E5">
-        <v>0.9999897673437576</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="F5">
-        <v>1.011546378197386</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="G5">
-        <v>0.9975653954254531</v>
+        <v>0.9960940470605191</v>
       </c>
       <c r="H5">
-        <v>1.003560273854366</v>
+        <v>0.9740881128025944</v>
       </c>
       <c r="I5">
-        <v>1.011546378197386</v>
+        <v>1.006396116268012</v>
       </c>
       <c r="J5">
-        <v>0.9899339271328537</v>
+        <v>0.9912800949135443</v>
       </c>
       <c r="K5">
-        <v>0.9962360473525032</v>
+        <v>1.016330616412103</v>
       </c>
       <c r="L5">
-        <v>1.003963222549076</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="M5">
-        <v>0.9929035683717752</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="N5">
-        <v>1.011546378197386</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="O5">
-        <v>0.9999897673437576</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="P5">
-        <v>0.9949618472383056</v>
+        <v>0.9881150499963951</v>
       </c>
       <c r="Q5">
-        <v>0.9987775813846054</v>
+        <v>1.004462140367433</v>
       </c>
       <c r="R5">
-        <v>1.000490024224666</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="S5">
-        <v>0.9958296966340215</v>
+        <v>0.9891700649687781</v>
       </c>
       <c r="T5">
-        <v>1.000490024224666</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="U5">
-        <v>0.9997588670248627</v>
+        <v>0.9957255313310497</v>
       </c>
       <c r="V5">
-        <v>1.002116369259368</v>
+        <v>0.9996588111484126</v>
       </c>
       <c r="W5">
-        <v>0.9994623225283964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9969763772334284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016871945593192</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="D6">
-        <v>0.9852060016232991</v>
+        <v>1.069567627413651</v>
       </c>
       <c r="E6">
-        <v>1.000047605705663</v>
+        <v>0.8619164280076904</v>
       </c>
       <c r="F6">
-        <v>1.016871945593192</v>
+        <v>0.8619164280076904</v>
       </c>
       <c r="G6">
-        <v>0.9964208632342935</v>
+        <v>0.9933408665187913</v>
       </c>
       <c r="H6">
-        <v>1.005242633223139</v>
+        <v>0.9150300462953779</v>
       </c>
       <c r="I6">
-        <v>1.016871945593192</v>
+        <v>1.015523829004678</v>
       </c>
       <c r="J6">
-        <v>0.9852060016232991</v>
+        <v>0.9711157609153556</v>
       </c>
       <c r="K6">
-        <v>0.9945029157349994</v>
+        <v>1.05591581705943</v>
       </c>
       <c r="L6">
-        <v>1.005791617891779</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="M6">
-        <v>0.989576744589478</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="N6">
-        <v>1.016871945593192</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="O6">
-        <v>1.000047605705663</v>
+        <v>1.069567627413651</v>
       </c>
       <c r="P6">
-        <v>0.9926268036644809</v>
+        <v>0.9657420277106707</v>
       </c>
       <c r="Q6">
-        <v>0.9982342344699781</v>
+        <v>1.020341694164503</v>
       </c>
       <c r="R6">
-        <v>1.000708517640718</v>
+        <v>0.9883404391773994</v>
       </c>
       <c r="S6">
-        <v>0.9938914901877517</v>
+        <v>0.9675332721122324</v>
       </c>
       <c r="T6">
-        <v>1.000708517640718</v>
+        <v>0.9883404391773997</v>
       </c>
       <c r="U6">
-        <v>0.9996366040391118</v>
+        <v>0.9840342696118887</v>
       </c>
       <c r="V6">
-        <v>1.003083672349928</v>
+        <v>0.9939348681116822</v>
       </c>
       <c r="W6">
-        <v>0.9992075409494803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9894934546657289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000090348058648</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="D7">
-        <v>0.9997075823087631</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="E7">
-        <v>1.000135435698753</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="F7">
-        <v>1.000090348058648</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="G7">
-        <v>0.9999387483940305</v>
+        <v>0.9987491634336652</v>
       </c>
       <c r="H7">
-        <v>1.000116695933364</v>
+        <v>0.9974361374035087</v>
       </c>
       <c r="I7">
-        <v>1.000090348058648</v>
+        <v>1.001353219328736</v>
       </c>
       <c r="J7">
-        <v>0.9997075823087631</v>
+        <v>0.9991329644187323</v>
       </c>
       <c r="K7">
-        <v>0.9999789897606983</v>
+        <v>1.001315581313455</v>
       </c>
       <c r="L7">
-        <v>1.000039252907075</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="M7">
-        <v>0.9998185999654037</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="N7">
-        <v>1.000090348058648</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="O7">
-        <v>1.000135435698753</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="P7">
-        <v>0.9999215090037582</v>
+        <v>0.998234557890705</v>
       </c>
       <c r="Q7">
-        <v>1.000037092046392</v>
+        <v>0.9996537699467982</v>
       </c>
       <c r="R7">
-        <v>0.9999777886887217</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="S7">
-        <v>0.9999272554671824</v>
+        <v>0.9985340267333808</v>
       </c>
       <c r="T7">
-        <v>0.9999777886887217</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="U7">
-        <v>0.9999680286150489</v>
+        <v>0.9998706133408559</v>
       </c>
       <c r="V7">
-        <v>0.9999924925037688</v>
+        <v>1.000672565305341</v>
       </c>
       <c r="W7">
-        <v>0.9999782066283421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9997920693553485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00030428254203</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="D8">
-        <v>0.9991751046503063</v>
+        <v>1.000291231875085</v>
       </c>
       <c r="E8">
-        <v>1.00035231334972</v>
+        <v>0.999573190733364</v>
       </c>
       <c r="F8">
-        <v>1.00030428254203</v>
+        <v>0.999573190733364</v>
       </c>
       <c r="G8">
-        <v>0.9998266291087594</v>
+        <v>1.000036176740857</v>
       </c>
       <c r="H8">
-        <v>1.000325174324371</v>
+        <v>0.9997573707530741</v>
       </c>
       <c r="I8">
-        <v>1.00030428254203</v>
+        <v>1.000003078975113</v>
       </c>
       <c r="J8">
-        <v>0.9991751046503063</v>
+        <v>0.9999224674843126</v>
       </c>
       <c r="K8">
-        <v>0.9999230463422438</v>
+        <v>1.000175503499418</v>
       </c>
       <c r="L8">
-        <v>1.000126821552818</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="M8">
-        <v>0.999484278912715</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="N8">
-        <v>1.00030428254203</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="O8">
-        <v>1.00035231334972</v>
+        <v>1.000291231875085</v>
       </c>
       <c r="P8">
-        <v>0.9997637090000133</v>
+        <v>0.9999322113042246</v>
       </c>
       <c r="Q8">
-        <v>1.00008947122924</v>
+        <v>1.000106849679699</v>
       </c>
       <c r="R8">
-        <v>0.9999439001806856</v>
+        <v>0.9999373516116367</v>
       </c>
       <c r="S8">
-        <v>0.9997846823695954</v>
+        <v>0.9999289633642539</v>
       </c>
       <c r="T8">
-        <v>0.9999439001806856</v>
+        <v>0.9999373516116367</v>
       </c>
       <c r="U8">
-        <v>0.999914582412704</v>
+        <v>0.9999336305798057</v>
       </c>
       <c r="V8">
-        <v>0.9999925224385692</v>
+        <v>0.9999364309091368</v>
       </c>
       <c r="W8">
-        <v>0.9999397063478705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999633315359606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000451236333151</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="D9">
-        <v>0.9988772102273744</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="E9">
-        <v>1.000455258133818</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="F9">
-        <v>1.000451236333151</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="G9">
-        <v>0.9997646875420867</v>
+        <v>0.9980172208326777</v>
       </c>
       <c r="H9">
-        <v>1.000438472515704</v>
+        <v>0.9963090169025666</v>
       </c>
       <c r="I9">
-        <v>1.000451236333151</v>
+        <v>1.002085235838659</v>
       </c>
       <c r="J9">
-        <v>0.9988772102273744</v>
+        <v>0.9987365376642181</v>
       </c>
       <c r="K9">
-        <v>0.9998820880198608</v>
+        <v>1.001840950761083</v>
       </c>
       <c r="L9">
-        <v>1.000185349296607</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="M9">
-        <v>0.999295856185764</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="N9">
-        <v>1.000451236333151</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="O9">
-        <v>1.000455258133818</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="P9">
-        <v>0.9996662341805964</v>
+        <v>0.9973576736918373</v>
       </c>
       <c r="Q9">
-        <v>1.000109972837953</v>
+        <v>0.9993403752706225</v>
       </c>
       <c r="R9">
-        <v>0.9999279015647812</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="S9">
-        <v>0.9996990519677599</v>
+        <v>0.9978172950159642</v>
       </c>
       <c r="T9">
-        <v>0.9999279015647812</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="U9">
-        <v>0.9998870980591076</v>
+        <v>0.9998818184973289</v>
       </c>
       <c r="V9">
-        <v>0.9999999257139163</v>
+        <v>1.001120532586148</v>
       </c>
       <c r="W9">
-        <v>0.9999187697817959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997224622905378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000942004445748</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="D10">
-        <v>0.997556749281068</v>
+        <v>1.071295336226644</v>
       </c>
       <c r="E10">
-        <v>1.001016650829176</v>
+        <v>0.8595402197290769</v>
       </c>
       <c r="F10">
-        <v>1.000942004445748</v>
+        <v>0.8595402197290769</v>
       </c>
       <c r="G10">
-        <v>0.9994873188634162</v>
+        <v>0.9934983105666273</v>
       </c>
       <c r="H10">
-        <v>1.000958496658609</v>
+        <v>0.9136021379694143</v>
       </c>
       <c r="I10">
-        <v>1.000942004445748</v>
+        <v>1.015517924406012</v>
       </c>
       <c r="J10">
-        <v>0.997556749281068</v>
+        <v>0.9705900691228343</v>
       </c>
       <c r="K10">
-        <v>0.9997576082703614</v>
+        <v>1.056978745427717</v>
       </c>
       <c r="L10">
-        <v>1.000389679812437</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="M10">
-        <v>0.9984701628103774</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="N10">
-        <v>1.000942004445748</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="O10">
-        <v>1.001016650829176</v>
+        <v>1.071295336226644</v>
       </c>
       <c r="P10">
-        <v>0.9992867000551219</v>
+        <v>0.9654177779778605</v>
       </c>
       <c r="Q10">
-        <v>1.000251984846296</v>
+        <v>1.020942702674739</v>
       </c>
       <c r="R10">
-        <v>0.9998384681853306</v>
+        <v>0.9880601301651607</v>
       </c>
       <c r="S10">
-        <v>0.99935357299122</v>
+        <v>0.9671418750261851</v>
       </c>
       <c r="T10">
-        <v>0.9998384681853306</v>
+        <v>0.9880601301651607</v>
       </c>
       <c r="U10">
-        <v>0.9997506808548521</v>
+        <v>0.983692614904579</v>
       </c>
       <c r="V10">
-        <v>0.9999889455730313</v>
+        <v>0.9936230588316153</v>
       </c>
       <c r="W10">
-        <v>0.9998223338713992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9892959472485108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00168976191782</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="D11">
-        <v>0.9959670550547646</v>
+        <v>1.010604779483343</v>
       </c>
       <c r="E11">
-        <v>1.001595319650741</v>
+        <v>0.9318819158507265</v>
       </c>
       <c r="F11">
-        <v>1.00168976191782</v>
+        <v>0.9318819158507265</v>
       </c>
       <c r="G11">
-        <v>0.999153078663312</v>
+        <v>0.9821475440757008</v>
       </c>
       <c r="H11">
-        <v>1.001570240064787</v>
+        <v>0.9544970600826579</v>
       </c>
       <c r="I11">
-        <v>1.00168976191782</v>
+        <v>1.020636439037422</v>
       </c>
       <c r="J11">
-        <v>0.9959670550547646</v>
+        <v>0.9848720107525051</v>
       </c>
       <c r="K11">
-        <v>0.9995517108120338</v>
+        <v>1.024688409846924</v>
       </c>
       <c r="L11">
-        <v>1.000687681620744</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="M11">
-        <v>0.9974645432644438</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="N11">
-        <v>1.00168976191782</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="O11">
-        <v>1.001595319650741</v>
+        <v>1.010604779483343</v>
       </c>
       <c r="P11">
-        <v>0.9987811873527526</v>
+        <v>0.9712433476670346</v>
       </c>
       <c r="Q11">
-        <v>1.000374199157026</v>
+        <v>0.9977383951179238</v>
       </c>
       <c r="R11">
-        <v>0.999750712207775</v>
+        <v>0.9998738147703587</v>
       </c>
       <c r="S11">
-        <v>0.9989051511229391</v>
+        <v>0.9757862353621913</v>
       </c>
       <c r="T11">
-        <v>0.999750712207775</v>
+        <v>0.9998738147703587</v>
       </c>
       <c r="U11">
-        <v>0.9996013038216592</v>
+        <v>0.9961233637658953</v>
       </c>
       <c r="V11">
-        <v>1.000018995440891</v>
+        <v>1.008325640808118</v>
       </c>
       <c r="W11">
-        <v>0.9997099238810807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9958078635132858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9965019244963467</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="D12">
-        <v>1.069141523448</v>
+        <v>1.022446452673685</v>
       </c>
       <c r="E12">
-        <v>0.9594567272800399</v>
+        <v>0.955258779810525</v>
       </c>
       <c r="F12">
-        <v>0.9965019244963467</v>
+        <v>0.955258779810525</v>
       </c>
       <c r="G12">
-        <v>1.013023637876956</v>
+        <v>0.9977967954631564</v>
       </c>
       <c r="H12">
-        <v>0.9722175508210755</v>
+        <v>0.9724648084421041</v>
       </c>
       <c r="I12">
-        <v>0.9965019244963467</v>
+        <v>1.005077673705265</v>
       </c>
       <c r="J12">
-        <v>1.069141523448</v>
+        <v>0.9906487917473673</v>
       </c>
       <c r="K12">
-        <v>0.9984576684976419</v>
+        <v>1.018097690231581</v>
       </c>
       <c r="L12">
-        <v>0.9957917862874346</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="M12">
-        <v>1.040515235750937</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="N12">
-        <v>0.9965019244963467</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="O12">
-        <v>0.9594567272800399</v>
+        <v>1.022446452673685</v>
       </c>
       <c r="P12">
-        <v>1.01429912536402</v>
+        <v>0.988852616242105</v>
       </c>
       <c r="Q12">
-        <v>0.9862401825784981</v>
+        <v>1.006547622210526</v>
       </c>
       <c r="R12">
-        <v>1.008366725074796</v>
+        <v>0.9962338012842095</v>
       </c>
       <c r="S12">
-        <v>1.013873962868332</v>
+        <v>0.9894513414105258</v>
       </c>
       <c r="T12">
-        <v>1.008366725074796</v>
+        <v>0.9962338012842095</v>
       </c>
       <c r="U12">
-        <v>1.009530953275336</v>
+        <v>0.994837548899999</v>
       </c>
       <c r="V12">
-        <v>1.006925147519538</v>
+        <v>0.9980692733936829</v>
       </c>
       <c r="W12">
-        <v>1.005638256807304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9965983954302627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9779654731025208</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="D13">
-        <v>1.005407163069637</v>
+        <v>0.9926814450116983</v>
       </c>
       <c r="E13">
-        <v>1.008161395417337</v>
+        <v>1.024129194894139</v>
       </c>
       <c r="F13">
-        <v>0.9779654731025208</v>
+        <v>1.024129194894139</v>
       </c>
       <c r="G13">
-        <v>1.002262543567484</v>
+        <v>1.003872704401714</v>
       </c>
       <c r="H13">
-        <v>0.998598238224771</v>
+        <v>1.015355454241781</v>
       </c>
       <c r="I13">
-        <v>0.9779654731025208</v>
+        <v>0.9947240584950704</v>
       </c>
       <c r="J13">
-        <v>1.005407163069637</v>
+        <v>1.00499100163068</v>
       </c>
       <c r="K13">
-        <v>1.007759843366767</v>
+        <v>0.9909950498743376</v>
       </c>
       <c r="L13">
-        <v>0.9931734290768449</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="M13">
-        <v>1.005665950102044</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="N13">
-        <v>0.9779654731025208</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="O13">
-        <v>1.008161395417337</v>
+        <v>0.9926814450116983</v>
       </c>
       <c r="P13">
-        <v>1.006784279243487</v>
+        <v>1.008405319952919</v>
       </c>
       <c r="Q13">
-        <v>1.005211969492411</v>
+        <v>0.9988362233211894</v>
       </c>
       <c r="R13">
-        <v>0.9971780105298317</v>
+        <v>1.001115119729016</v>
       </c>
       <c r="S13">
-        <v>1.005277034018153</v>
+        <v>1.007267213845506</v>
       </c>
       <c r="T13">
-        <v>0.9971780105298317</v>
+        <v>1.001115119729016</v>
       </c>
       <c r="U13">
-        <v>0.9984491437892449</v>
+        <v>1.002084090204432</v>
       </c>
       <c r="V13">
-        <v>0.9943524096519001</v>
+        <v>0.9989742160197874</v>
       </c>
       <c r="W13">
-        <v>0.9998742544909258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.001660453478829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.89463729043138</v>
+        <v>1.055856</v>
       </c>
       <c r="D14">
-        <v>1.161103579616915</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="E14">
-        <v>0.9573552903254847</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="F14">
-        <v>0.89463729043138</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="G14">
-        <v>1.035231789831039</v>
+        <v>0.9894340199999996</v>
       </c>
       <c r="H14">
-        <v>0.9393882919782899</v>
+        <v>0.8503200600000009</v>
       </c>
       <c r="I14">
-        <v>0.89463729043138</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="J14">
-        <v>1.161103579616915</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="K14">
-        <v>1.031548966570685</v>
+        <v>1.0989676</v>
       </c>
       <c r="L14">
-        <v>0.9607686697632367</v>
+        <v>1.055856</v>
       </c>
       <c r="M14">
-        <v>1.105060194807738</v>
+        <v>1.055856</v>
       </c>
       <c r="N14">
-        <v>0.89463729043138</v>
+        <v>1.055856</v>
       </c>
       <c r="O14">
-        <v>0.9573552903254847</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="P14">
-        <v>1.0592294349712</v>
+        <v>0.9405921999999998</v>
       </c>
       <c r="Q14">
-        <v>0.996293540078262</v>
+        <v>1.036923884999999</v>
       </c>
       <c r="R14">
-        <v>1.00436538679126</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S14">
-        <v>1.05123021992448</v>
+        <v>0.9434064233333329</v>
       </c>
       <c r="T14">
-        <v>1.00436538679126</v>
+        <v>0.9790134666666664</v>
       </c>
       <c r="U14">
-        <v>1.012081987551205</v>
+        <v>0.9715188174999996</v>
       </c>
       <c r="V14">
-        <v>0.9885930481272396</v>
+        <v>0.9883862539999997</v>
       </c>
       <c r="W14">
-        <v>1.010636759165596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9813852187499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9706216024922361</v>
+        <v>1.1590686</v>
       </c>
       <c r="D15">
-        <v>1.043426412315435</v>
+        <v>1.0262828</v>
       </c>
       <c r="E15">
-        <v>0.990880108767745</v>
+        <v>0.81027012</v>
       </c>
       <c r="F15">
-        <v>0.9706216024922361</v>
+        <v>0.81027012</v>
       </c>
       <c r="G15">
-        <v>1.008508557083274</v>
+        <v>0.9504690099999999</v>
       </c>
       <c r="H15">
-        <v>0.9847522425780185</v>
+        <v>0.87463789</v>
       </c>
       <c r="I15">
-        <v>0.9706216024922361</v>
+        <v>1.0585551</v>
       </c>
       <c r="J15">
-        <v>1.043426412315435</v>
+        <v>0.95970917</v>
       </c>
       <c r="K15">
-        <v>1.008762563423589</v>
+        <v>1.0669055</v>
       </c>
       <c r="L15">
-        <v>0.9885110615170581</v>
+        <v>1.1590686</v>
       </c>
       <c r="M15">
-        <v>1.0276550026992</v>
+        <v>1.1590686</v>
       </c>
       <c r="N15">
-        <v>0.9706216024922361</v>
+        <v>1.1590686</v>
       </c>
       <c r="O15">
-        <v>0.990880108767745</v>
+        <v>1.0262828</v>
       </c>
       <c r="P15">
-        <v>1.01715326054159</v>
+        <v>0.91827646</v>
       </c>
       <c r="Q15">
-        <v>0.9996943329255096</v>
+        <v>0.992995985</v>
       </c>
       <c r="R15">
-        <v>1.001642707858472</v>
+        <v>0.9985405066666666</v>
       </c>
       <c r="S15">
-        <v>1.014271692722151</v>
+        <v>0.9320873633333333</v>
       </c>
       <c r="T15">
-        <v>1.001642707858472</v>
+        <v>0.9985405066666666</v>
       </c>
       <c r="U15">
-        <v>1.003359170164673</v>
+        <v>0.9888326725</v>
       </c>
       <c r="V15">
-        <v>0.9968116566301853</v>
+        <v>1.022879858</v>
       </c>
       <c r="W15">
-        <v>1.002889693859569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.98823727375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000070610020828</v>
+        <v>1.4462575</v>
       </c>
       <c r="D16">
-        <v>1.000027075291534</v>
+        <v>1.055856</v>
       </c>
       <c r="E16">
-        <v>0.9999530686903806</v>
+        <v>0.5123396</v>
       </c>
       <c r="F16">
-        <v>1.000070610020828</v>
+        <v>0.5123396</v>
       </c>
       <c r="G16">
-        <v>0.9999973893643973</v>
+        <v>0.85874682</v>
       </c>
       <c r="H16">
-        <v>0.9999902070150725</v>
+        <v>0.67025205</v>
       </c>
       <c r="I16">
-        <v>1.000070610020828</v>
+        <v>1.1590786</v>
       </c>
       <c r="J16">
-        <v>1.000027075291534</v>
+        <v>0.8899491400000001</v>
       </c>
       <c r="K16">
-        <v>0.9999729974937414</v>
+        <v>1.175043</v>
       </c>
       <c r="L16">
-        <v>1.000017701335252</v>
+        <v>1.4462575</v>
       </c>
       <c r="M16">
-        <v>1.000004927928033</v>
+        <v>1.4462575</v>
       </c>
       <c r="N16">
-        <v>1.000070610020828</v>
+        <v>1.4462575</v>
       </c>
       <c r="O16">
-        <v>0.9999530686903806</v>
+        <v>1.055856</v>
       </c>
       <c r="P16">
-        <v>0.9999900719909574</v>
+        <v>0.7840978</v>
       </c>
       <c r="Q16">
-        <v>0.9999752290273889</v>
+        <v>0.97290257</v>
       </c>
       <c r="R16">
-        <v>1.000016918000914</v>
+        <v>1.0048177</v>
       </c>
       <c r="S16">
-        <v>0.9999925111154373</v>
+        <v>0.8193815799999999</v>
       </c>
       <c r="T16">
-        <v>1.000016918000914</v>
+        <v>1.0048177</v>
       </c>
       <c r="U16">
-        <v>1.000012035841785</v>
+        <v>0.97610056</v>
       </c>
       <c r="V16">
-        <v>1.000023750677594</v>
+        <v>1.070131948</v>
       </c>
       <c r="W16">
-        <v>1.000004247142405</v>
+        <v>0.9709403387500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999476322264607</v>
+        <v>0.97476235</v>
       </c>
       <c r="D17">
-        <v>0.999573190733364</v>
+        <v>1.033132</v>
       </c>
       <c r="E17">
-        <v>1.000291231875085</v>
+        <v>0.9677010799999999</v>
       </c>
       <c r="F17">
-        <v>0.9999476322264607</v>
+        <v>0.9677010799999999</v>
       </c>
       <c r="G17">
-        <v>0.9999224674843125</v>
+        <v>1.0104416</v>
       </c>
       <c r="H17">
-        <v>1.000175503499418</v>
+        <v>0.98407483</v>
       </c>
       <c r="I17">
-        <v>0.9999476322264607</v>
+        <v>0.99387601</v>
       </c>
       <c r="J17">
-        <v>0.999573190733364</v>
+        <v>0.99534094</v>
       </c>
       <c r="K17">
-        <v>1.000036176740857</v>
+        <v>1.014043</v>
       </c>
       <c r="L17">
-        <v>1.000003078975113</v>
+        <v>0.97476235</v>
       </c>
       <c r="M17">
-        <v>0.9997573707530741</v>
+        <v>0.97476235</v>
       </c>
       <c r="N17">
-        <v>0.9999476322264607</v>
+        <v>0.97476235</v>
       </c>
       <c r="O17">
-        <v>1.000291231875085</v>
+        <v>1.033132</v>
       </c>
       <c r="P17">
-        <v>0.9999322113042246</v>
+        <v>1.00041654</v>
       </c>
       <c r="Q17">
-        <v>1.000106849679699</v>
+        <v>1.01423647</v>
       </c>
       <c r="R17">
-        <v>0.9999373516116367</v>
+        <v>0.9918651433333331</v>
       </c>
       <c r="S17">
-        <v>0.9999289633642539</v>
+        <v>0.9987246733333333</v>
       </c>
       <c r="T17">
-        <v>0.9999373516116367</v>
+        <v>0.9918651433333333</v>
       </c>
       <c r="U17">
-        <v>0.9999336305798056</v>
+        <v>0.9927340924999999</v>
       </c>
       <c r="V17">
-        <v>0.9999364309091365</v>
+        <v>0.9891397439999998</v>
       </c>
       <c r="W17">
-        <v>0.9999633315359605</v>
+        <v>0.99667147625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001315513607491</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="D18">
-        <v>0.9993740361229927</v>
+        <v>0.9970526312328769</v>
       </c>
       <c r="E18">
-        <v>0.9996873674551708</v>
+        <v>0.9373407967123291</v>
       </c>
       <c r="F18">
-        <v>1.001315513607491</v>
+        <v>0.9373407967123291</v>
       </c>
       <c r="G18">
-        <v>0.9998149181037561</v>
+        <v>0.974844139041096</v>
       </c>
       <c r="H18">
-        <v>1.000199750539145</v>
+        <v>0.9554287716438354</v>
       </c>
       <c r="I18">
-        <v>1.001315513607491</v>
+        <v>1.026233874794521</v>
       </c>
       <c r="J18">
-        <v>0.9993740361229927</v>
+        <v>0.9847788705479451</v>
       </c>
       <c r="K18">
-        <v>0.9995495986713612</v>
+        <v>1.021779590958904</v>
       </c>
       <c r="L18">
-        <v>1.000425139997132</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="M18">
-        <v>0.9994904793614778</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="N18">
-        <v>1.001315513607491</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="O18">
-        <v>0.9996873674551708</v>
+        <v>0.9970526312328769</v>
       </c>
       <c r="P18">
-        <v>0.9995307017890818</v>
+        <v>0.967196713972603</v>
       </c>
       <c r="Q18">
-        <v>0.9997511427794634</v>
+        <v>0.990915750890411</v>
       </c>
       <c r="R18">
-        <v>1.000125639061885</v>
+        <v>1.003695468493151</v>
       </c>
       <c r="S18">
-        <v>0.9996254405606398</v>
+        <v>0.9730574328310504</v>
       </c>
       <c r="T18">
-        <v>1.000125639061885</v>
+        <v>1.003695468493151</v>
       </c>
       <c r="U18">
-        <v>1.000047958822353</v>
+        <v>0.9989663190068494</v>
       </c>
       <c r="V18">
-        <v>1.000301469779381</v>
+        <v>1.014511650712329</v>
       </c>
       <c r="W18">
-        <v>0.9999821004823158</v>
+        <v>0.9967689565582193</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004104699977789</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="D19">
-        <v>0.9991432514157653</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="E19">
-        <v>0.9983670130676044</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="F19">
-        <v>1.004104699977789</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="G19">
-        <v>0.999617864157611</v>
+        <v>0.9846318899999998</v>
       </c>
       <c r="H19">
-        <v>1.000188825627091</v>
+        <v>0.9390472268421051</v>
       </c>
       <c r="I19">
-        <v>1.004104699977789</v>
+        <v>1.020864081578947</v>
       </c>
       <c r="J19">
-        <v>0.9991432514157653</v>
+        <v>0.9801148489473686</v>
       </c>
       <c r="K19">
-        <v>0.99854939249862</v>
+        <v>1.035798827894737</v>
       </c>
       <c r="L19">
-        <v>1.001271601577097</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="M19">
-        <v>0.9990403434268971</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="N19">
-        <v>1.004104699977789</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="O19">
-        <v>0.9983670130676044</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="P19">
-        <v>0.9987551322416849</v>
+        <v>0.9667583423684212</v>
       </c>
       <c r="Q19">
-        <v>0.9989924386126077</v>
+        <v>1.004647810526316</v>
       </c>
       <c r="R19">
-        <v>1.000538321487053</v>
+        <v>0.9956388601754388</v>
       </c>
       <c r="S19">
-        <v>0.9990427095469935</v>
+        <v>0.9712105112280703</v>
       </c>
       <c r="T19">
-        <v>1.000538321487053</v>
+        <v>0.9956388601754386</v>
       </c>
       <c r="U19">
-        <v>1.000308207154692</v>
+        <v>0.9917578573684211</v>
       </c>
       <c r="V19">
-        <v>1.001067505719312</v>
+        <v>1.004086265052632</v>
       </c>
       <c r="W19">
-        <v>1.000035373968559</v>
+        <v>0.9934216819736842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="D20">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="E20">
+        <v>0.7833150921052633</v>
+      </c>
+      <c r="F20">
+        <v>0.7833150921052633</v>
+      </c>
+      <c r="G20">
+        <v>0.969950027368421</v>
+      </c>
+      <c r="H20">
+        <v>0.8624751426315789</v>
+      </c>
+      <c r="I20">
+        <v>1.042421663157895</v>
+      </c>
+      <c r="J20">
+        <v>0.9543707278947368</v>
+      </c>
+      <c r="K20">
+        <v>1.082938652631579</v>
+      </c>
+      <c r="L20">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="M20">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="N20">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="O20">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="P20">
+        <v>0.9294319513157896</v>
+      </c>
+      <c r="Q20">
+        <v>1.014959769210526</v>
+      </c>
+      <c r="R20">
+        <v>0.9887769798245615</v>
+      </c>
+      <c r="S20">
+        <v>0.9377448768421054</v>
+      </c>
+      <c r="T20">
+        <v>0.9887769798245615</v>
+      </c>
+      <c r="U20">
+        <v>0.9801754168421053</v>
+      </c>
+      <c r="V20">
+        <v>1.005633740842105</v>
+      </c>
+      <c r="W20">
+        <v>0.9848108941447369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="D21">
+        <v>0.9573552903254847</v>
+      </c>
+      <c r="E21">
+        <v>1.161103579616915</v>
+      </c>
+      <c r="F21">
+        <v>1.161103579616915</v>
+      </c>
+      <c r="G21">
+        <v>1.031548966570685</v>
+      </c>
+      <c r="H21">
+        <v>1.105060194807737</v>
+      </c>
+      <c r="I21">
+        <v>0.9607686697632367</v>
+      </c>
+      <c r="J21">
+        <v>1.035231789831039</v>
+      </c>
+      <c r="K21">
+        <v>0.9393882919782899</v>
+      </c>
+      <c r="L21">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="M21">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="N21">
+        <v>0.89463729043138</v>
+      </c>
+      <c r="O21">
+        <v>0.9573552903254847</v>
+      </c>
+      <c r="P21">
+        <v>1.0592294349712</v>
+      </c>
+      <c r="Q21">
+        <v>0.996293540078262</v>
+      </c>
+      <c r="R21">
+        <v>1.00436538679126</v>
+      </c>
+      <c r="S21">
+        <v>1.05123021992448</v>
+      </c>
+      <c r="T21">
+        <v>1.00436538679126</v>
+      </c>
+      <c r="U21">
+        <v>1.012081987551205</v>
+      </c>
+      <c r="V21">
+        <v>0.9885930481272396</v>
+      </c>
+      <c r="W21">
+        <v>1.010636759165596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="D22">
+        <v>0.990880108767745</v>
+      </c>
+      <c r="E22">
+        <v>1.043426412315435</v>
+      </c>
+      <c r="F22">
+        <v>1.043426412315435</v>
+      </c>
+      <c r="G22">
+        <v>1.008762563423589</v>
+      </c>
+      <c r="H22">
+        <v>1.0276550026992</v>
+      </c>
+      <c r="I22">
+        <v>0.9885110615170581</v>
+      </c>
+      <c r="J22">
+        <v>1.008508557083274</v>
+      </c>
+      <c r="K22">
+        <v>0.9847522425780185</v>
+      </c>
+      <c r="L22">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="M22">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="N22">
+        <v>0.9706216024922362</v>
+      </c>
+      <c r="O22">
+        <v>0.990880108767745</v>
+      </c>
+      <c r="P22">
+        <v>1.01715326054159</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996943329255096</v>
+      </c>
+      <c r="R22">
+        <v>1.001642707858472</v>
+      </c>
+      <c r="S22">
+        <v>1.014271692722151</v>
+      </c>
+      <c r="T22">
+        <v>1.001642707858472</v>
+      </c>
+      <c r="U22">
+        <v>1.003359170164673</v>
+      </c>
+      <c r="V22">
+        <v>0.9968116566301853</v>
+      </c>
+      <c r="W22">
+        <v>1.002889693859569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="D23">
+        <v>0.9594567272800399</v>
+      </c>
+      <c r="E23">
+        <v>1.069141523448</v>
+      </c>
+      <c r="F23">
+        <v>1.069141523448</v>
+      </c>
+      <c r="G23">
+        <v>0.9984576684976421</v>
+      </c>
+      <c r="H23">
+        <v>1.040515235750937</v>
+      </c>
+      <c r="I23">
+        <v>0.9957917862874346</v>
+      </c>
+      <c r="J23">
+        <v>1.013023637876957</v>
+      </c>
+      <c r="K23">
+        <v>0.9722175508210755</v>
+      </c>
+      <c r="L23">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="M23">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="N23">
+        <v>0.9965019244963467</v>
+      </c>
+      <c r="O23">
+        <v>0.9594567272800399</v>
+      </c>
+      <c r="P23">
+        <v>1.01429912536402</v>
+      </c>
+      <c r="Q23">
+        <v>0.9862401825784983</v>
+      </c>
+      <c r="R23">
+        <v>1.008366725074796</v>
+      </c>
+      <c r="S23">
+        <v>1.013873962868332</v>
+      </c>
+      <c r="T23">
+        <v>1.008366725074796</v>
+      </c>
+      <c r="U23">
+        <v>1.009530953275336</v>
+      </c>
+      <c r="V23">
+        <v>1.006925147519538</v>
+      </c>
+      <c r="W23">
+        <v>1.005638256807304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="D24">
+        <v>1.008161395417337</v>
+      </c>
+      <c r="E24">
+        <v>1.005407163069637</v>
+      </c>
+      <c r="F24">
+        <v>1.005407163069637</v>
+      </c>
+      <c r="G24">
+        <v>1.007759843366767</v>
+      </c>
+      <c r="H24">
+        <v>1.005665950102044</v>
+      </c>
+      <c r="I24">
+        <v>0.9931734290768449</v>
+      </c>
+      <c r="J24">
+        <v>1.002262543567484</v>
+      </c>
+      <c r="K24">
+        <v>0.998598238224771</v>
+      </c>
+      <c r="L24">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="M24">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="N24">
+        <v>0.9779654731025206</v>
+      </c>
+      <c r="O24">
+        <v>1.008161395417337</v>
+      </c>
+      <c r="P24">
+        <v>1.006784279243487</v>
+      </c>
+      <c r="Q24">
+        <v>1.005211969492411</v>
+      </c>
+      <c r="R24">
+        <v>0.9971780105298316</v>
+      </c>
+      <c r="S24">
+        <v>1.005277034018153</v>
+      </c>
+      <c r="T24">
+        <v>0.9971780105298317</v>
+      </c>
+      <c r="U24">
+        <v>0.9984491437892449</v>
+      </c>
+      <c r="V24">
+        <v>0.9943524096519001</v>
+      </c>
+      <c r="W24">
+        <v>0.9998742544909258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.115105351567228</v>
+      </c>
+      <c r="D25">
+        <v>1.029946971293431</v>
+      </c>
+      <c r="E25">
+        <v>0.8472504445910208</v>
+      </c>
+      <c r="F25">
+        <v>0.8472504445910208</v>
+      </c>
+      <c r="G25">
+        <v>0.9647117227429128</v>
+      </c>
+      <c r="H25">
+        <v>0.8997111596768109</v>
+      </c>
+      <c r="I25">
+        <v>1.042593233433387</v>
+      </c>
+      <c r="J25">
+        <v>0.9671625356242599</v>
+      </c>
+      <c r="K25">
+        <v>1.055477299533582</v>
+      </c>
+      <c r="L25">
+        <v>1.115105351567228</v>
+      </c>
+      <c r="M25">
+        <v>1.115105351567228</v>
+      </c>
+      <c r="N25">
+        <v>1.115105351567228</v>
+      </c>
+      <c r="O25">
+        <v>1.029946971293431</v>
+      </c>
+      <c r="P25">
+        <v>0.9385987079422258</v>
+      </c>
+      <c r="Q25">
+        <v>0.9985547534588453</v>
+      </c>
+      <c r="R25">
+        <v>0.9974342558172266</v>
+      </c>
+      <c r="S25">
+        <v>0.9481199838362372</v>
+      </c>
+      <c r="T25">
+        <v>0.9974342558172266</v>
+      </c>
+      <c r="U25">
+        <v>0.9898663257689848</v>
+      </c>
+      <c r="V25">
+        <v>1.014914130928634</v>
+      </c>
+      <c r="W25">
+        <v>0.990244839807829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.024060416900022</v>
+      </c>
+      <c r="D26">
+        <v>1.014928241332748</v>
+      </c>
+      <c r="E26">
+        <v>0.9559941260427273</v>
+      </c>
+      <c r="F26">
+        <v>0.9559941260427273</v>
+      </c>
+      <c r="G26">
+        <v>0.9930494035766586</v>
+      </c>
+      <c r="H26">
+        <v>0.9715021113786799</v>
+      </c>
+      <c r="I26">
+        <v>1.009032940833332</v>
+      </c>
+      <c r="J26">
+        <v>0.9901862635928029</v>
+      </c>
+      <c r="K26">
+        <v>1.017188465745833</v>
+      </c>
+      <c r="L26">
+        <v>1.024060416900022</v>
+      </c>
+      <c r="M26">
+        <v>1.024060416900022</v>
+      </c>
+      <c r="N26">
+        <v>1.024060416900022</v>
+      </c>
+      <c r="O26">
+        <v>1.014928241332748</v>
+      </c>
+      <c r="P26">
+        <v>0.9854611836877378</v>
+      </c>
+      <c r="Q26">
+        <v>1.002557252462775</v>
+      </c>
+      <c r="R26">
+        <v>0.9983275947584994</v>
+      </c>
+      <c r="S26">
+        <v>0.9870362103227596</v>
+      </c>
+      <c r="T26">
+        <v>0.9983275947584994</v>
+      </c>
+      <c r="U26">
+        <v>0.9962922619670753</v>
+      </c>
+      <c r="V26">
+        <v>1.001845892953665</v>
+      </c>
+      <c r="W26">
+        <v>0.9969927461753506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="D27">
+        <v>1.001040935957537</v>
+      </c>
+      <c r="E27">
+        <v>0.9884428402798249</v>
+      </c>
+      <c r="F27">
+        <v>0.9884428402798249</v>
+      </c>
+      <c r="G27">
+        <v>0.9970195822287732</v>
+      </c>
+      <c r="H27">
+        <v>0.9926036778496644</v>
+      </c>
+      <c r="I27">
+        <v>1.003750895833441</v>
+      </c>
+      <c r="J27">
+        <v>0.997866297434185</v>
+      </c>
+      <c r="K27">
+        <v>1.003753271623544</v>
+      </c>
+      <c r="L27">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="M27">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="N27">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="O27">
+        <v>1.001040935957537</v>
+      </c>
+      <c r="P27">
+        <v>0.9947418881186809</v>
+      </c>
+      <c r="Q27">
+        <v>0.999453616695861</v>
+      </c>
+      <c r="R27">
+        <v>0.9997175234012898</v>
+      </c>
+      <c r="S27">
+        <v>0.9957833578905156</v>
+      </c>
+      <c r="T27">
+        <v>0.9997175234012898</v>
+      </c>
+      <c r="U27">
+        <v>0.9992547169095136</v>
+      </c>
+      <c r="V27">
+        <v>1.001337532320913</v>
+      </c>
+      <c r="W27">
+        <v>0.9992682868966847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="D28">
+        <v>1.00109403866382</v>
+      </c>
+      <c r="E28">
+        <v>0.9820179820052889</v>
+      </c>
+      <c r="F28">
+        <v>0.9820179820052889</v>
+      </c>
+      <c r="G28">
+        <v>0.9939797031826695</v>
+      </c>
+      <c r="H28">
+        <v>0.9875084656121129</v>
+      </c>
+      <c r="I28">
+        <v>1.006464600347601</v>
+      </c>
+      <c r="J28">
+        <v>0.9957102591028153</v>
+      </c>
+      <c r="K28">
+        <v>1.006482354469099</v>
+      </c>
+      <c r="L28">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="M28">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="N28">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="O28">
+        <v>1.00109403866382</v>
+      </c>
+      <c r="P28">
+        <v>0.9915560103345544</v>
+      </c>
+      <c r="Q28">
+        <v>0.9984021488833176</v>
+      </c>
+      <c r="R28">
+        <v>1.000594097771944</v>
+      </c>
+      <c r="S28">
+        <v>0.9929407599239747</v>
+      </c>
+      <c r="T28">
+        <v>1.000594097771944</v>
+      </c>
+      <c r="U28">
+        <v>0.9993731381046616</v>
+      </c>
+      <c r="V28">
+        <v>1.003232565013074</v>
+      </c>
+      <c r="W28">
+        <v>0.998990959503766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9957149610171717</v>
+      </c>
+      <c r="D29">
+        <v>0.987904605184721</v>
+      </c>
+      <c r="E29">
+        <v>1.020756630526591</v>
+      </c>
+      <c r="F29">
+        <v>1.020756630526591</v>
+      </c>
+      <c r="G29">
+        <v>1.000790844699677</v>
+      </c>
+      <c r="H29">
+        <v>1.013203652427902</v>
+      </c>
+      <c r="I29">
+        <v>0.9983070072411691</v>
+      </c>
+      <c r="J29">
+        <v>1.004994796435934</v>
+      </c>
+      <c r="K29">
+        <v>0.9908640991047456</v>
+      </c>
+      <c r="L29">
+        <v>0.9957149610171717</v>
+      </c>
+      <c r="M29">
+        <v>0.9957149610171717</v>
+      </c>
+      <c r="N29">
+        <v>0.9957149610171717</v>
+      </c>
+      <c r="O29">
+        <v>0.987904605184721</v>
+      </c>
+      <c r="P29">
+        <v>1.004330617855656</v>
+      </c>
+      <c r="Q29">
+        <v>0.9964497008103275</v>
+      </c>
+      <c r="R29">
+        <v>1.001458732242828</v>
+      </c>
+      <c r="S29">
+        <v>1.004552010715749</v>
+      </c>
+      <c r="T29">
+        <v>1.001458732242828</v>
+      </c>
+      <c r="U29">
+        <v>1.002342748291104</v>
+      </c>
+      <c r="V29">
+        <v>1.001017190836318</v>
+      </c>
+      <c r="W29">
+        <v>1.001567074579739</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.056054842841322</v>
+        <v>1.011008758901814</v>
       </c>
       <c r="D4">
-        <v>1.011555445068153</v>
+        <v>1.014542166771043</v>
       </c>
       <c r="E4">
-        <v>0.9312455402087398</v>
+        <v>0.9673365234231595</v>
       </c>
       <c r="F4">
-        <v>0.9312455402087398</v>
+        <v>0.9673365234231595</v>
       </c>
       <c r="G4">
-        <v>0.9825645577762353</v>
+        <v>0.9973270034670441</v>
       </c>
       <c r="H4">
-        <v>0.9542524713355498</v>
+        <v>0.9796774961391496</v>
       </c>
       <c r="I4">
-        <v>1.020343656544964</v>
+        <v>1.004694574629101</v>
       </c>
       <c r="J4">
-        <v>0.9848166266046325</v>
+        <v>0.9931664183847091</v>
       </c>
       <c r="K4">
-        <v>1.024982598807834</v>
+        <v>1.012941133835735</v>
       </c>
       <c r="L4">
-        <v>1.056054842841322</v>
+        <v>1.011008758901814</v>
       </c>
       <c r="M4">
-        <v>1.056054842841322</v>
+        <v>1.011008758901814</v>
       </c>
       <c r="N4">
-        <v>1.056054842841322</v>
+        <v>1.011008758901814</v>
       </c>
       <c r="O4">
-        <v>1.011555445068153</v>
+        <v>1.014542166771043</v>
       </c>
       <c r="P4">
-        <v>0.9714004926384462</v>
+        <v>0.990939345097101</v>
       </c>
       <c r="Q4">
-        <v>0.9981860358363925</v>
+        <v>1.003854292577876</v>
       </c>
       <c r="R4">
-        <v>0.9996186093727383</v>
+        <v>0.9976291496986721</v>
       </c>
       <c r="S4">
-        <v>0.9758725372938416</v>
+        <v>0.991681702859637</v>
       </c>
       <c r="T4">
-        <v>0.9996186093727383</v>
+        <v>0.9976291496986721</v>
       </c>
       <c r="U4">
-        <v>0.9959181136807118</v>
+        <v>0.9965134668701814</v>
       </c>
       <c r="V4">
-        <v>1.007945459512834</v>
+        <v>0.999412525276508</v>
       </c>
       <c r="W4">
-        <v>0.9957269673984288</v>
+        <v>0.9975867594439695</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.015391930417864</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="D5">
-        <v>1.017644185821323</v>
+        <v>1.073018885183037</v>
       </c>
       <c r="E5">
-        <v>0.9585859141714678</v>
+        <v>0.7846985202821278</v>
       </c>
       <c r="F5">
-        <v>0.9585859141714678</v>
+        <v>0.7846985202821278</v>
       </c>
       <c r="G5">
-        <v>0.9960940470605191</v>
+        <v>0.9689493520426443</v>
       </c>
       <c r="H5">
-        <v>0.9740881128025944</v>
+        <v>0.8630991910460672</v>
       </c>
       <c r="I5">
-        <v>1.006396116268012</v>
+        <v>1.043250456861195</v>
       </c>
       <c r="J5">
-        <v>0.9912800949135443</v>
+        <v>0.9546446918649614</v>
       </c>
       <c r="K5">
-        <v>1.016330616412103</v>
+        <v>1.082115581142487</v>
       </c>
       <c r="L5">
-        <v>1.015391930417864</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="M5">
-        <v>1.015391930417864</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="N5">
-        <v>1.015391930417864</v>
+        <v>1.110117757831619</v>
       </c>
       <c r="O5">
-        <v>1.017644185821323</v>
+        <v>1.073018885183037</v>
       </c>
       <c r="P5">
-        <v>0.9881150499963951</v>
+        <v>0.9288587027325825</v>
       </c>
       <c r="Q5">
-        <v>1.004462140367433</v>
+        <v>1.013831788523999</v>
       </c>
       <c r="R5">
-        <v>0.9972073434702181</v>
+        <v>0.9892783877655945</v>
       </c>
       <c r="S5">
-        <v>0.9891700649687781</v>
+        <v>0.9374540324433754</v>
       </c>
       <c r="T5">
-        <v>0.9972073434702181</v>
+        <v>0.9892783877655944</v>
       </c>
       <c r="U5">
-        <v>0.9957255313310497</v>
+        <v>0.9806199637904361</v>
       </c>
       <c r="V5">
-        <v>0.9996588111484126</v>
+        <v>1.006519522598673</v>
       </c>
       <c r="W5">
-        <v>0.9969763772334284</v>
+        <v>0.9849868045317673</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.033537262110857</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="D6">
-        <v>1.069567627413651</v>
+        <v>1.011555445068153</v>
       </c>
       <c r="E6">
-        <v>0.8619164280076904</v>
+        <v>0.9312455402087398</v>
       </c>
       <c r="F6">
-        <v>0.8619164280076904</v>
+        <v>0.9312455402087398</v>
       </c>
       <c r="G6">
-        <v>0.9933408665187913</v>
+        <v>0.9825645577762353</v>
       </c>
       <c r="H6">
-        <v>0.9150300462953779</v>
+        <v>0.9542524713355498</v>
       </c>
       <c r="I6">
-        <v>1.015523829004678</v>
+        <v>1.020343656544964</v>
       </c>
       <c r="J6">
-        <v>0.9711157609153556</v>
+        <v>0.9848166266046325</v>
       </c>
       <c r="K6">
-        <v>1.05591581705943</v>
+        <v>1.024982598807834</v>
       </c>
       <c r="L6">
-        <v>1.033537262110857</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="M6">
-        <v>1.033537262110857</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="N6">
-        <v>1.033537262110857</v>
+        <v>1.056054842841322</v>
       </c>
       <c r="O6">
-        <v>1.069567627413651</v>
+        <v>1.011555445068153</v>
       </c>
       <c r="P6">
-        <v>0.9657420277106707</v>
+        <v>0.9714004926384462</v>
       </c>
       <c r="Q6">
-        <v>1.020341694164503</v>
+        <v>0.9981860358363925</v>
       </c>
       <c r="R6">
-        <v>0.9883404391773994</v>
+        <v>0.9996186093727383</v>
       </c>
       <c r="S6">
-        <v>0.9675332721122324</v>
+        <v>0.9758725372938416</v>
       </c>
       <c r="T6">
-        <v>0.9883404391773997</v>
+        <v>0.9996186093727383</v>
       </c>
       <c r="U6">
-        <v>0.9840342696118887</v>
+        <v>0.9959181136807118</v>
       </c>
       <c r="V6">
-        <v>0.9939348681116822</v>
+        <v>1.007945459512834</v>
       </c>
       <c r="W6">
-        <v>0.9894934546657289</v>
+        <v>0.9957269673984288</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003880373163281</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="D7">
-        <v>1.000174575474864</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="E7">
-        <v>0.996294540306546</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="F7">
-        <v>0.996294540306546</v>
+        <v>0.9585859141714678</v>
       </c>
       <c r="G7">
-        <v>0.9987491634336652</v>
+        <v>0.9960940470605191</v>
       </c>
       <c r="H7">
-        <v>0.9974361374035087</v>
+        <v>0.9740881128025944</v>
       </c>
       <c r="I7">
-        <v>1.001353219328736</v>
+        <v>1.006396116268012</v>
       </c>
       <c r="J7">
-        <v>0.9991329644187323</v>
+        <v>0.9912800949135443</v>
       </c>
       <c r="K7">
-        <v>1.001315581313455</v>
+        <v>1.016330616412103</v>
       </c>
       <c r="L7">
-        <v>1.003880373163281</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="M7">
-        <v>1.003880373163281</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="N7">
-        <v>1.003880373163281</v>
+        <v>1.015391930417864</v>
       </c>
       <c r="O7">
-        <v>1.000174575474864</v>
+        <v>1.017644185821323</v>
       </c>
       <c r="P7">
-        <v>0.998234557890705</v>
+        <v>0.9881150499963951</v>
       </c>
       <c r="Q7">
-        <v>0.9996537699467982</v>
+        <v>1.004462140367433</v>
       </c>
       <c r="R7">
-        <v>1.000116496314897</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="S7">
-        <v>0.9985340267333808</v>
+        <v>0.9891700649687781</v>
       </c>
       <c r="T7">
-        <v>1.000116496314897</v>
+        <v>0.9972073434702181</v>
       </c>
       <c r="U7">
-        <v>0.9998706133408559</v>
+        <v>0.9957255313310497</v>
       </c>
       <c r="V7">
-        <v>1.000672565305341</v>
+        <v>0.9996588111484126</v>
       </c>
       <c r="W7">
-        <v>0.9997920693553485</v>
+        <v>0.9969763772334284</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999476322264608</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="D8">
-        <v>1.000291231875085</v>
+        <v>1.069567627413651</v>
       </c>
       <c r="E8">
-        <v>0.999573190733364</v>
+        <v>0.8619164280076904</v>
       </c>
       <c r="F8">
-        <v>0.999573190733364</v>
+        <v>0.8619164280076904</v>
       </c>
       <c r="G8">
-        <v>1.000036176740857</v>
+        <v>0.9933408665187913</v>
       </c>
       <c r="H8">
-        <v>0.9997573707530741</v>
+        <v>0.9150300462953779</v>
       </c>
       <c r="I8">
-        <v>1.000003078975113</v>
+        <v>1.015523829004678</v>
       </c>
       <c r="J8">
-        <v>0.9999224674843126</v>
+        <v>0.9711157609153556</v>
       </c>
       <c r="K8">
-        <v>1.000175503499418</v>
+        <v>1.05591581705943</v>
       </c>
       <c r="L8">
-        <v>0.9999476322264608</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="M8">
-        <v>0.9999476322264608</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="N8">
-        <v>0.9999476322264608</v>
+        <v>1.033537262110857</v>
       </c>
       <c r="O8">
-        <v>1.000291231875085</v>
+        <v>1.069567627413651</v>
       </c>
       <c r="P8">
-        <v>0.9999322113042246</v>
+        <v>0.9657420277106707</v>
       </c>
       <c r="Q8">
-        <v>1.000106849679699</v>
+        <v>1.020341694164503</v>
       </c>
       <c r="R8">
-        <v>0.9999373516116367</v>
+        <v>0.9883404391773994</v>
       </c>
       <c r="S8">
-        <v>0.9999289633642539</v>
+        <v>0.9675332721122324</v>
       </c>
       <c r="T8">
-        <v>0.9999373516116367</v>
+        <v>0.9883404391773997</v>
       </c>
       <c r="U8">
-        <v>0.9999336305798057</v>
+        <v>0.9840342696118887</v>
       </c>
       <c r="V8">
-        <v>0.9999364309091368</v>
+        <v>0.9939348681116822</v>
       </c>
       <c r="W8">
-        <v>0.9999633315359606</v>
+        <v>0.9894934546657289</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006075388941423</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="D9">
-        <v>0.9999442128770267</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="E9">
-        <v>0.9947711345066477</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="F9">
-        <v>0.9947711345066477</v>
+        <v>0.996294540306546</v>
       </c>
       <c r="G9">
-        <v>0.9980172208326777</v>
+        <v>0.9987491634336652</v>
       </c>
       <c r="H9">
-        <v>0.9963090169025666</v>
+        <v>0.9974361374035087</v>
       </c>
       <c r="I9">
-        <v>1.002085235838659</v>
+        <v>1.001353219328736</v>
       </c>
       <c r="J9">
-        <v>0.9987365376642181</v>
+        <v>0.9991329644187323</v>
       </c>
       <c r="K9">
-        <v>1.001840950761083</v>
+        <v>1.001315581313455</v>
       </c>
       <c r="L9">
-        <v>1.006075388941423</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="M9">
-        <v>1.006075388941423</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="N9">
-        <v>1.006075388941423</v>
+        <v>1.003880373163281</v>
       </c>
       <c r="O9">
-        <v>0.9999442128770267</v>
+        <v>1.000174575474864</v>
       </c>
       <c r="P9">
-        <v>0.9973576736918373</v>
+        <v>0.998234557890705</v>
       </c>
       <c r="Q9">
-        <v>0.9993403752706225</v>
+        <v>0.9996537699467982</v>
       </c>
       <c r="R9">
-        <v>1.000263578775032</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="S9">
-        <v>0.9978172950159642</v>
+        <v>0.9985340267333808</v>
       </c>
       <c r="T9">
-        <v>1.000263578775032</v>
+        <v>1.000116496314897</v>
       </c>
       <c r="U9">
-        <v>0.9998818184973289</v>
+        <v>0.9998706133408559</v>
       </c>
       <c r="V9">
-        <v>1.001120532586148</v>
+        <v>1.000672565305341</v>
       </c>
       <c r="W9">
-        <v>0.9997224622905378</v>
+        <v>0.9997920693553485</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.033344834539761</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="D10">
-        <v>1.071295336226644</v>
+        <v>1.000291231875085</v>
       </c>
       <c r="E10">
-        <v>0.8595402197290769</v>
+        <v>0.999573190733364</v>
       </c>
       <c r="F10">
-        <v>0.8595402197290769</v>
+        <v>0.999573190733364</v>
       </c>
       <c r="G10">
-        <v>0.9934983105666273</v>
+        <v>1.000036176740857</v>
       </c>
       <c r="H10">
-        <v>0.9136021379694143</v>
+        <v>0.9997573707530741</v>
       </c>
       <c r="I10">
-        <v>1.015517924406012</v>
+        <v>1.000003078975113</v>
       </c>
       <c r="J10">
-        <v>0.9705900691228343</v>
+        <v>0.9999224674843126</v>
       </c>
       <c r="K10">
-        <v>1.056978745427717</v>
+        <v>1.000175503499418</v>
       </c>
       <c r="L10">
-        <v>1.033344834539761</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="M10">
-        <v>1.033344834539761</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="N10">
-        <v>1.033344834539761</v>
+        <v>0.9999476322264608</v>
       </c>
       <c r="O10">
-        <v>1.071295336226644</v>
+        <v>1.000291231875085</v>
       </c>
       <c r="P10">
-        <v>0.9654177779778605</v>
+        <v>0.9999322113042246</v>
       </c>
       <c r="Q10">
-        <v>1.020942702674739</v>
+        <v>1.000106849679699</v>
       </c>
       <c r="R10">
-        <v>0.9880601301651607</v>
+        <v>0.9999373516116367</v>
       </c>
       <c r="S10">
-        <v>0.9671418750261851</v>
+        <v>0.9999289633642539</v>
       </c>
       <c r="T10">
-        <v>0.9880601301651607</v>
+        <v>0.9999373516116367</v>
       </c>
       <c r="U10">
-        <v>0.983692614904579</v>
+        <v>0.9999336305798057</v>
       </c>
       <c r="V10">
-        <v>0.9936230588316153</v>
+        <v>0.9999364309091368</v>
       </c>
       <c r="W10">
-        <v>0.9892959472485108</v>
+        <v>0.9999633315359606</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.057134748977007</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="D11">
-        <v>1.010604779483343</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="E11">
-        <v>0.9318819158507265</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="F11">
-        <v>0.9318819158507265</v>
+        <v>0.9947711345066477</v>
       </c>
       <c r="G11">
-        <v>0.9821475440757008</v>
+        <v>0.9980172208326777</v>
       </c>
       <c r="H11">
-        <v>0.9544970600826579</v>
+        <v>0.9963090169025666</v>
       </c>
       <c r="I11">
-        <v>1.020636439037422</v>
+        <v>1.002085235838659</v>
       </c>
       <c r="J11">
-        <v>0.9848720107525051</v>
+        <v>0.9987365376642181</v>
       </c>
       <c r="K11">
-        <v>1.024688409846924</v>
+        <v>1.001840950761083</v>
       </c>
       <c r="L11">
-        <v>1.057134748977007</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="M11">
-        <v>1.057134748977007</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="N11">
-        <v>1.057134748977007</v>
+        <v>1.006075388941423</v>
       </c>
       <c r="O11">
-        <v>1.010604779483343</v>
+        <v>0.9999442128770267</v>
       </c>
       <c r="P11">
-        <v>0.9712433476670346</v>
+        <v>0.9973576736918373</v>
       </c>
       <c r="Q11">
-        <v>0.9977383951179238</v>
+        <v>0.9993403752706225</v>
       </c>
       <c r="R11">
-        <v>0.9998738147703587</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="S11">
-        <v>0.9757862353621913</v>
+        <v>0.9978172950159642</v>
       </c>
       <c r="T11">
-        <v>0.9998738147703587</v>
+        <v>1.000263578775032</v>
       </c>
       <c r="U11">
-        <v>0.9961233637658953</v>
+        <v>0.9998818184973289</v>
       </c>
       <c r="V11">
-        <v>1.008325640808118</v>
+        <v>1.001120532586148</v>
       </c>
       <c r="W11">
-        <v>0.9958078635132858</v>
+        <v>0.9997224622905378</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010996171368419</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="D12">
-        <v>1.022446452673685</v>
+        <v>1.071295336226644</v>
       </c>
       <c r="E12">
-        <v>0.955258779810525</v>
+        <v>0.8595402197290769</v>
       </c>
       <c r="F12">
-        <v>0.955258779810525</v>
+        <v>0.8595402197290769</v>
       </c>
       <c r="G12">
-        <v>0.9977967954631564</v>
+        <v>0.9934983105666273</v>
       </c>
       <c r="H12">
-        <v>0.9724648084421041</v>
+        <v>0.9136021379694143</v>
       </c>
       <c r="I12">
-        <v>1.005077673705265</v>
+        <v>1.015517924406012</v>
       </c>
       <c r="J12">
-        <v>0.9906487917473673</v>
+        <v>0.9705900691228343</v>
       </c>
       <c r="K12">
-        <v>1.018097690231581</v>
+        <v>1.056978745427717</v>
       </c>
       <c r="L12">
-        <v>1.010996171368419</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="M12">
-        <v>1.010996171368419</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="N12">
-        <v>1.010996171368419</v>
+        <v>1.033344834539761</v>
       </c>
       <c r="O12">
-        <v>1.022446452673685</v>
+        <v>1.071295336226644</v>
       </c>
       <c r="P12">
-        <v>0.988852616242105</v>
+        <v>0.9654177779778605</v>
       </c>
       <c r="Q12">
-        <v>1.006547622210526</v>
+        <v>1.020942702674739</v>
       </c>
       <c r="R12">
-        <v>0.9962338012842095</v>
+        <v>0.9880601301651607</v>
       </c>
       <c r="S12">
-        <v>0.9894513414105258</v>
+        <v>0.9671418750261851</v>
       </c>
       <c r="T12">
-        <v>0.9962338012842095</v>
+        <v>0.9880601301651607</v>
       </c>
       <c r="U12">
-        <v>0.994837548899999</v>
+        <v>0.983692614904579</v>
       </c>
       <c r="V12">
-        <v>0.9980692733936829</v>
+        <v>0.9936230588316153</v>
       </c>
       <c r="W12">
-        <v>0.9965983954302627</v>
+        <v>0.9892959472485108</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9865347192812097</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="D13">
-        <v>0.9926814450116983</v>
+        <v>1.010604779483343</v>
       </c>
       <c r="E13">
-        <v>1.024129194894139</v>
+        <v>0.9318819158507265</v>
       </c>
       <c r="F13">
-        <v>1.024129194894139</v>
+        <v>0.9318819158507265</v>
       </c>
       <c r="G13">
-        <v>1.003872704401714</v>
+        <v>0.9821475440757008</v>
       </c>
       <c r="H13">
-        <v>1.015355454241781</v>
+        <v>0.9544970600826579</v>
       </c>
       <c r="I13">
-        <v>0.9947240584950704</v>
+        <v>1.020636439037422</v>
       </c>
       <c r="J13">
-        <v>1.00499100163068</v>
+        <v>0.9848720107525051</v>
       </c>
       <c r="K13">
-        <v>0.9909950498743376</v>
+        <v>1.024688409846924</v>
       </c>
       <c r="L13">
-        <v>0.9865347192812097</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="M13">
-        <v>0.9865347192812097</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="N13">
-        <v>0.9865347192812097</v>
+        <v>1.057134748977007</v>
       </c>
       <c r="O13">
-        <v>0.9926814450116983</v>
+        <v>1.010604779483343</v>
       </c>
       <c r="P13">
-        <v>1.008405319952919</v>
+        <v>0.9712433476670346</v>
       </c>
       <c r="Q13">
-        <v>0.9988362233211894</v>
+        <v>0.9977383951179238</v>
       </c>
       <c r="R13">
-        <v>1.001115119729016</v>
+        <v>0.9998738147703587</v>
       </c>
       <c r="S13">
-        <v>1.007267213845506</v>
+        <v>0.9757862353621913</v>
       </c>
       <c r="T13">
-        <v>1.001115119729016</v>
+        <v>0.9998738147703587</v>
       </c>
       <c r="U13">
-        <v>1.002084090204432</v>
+        <v>0.9961233637658953</v>
       </c>
       <c r="V13">
-        <v>0.9989742160197874</v>
+        <v>1.008325640808118</v>
       </c>
       <c r="W13">
-        <v>1.001660453478829</v>
+        <v>0.9958078635132858</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.055856</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="D14">
-        <v>1.124812899999999</v>
+        <v>1.022446452673685</v>
       </c>
       <c r="E14">
-        <v>0.7563715000000001</v>
+        <v>0.955258779810525</v>
       </c>
       <c r="F14">
-        <v>0.7563715000000001</v>
+        <v>0.955258779810525</v>
       </c>
       <c r="G14">
-        <v>0.9894340199999996</v>
+        <v>0.9977967954631564</v>
       </c>
       <c r="H14">
-        <v>0.8503200600000009</v>
+        <v>0.9724648084421041</v>
       </c>
       <c r="I14">
-        <v>1.026284799999999</v>
+        <v>1.005077673705265</v>
       </c>
       <c r="J14">
-        <v>0.9490348699999991</v>
+        <v>0.9906487917473673</v>
       </c>
       <c r="K14">
-        <v>1.0989676</v>
+        <v>1.018097690231581</v>
       </c>
       <c r="L14">
-        <v>1.055856</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="M14">
-        <v>1.055856</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="N14">
-        <v>1.055856</v>
+        <v>1.010996171368419</v>
       </c>
       <c r="O14">
-        <v>1.124812899999999</v>
+        <v>1.022446452673685</v>
       </c>
       <c r="P14">
-        <v>0.9405921999999998</v>
+        <v>0.988852616242105</v>
       </c>
       <c r="Q14">
-        <v>1.036923884999999</v>
+        <v>1.006547622210526</v>
       </c>
       <c r="R14">
-        <v>0.9790134666666667</v>
+        <v>0.9962338012842095</v>
       </c>
       <c r="S14">
-        <v>0.9434064233333329</v>
+        <v>0.9894513414105258</v>
       </c>
       <c r="T14">
-        <v>0.9790134666666664</v>
+        <v>0.9962338012842095</v>
       </c>
       <c r="U14">
-        <v>0.9715188174999996</v>
+        <v>0.994837548899999</v>
       </c>
       <c r="V14">
-        <v>0.9883862539999997</v>
+        <v>0.9980692733936829</v>
       </c>
       <c r="W14">
-        <v>0.9813852187499998</v>
+        <v>0.9965983954302627</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1590686</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="D15">
-        <v>1.0262828</v>
+        <v>0.9926814450116983</v>
       </c>
       <c r="E15">
-        <v>0.81027012</v>
+        <v>1.024129194894139</v>
       </c>
       <c r="F15">
-        <v>0.81027012</v>
+        <v>1.024129194894139</v>
       </c>
       <c r="G15">
-        <v>0.9504690099999999</v>
+        <v>1.003872704401714</v>
       </c>
       <c r="H15">
-        <v>0.87463789</v>
+        <v>1.015355454241781</v>
       </c>
       <c r="I15">
-        <v>1.0585551</v>
+        <v>0.9947240584950704</v>
       </c>
       <c r="J15">
-        <v>0.95970917</v>
+        <v>1.00499100163068</v>
       </c>
       <c r="K15">
-        <v>1.0669055</v>
+        <v>0.9909950498743376</v>
       </c>
       <c r="L15">
-        <v>1.1590686</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="M15">
-        <v>1.1590686</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="N15">
-        <v>1.1590686</v>
+        <v>0.9865347192812097</v>
       </c>
       <c r="O15">
-        <v>1.0262828</v>
+        <v>0.9926814450116983</v>
       </c>
       <c r="P15">
-        <v>0.91827646</v>
+        <v>1.008405319952919</v>
       </c>
       <c r="Q15">
-        <v>0.992995985</v>
+        <v>0.9988362233211894</v>
       </c>
       <c r="R15">
-        <v>0.9985405066666666</v>
+        <v>1.001115119729016</v>
       </c>
       <c r="S15">
-        <v>0.9320873633333333</v>
+        <v>1.007267213845506</v>
       </c>
       <c r="T15">
-        <v>0.9985405066666666</v>
+        <v>1.001115119729016</v>
       </c>
       <c r="U15">
-        <v>0.9888326725</v>
+        <v>1.002084090204432</v>
       </c>
       <c r="V15">
-        <v>1.022879858</v>
+        <v>0.9989742160197874</v>
       </c>
       <c r="W15">
-        <v>0.98823727375</v>
+        <v>1.001660453478829</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.4462575</v>
+        <v>1.055856</v>
       </c>
       <c r="D16">
+        <v>1.124812899999999</v>
+      </c>
+      <c r="E16">
+        <v>0.7563715000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.7563715000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.9894340199999996</v>
+      </c>
+      <c r="H16">
+        <v>0.8503200600000009</v>
+      </c>
+      <c r="I16">
+        <v>1.026284799999999</v>
+      </c>
+      <c r="J16">
+        <v>0.9490348699999991</v>
+      </c>
+      <c r="K16">
+        <v>1.0989676</v>
+      </c>
+      <c r="L16">
         <v>1.055856</v>
       </c>
-      <c r="E16">
-        <v>0.5123396</v>
-      </c>
-      <c r="F16">
-        <v>0.5123396</v>
-      </c>
-      <c r="G16">
-        <v>0.85874682</v>
-      </c>
-      <c r="H16">
-        <v>0.67025205</v>
-      </c>
-      <c r="I16">
-        <v>1.1590786</v>
-      </c>
-      <c r="J16">
-        <v>0.8899491400000001</v>
-      </c>
-      <c r="K16">
-        <v>1.175043</v>
-      </c>
-      <c r="L16">
-        <v>1.4462575</v>
-      </c>
       <c r="M16">
-        <v>1.4462575</v>
+        <v>1.055856</v>
       </c>
       <c r="N16">
-        <v>1.4462575</v>
+        <v>1.055856</v>
       </c>
       <c r="O16">
-        <v>1.055856</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="P16">
-        <v>0.7840978</v>
+        <v>0.9405921999999998</v>
       </c>
       <c r="Q16">
-        <v>0.97290257</v>
+        <v>1.036923884999999</v>
       </c>
       <c r="R16">
-        <v>1.0048177</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S16">
-        <v>0.8193815799999999</v>
+        <v>0.9434064233333329</v>
       </c>
       <c r="T16">
-        <v>1.0048177</v>
+        <v>0.9790134666666664</v>
       </c>
       <c r="U16">
-        <v>0.97610056</v>
+        <v>0.9715188174999996</v>
       </c>
       <c r="V16">
-        <v>1.070131948</v>
+        <v>0.9883862539999997</v>
       </c>
       <c r="W16">
-        <v>0.9709403387500001</v>
+        <v>0.9813852187499998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.97476235</v>
+        <v>1.1590686</v>
       </c>
       <c r="D17">
-        <v>1.033132</v>
+        <v>1.0262828</v>
       </c>
       <c r="E17">
-        <v>0.9677010799999999</v>
+        <v>0.81027012</v>
       </c>
       <c r="F17">
-        <v>0.9677010799999999</v>
+        <v>0.81027012</v>
       </c>
       <c r="G17">
-        <v>1.0104416</v>
+        <v>0.9504690099999999</v>
       </c>
       <c r="H17">
-        <v>0.98407483</v>
+        <v>0.87463789</v>
       </c>
       <c r="I17">
-        <v>0.99387601</v>
+        <v>1.0585551</v>
       </c>
       <c r="J17">
-        <v>0.99534094</v>
+        <v>0.95970917</v>
       </c>
       <c r="K17">
-        <v>1.014043</v>
+        <v>1.0669055</v>
       </c>
       <c r="L17">
-        <v>0.97476235</v>
+        <v>1.1590686</v>
       </c>
       <c r="M17">
-        <v>0.97476235</v>
+        <v>1.1590686</v>
       </c>
       <c r="N17">
-        <v>0.97476235</v>
+        <v>1.1590686</v>
       </c>
       <c r="O17">
-        <v>1.033132</v>
+        <v>1.0262828</v>
       </c>
       <c r="P17">
-        <v>1.00041654</v>
+        <v>0.91827646</v>
       </c>
       <c r="Q17">
-        <v>1.01423647</v>
+        <v>0.992995985</v>
       </c>
       <c r="R17">
-        <v>0.9918651433333331</v>
+        <v>0.9985405066666666</v>
       </c>
       <c r="S17">
-        <v>0.9987246733333333</v>
+        <v>0.9320873633333333</v>
       </c>
       <c r="T17">
-        <v>0.9918651433333333</v>
+        <v>0.9985405066666666</v>
       </c>
       <c r="U17">
-        <v>0.9927340924999999</v>
+        <v>0.9888326725</v>
       </c>
       <c r="V17">
-        <v>0.9891397439999998</v>
+        <v>1.022879858</v>
       </c>
       <c r="W17">
-        <v>0.99667147625</v>
+        <v>0.98823727375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.076692977534247</v>
+        <v>1.4462575</v>
       </c>
       <c r="D18">
-        <v>0.9970526312328769</v>
+        <v>1.055856</v>
       </c>
       <c r="E18">
-        <v>0.9373407967123291</v>
+        <v>0.5123396</v>
       </c>
       <c r="F18">
-        <v>0.9373407967123291</v>
+        <v>0.5123396</v>
       </c>
       <c r="G18">
-        <v>0.974844139041096</v>
+        <v>0.85874682</v>
       </c>
       <c r="H18">
-        <v>0.9554287716438354</v>
+        <v>0.67025205</v>
       </c>
       <c r="I18">
-        <v>1.026233874794521</v>
+        <v>1.1590786</v>
       </c>
       <c r="J18">
-        <v>0.9847788705479451</v>
+        <v>0.8899491400000001</v>
       </c>
       <c r="K18">
-        <v>1.021779590958904</v>
+        <v>1.175043</v>
       </c>
       <c r="L18">
-        <v>1.076692977534247</v>
+        <v>1.4462575</v>
       </c>
       <c r="M18">
-        <v>1.076692977534247</v>
+        <v>1.4462575</v>
       </c>
       <c r="N18">
-        <v>1.076692977534247</v>
+        <v>1.4462575</v>
       </c>
       <c r="O18">
-        <v>0.9970526312328769</v>
+        <v>1.055856</v>
       </c>
       <c r="P18">
-        <v>0.967196713972603</v>
+        <v>0.7840978</v>
       </c>
       <c r="Q18">
-        <v>0.990915750890411</v>
+        <v>0.97290257</v>
       </c>
       <c r="R18">
-        <v>1.003695468493151</v>
+        <v>1.0048177</v>
       </c>
       <c r="S18">
-        <v>0.9730574328310504</v>
+        <v>0.8193815799999999</v>
       </c>
       <c r="T18">
-        <v>1.003695468493151</v>
+        <v>1.0048177</v>
       </c>
       <c r="U18">
-        <v>0.9989663190068494</v>
+        <v>0.97610056</v>
       </c>
       <c r="V18">
-        <v>1.014511650712329</v>
+        <v>1.070131948</v>
       </c>
       <c r="W18">
-        <v>0.9967689565582193</v>
+        <v>0.9709403387500001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.053399895789474</v>
+        <v>0.97476235</v>
       </c>
       <c r="D19">
-        <v>1.029180772105263</v>
+        <v>1.033132</v>
       </c>
       <c r="E19">
-        <v>0.904335912631579</v>
+        <v>0.9677010799999999</v>
       </c>
       <c r="F19">
-        <v>0.904335912631579</v>
+        <v>0.9677010799999999</v>
       </c>
       <c r="G19">
-        <v>0.9846318899999998</v>
+        <v>1.0104416</v>
       </c>
       <c r="H19">
-        <v>0.9390472268421051</v>
+        <v>0.98407483</v>
       </c>
       <c r="I19">
-        <v>1.020864081578947</v>
+        <v>0.99387601</v>
       </c>
       <c r="J19">
-        <v>0.9801148489473686</v>
+        <v>0.99534094</v>
       </c>
       <c r="K19">
-        <v>1.035798827894737</v>
+        <v>1.014043</v>
       </c>
       <c r="L19">
-        <v>1.053399895789474</v>
+        <v>0.97476235</v>
       </c>
       <c r="M19">
-        <v>1.053399895789474</v>
+        <v>0.97476235</v>
       </c>
       <c r="N19">
-        <v>1.053399895789474</v>
+        <v>0.97476235</v>
       </c>
       <c r="O19">
-        <v>1.029180772105263</v>
+        <v>1.033132</v>
       </c>
       <c r="P19">
-        <v>0.9667583423684212</v>
+        <v>1.00041654</v>
       </c>
       <c r="Q19">
-        <v>1.004647810526316</v>
+        <v>1.01423647</v>
       </c>
       <c r="R19">
-        <v>0.9956388601754388</v>
+        <v>0.9918651433333331</v>
       </c>
       <c r="S19">
-        <v>0.9712105112280703</v>
+        <v>0.9987246733333333</v>
       </c>
       <c r="T19">
-        <v>0.9956388601754386</v>
+        <v>0.9918651433333333</v>
       </c>
       <c r="U19">
-        <v>0.9917578573684211</v>
+        <v>0.9927340924999999</v>
       </c>
       <c r="V19">
-        <v>1.004086265052632</v>
+        <v>0.9891397439999998</v>
       </c>
       <c r="W19">
-        <v>0.9934216819736842</v>
+        <v>0.99667147625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.107467036842105</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="D20">
-        <v>1.075548810526316</v>
+        <v>0.9970526312328769</v>
       </c>
       <c r="E20">
-        <v>0.7833150921052633</v>
+        <v>0.9373407967123291</v>
       </c>
       <c r="F20">
-        <v>0.7833150921052633</v>
+        <v>0.9373407967123291</v>
       </c>
       <c r="G20">
-        <v>0.969950027368421</v>
+        <v>0.974844139041096</v>
       </c>
       <c r="H20">
-        <v>0.8624751426315789</v>
+        <v>0.9554287716438354</v>
       </c>
       <c r="I20">
-        <v>1.042421663157895</v>
+        <v>1.026233874794521</v>
       </c>
       <c r="J20">
-        <v>0.9543707278947368</v>
+        <v>0.9847788705479451</v>
       </c>
       <c r="K20">
-        <v>1.082938652631579</v>
+        <v>1.021779590958904</v>
       </c>
       <c r="L20">
-        <v>1.107467036842105</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="M20">
-        <v>1.107467036842105</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="N20">
-        <v>1.107467036842105</v>
+        <v>1.076692977534247</v>
       </c>
       <c r="O20">
-        <v>1.075548810526316</v>
+        <v>0.9970526312328769</v>
       </c>
       <c r="P20">
-        <v>0.9294319513157896</v>
+        <v>0.967196713972603</v>
       </c>
       <c r="Q20">
-        <v>1.014959769210526</v>
+        <v>0.990915750890411</v>
       </c>
       <c r="R20">
-        <v>0.9887769798245615</v>
+        <v>1.003695468493151</v>
       </c>
       <c r="S20">
-        <v>0.9377448768421054</v>
+        <v>0.9730574328310504</v>
       </c>
       <c r="T20">
-        <v>0.9887769798245615</v>
+        <v>1.003695468493151</v>
       </c>
       <c r="U20">
-        <v>0.9801754168421053</v>
+        <v>0.9989663190068494</v>
       </c>
       <c r="V20">
-        <v>1.005633740842105</v>
+        <v>1.014511650712329</v>
       </c>
       <c r="W20">
-        <v>0.9848108941447369</v>
+        <v>0.9967689565582193</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.89463729043138</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="D21">
-        <v>0.9573552903254847</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="E21">
-        <v>1.161103579616915</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="F21">
-        <v>1.161103579616915</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="G21">
-        <v>1.031548966570685</v>
+        <v>0.9846318899999998</v>
       </c>
       <c r="H21">
-        <v>1.105060194807737</v>
+        <v>0.9390472268421051</v>
       </c>
       <c r="I21">
-        <v>0.9607686697632367</v>
+        <v>1.020864081578947</v>
       </c>
       <c r="J21">
-        <v>1.035231789831039</v>
+        <v>0.9801148489473686</v>
       </c>
       <c r="K21">
-        <v>0.9393882919782899</v>
+        <v>1.035798827894737</v>
       </c>
       <c r="L21">
-        <v>0.89463729043138</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="M21">
-        <v>0.89463729043138</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="N21">
-        <v>0.89463729043138</v>
+        <v>1.053399895789474</v>
       </c>
       <c r="O21">
-        <v>0.9573552903254847</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="P21">
-        <v>1.0592294349712</v>
+        <v>0.9667583423684212</v>
       </c>
       <c r="Q21">
-        <v>0.996293540078262</v>
+        <v>1.004647810526316</v>
       </c>
       <c r="R21">
-        <v>1.00436538679126</v>
+        <v>0.9956388601754388</v>
       </c>
       <c r="S21">
-        <v>1.05123021992448</v>
+        <v>0.9712105112280703</v>
       </c>
       <c r="T21">
-        <v>1.00436538679126</v>
+        <v>0.9956388601754386</v>
       </c>
       <c r="U21">
-        <v>1.012081987551205</v>
+        <v>0.9917578573684211</v>
       </c>
       <c r="V21">
-        <v>0.9885930481272396</v>
+        <v>1.004086265052632</v>
       </c>
       <c r="W21">
-        <v>1.010636759165596</v>
+        <v>0.9934216819736842</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9706216024922362</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="D22">
-        <v>0.990880108767745</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="E22">
-        <v>1.043426412315435</v>
+        <v>0.7833150921052633</v>
       </c>
       <c r="F22">
-        <v>1.043426412315435</v>
+        <v>0.7833150921052633</v>
       </c>
       <c r="G22">
-        <v>1.008762563423589</v>
+        <v>0.969950027368421</v>
       </c>
       <c r="H22">
-        <v>1.0276550026992</v>
+        <v>0.8624751426315789</v>
       </c>
       <c r="I22">
-        <v>0.9885110615170581</v>
+        <v>1.042421663157895</v>
       </c>
       <c r="J22">
-        <v>1.008508557083274</v>
+        <v>0.9543707278947368</v>
       </c>
       <c r="K22">
-        <v>0.9847522425780185</v>
+        <v>1.082938652631579</v>
       </c>
       <c r="L22">
-        <v>0.9706216024922362</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="M22">
-        <v>0.9706216024922362</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="N22">
-        <v>0.9706216024922362</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="O22">
-        <v>0.990880108767745</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="P22">
-        <v>1.01715326054159</v>
+        <v>0.9294319513157896</v>
       </c>
       <c r="Q22">
-        <v>0.9996943329255096</v>
+        <v>1.014959769210526</v>
       </c>
       <c r="R22">
-        <v>1.001642707858472</v>
+        <v>0.9887769798245615</v>
       </c>
       <c r="S22">
-        <v>1.014271692722151</v>
+        <v>0.9377448768421054</v>
       </c>
       <c r="T22">
-        <v>1.001642707858472</v>
+        <v>0.9887769798245615</v>
       </c>
       <c r="U22">
-        <v>1.003359170164673</v>
+        <v>0.9801754168421053</v>
       </c>
       <c r="V22">
-        <v>0.9968116566301853</v>
+        <v>1.005633740842105</v>
       </c>
       <c r="W22">
-        <v>1.002889693859569</v>
+        <v>0.9848108941447369</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9965019244963467</v>
+        <v>0.89463729043138</v>
       </c>
       <c r="D23">
-        <v>0.9594567272800399</v>
+        <v>0.9573552903254847</v>
       </c>
       <c r="E23">
-        <v>1.069141523448</v>
+        <v>1.161103579616915</v>
       </c>
       <c r="F23">
-        <v>1.069141523448</v>
+        <v>1.161103579616915</v>
       </c>
       <c r="G23">
-        <v>0.9984576684976421</v>
+        <v>1.031548966570685</v>
       </c>
       <c r="H23">
-        <v>1.040515235750937</v>
+        <v>1.105060194807737</v>
       </c>
       <c r="I23">
-        <v>0.9957917862874346</v>
+        <v>0.9607686697632367</v>
       </c>
       <c r="J23">
-        <v>1.013023637876957</v>
+        <v>1.035231789831039</v>
       </c>
       <c r="K23">
-        <v>0.9722175508210755</v>
+        <v>0.9393882919782899</v>
       </c>
       <c r="L23">
-        <v>0.9965019244963467</v>
+        <v>0.89463729043138</v>
       </c>
       <c r="M23">
-        <v>0.9965019244963467</v>
+        <v>0.89463729043138</v>
       </c>
       <c r="N23">
-        <v>0.9965019244963467</v>
+        <v>0.89463729043138</v>
       </c>
       <c r="O23">
-        <v>0.9594567272800399</v>
+        <v>0.9573552903254847</v>
       </c>
       <c r="P23">
-        <v>1.01429912536402</v>
+        <v>1.0592294349712</v>
       </c>
       <c r="Q23">
-        <v>0.9862401825784983</v>
+        <v>0.996293540078262</v>
       </c>
       <c r="R23">
-        <v>1.008366725074796</v>
+        <v>1.00436538679126</v>
       </c>
       <c r="S23">
-        <v>1.013873962868332</v>
+        <v>1.05123021992448</v>
       </c>
       <c r="T23">
-        <v>1.008366725074796</v>
+        <v>1.00436538679126</v>
       </c>
       <c r="U23">
-        <v>1.009530953275336</v>
+        <v>1.012081987551205</v>
       </c>
       <c r="V23">
-        <v>1.006925147519538</v>
+        <v>0.9885930481272396</v>
       </c>
       <c r="W23">
-        <v>1.005638256807304</v>
+        <v>1.010636759165596</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9779654731025206</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="D24">
-        <v>1.008161395417337</v>
+        <v>0.990880108767745</v>
       </c>
       <c r="E24">
-        <v>1.005407163069637</v>
+        <v>1.043426412315435</v>
       </c>
       <c r="F24">
-        <v>1.005407163069637</v>
+        <v>1.043426412315435</v>
       </c>
       <c r="G24">
-        <v>1.007759843366767</v>
+        <v>1.008762563423589</v>
       </c>
       <c r="H24">
-        <v>1.005665950102044</v>
+        <v>1.0276550026992</v>
       </c>
       <c r="I24">
-        <v>0.9931734290768449</v>
+        <v>0.9885110615170581</v>
       </c>
       <c r="J24">
-        <v>1.002262543567484</v>
+        <v>1.008508557083274</v>
       </c>
       <c r="K24">
-        <v>0.998598238224771</v>
+        <v>0.9847522425780185</v>
       </c>
       <c r="L24">
-        <v>0.9779654731025206</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="M24">
-        <v>0.9779654731025206</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="N24">
-        <v>0.9779654731025206</v>
+        <v>0.9706216024922362</v>
       </c>
       <c r="O24">
-        <v>1.008161395417337</v>
+        <v>0.990880108767745</v>
       </c>
       <c r="P24">
-        <v>1.006784279243487</v>
+        <v>1.01715326054159</v>
       </c>
       <c r="Q24">
-        <v>1.005211969492411</v>
+        <v>0.9996943329255096</v>
       </c>
       <c r="R24">
-        <v>0.9971780105298316</v>
+        <v>1.001642707858472</v>
       </c>
       <c r="S24">
-        <v>1.005277034018153</v>
+        <v>1.014271692722151</v>
       </c>
       <c r="T24">
-        <v>0.9971780105298317</v>
+        <v>1.001642707858472</v>
       </c>
       <c r="U24">
-        <v>0.9984491437892449</v>
+        <v>1.003359170164673</v>
       </c>
       <c r="V24">
-        <v>0.9943524096519001</v>
+        <v>0.9968116566301853</v>
       </c>
       <c r="W24">
-        <v>0.9998742544909258</v>
+        <v>1.002889693859569</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.115105351567228</v>
+        <v>0.9965019244963467</v>
       </c>
       <c r="D25">
-        <v>1.029946971293431</v>
+        <v>0.9594567272800399</v>
       </c>
       <c r="E25">
-        <v>0.8472504445910208</v>
+        <v>1.069141523448</v>
       </c>
       <c r="F25">
-        <v>0.8472504445910208</v>
+        <v>1.069141523448</v>
       </c>
       <c r="G25">
-        <v>0.9647117227429128</v>
+        <v>0.9984576684976421</v>
       </c>
       <c r="H25">
-        <v>0.8997111596768109</v>
+        <v>1.040515235750937</v>
       </c>
       <c r="I25">
-        <v>1.042593233433387</v>
+        <v>0.9957917862874346</v>
       </c>
       <c r="J25">
-        <v>0.9671625356242599</v>
+        <v>1.013023637876957</v>
       </c>
       <c r="K25">
-        <v>1.055477299533582</v>
+        <v>0.9722175508210755</v>
       </c>
       <c r="L25">
-        <v>1.115105351567228</v>
+        <v>0.9965019244963467</v>
       </c>
       <c r="M25">
-        <v>1.115105351567228</v>
+        <v>0.9965019244963467</v>
       </c>
       <c r="N25">
-        <v>1.115105351567228</v>
+        <v>0.9965019244963467</v>
       </c>
       <c r="O25">
-        <v>1.029946971293431</v>
+        <v>0.9594567272800399</v>
       </c>
       <c r="P25">
-        <v>0.9385987079422258</v>
+        <v>1.01429912536402</v>
       </c>
       <c r="Q25">
-        <v>0.9985547534588453</v>
+        <v>0.9862401825784983</v>
       </c>
       <c r="R25">
-        <v>0.9974342558172266</v>
+        <v>1.008366725074796</v>
       </c>
       <c r="S25">
-        <v>0.9481199838362372</v>
+        <v>1.013873962868332</v>
       </c>
       <c r="T25">
-        <v>0.9974342558172266</v>
+        <v>1.008366725074796</v>
       </c>
       <c r="U25">
-        <v>0.9898663257689848</v>
+        <v>1.009530953275336</v>
       </c>
       <c r="V25">
-        <v>1.014914130928634</v>
+        <v>1.006925147519538</v>
       </c>
       <c r="W25">
-        <v>0.990244839807829</v>
+        <v>1.005638256807304</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.024060416900022</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="D26">
-        <v>1.014928241332748</v>
+        <v>1.008161395417337</v>
       </c>
       <c r="E26">
-        <v>0.9559941260427273</v>
+        <v>1.005407163069637</v>
       </c>
       <c r="F26">
-        <v>0.9559941260427273</v>
+        <v>1.005407163069637</v>
       </c>
       <c r="G26">
-        <v>0.9930494035766586</v>
+        <v>1.007759843366767</v>
       </c>
       <c r="H26">
-        <v>0.9715021113786799</v>
+        <v>1.005665950102044</v>
       </c>
       <c r="I26">
-        <v>1.009032940833332</v>
+        <v>0.9931734290768449</v>
       </c>
       <c r="J26">
-        <v>0.9901862635928029</v>
+        <v>1.002262543567484</v>
       </c>
       <c r="K26">
-        <v>1.017188465745833</v>
+        <v>0.998598238224771</v>
       </c>
       <c r="L26">
-        <v>1.024060416900022</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="M26">
-        <v>1.024060416900022</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="N26">
-        <v>1.024060416900022</v>
+        <v>0.9779654731025206</v>
       </c>
       <c r="O26">
-        <v>1.014928241332748</v>
+        <v>1.008161395417337</v>
       </c>
       <c r="P26">
-        <v>0.9854611836877378</v>
+        <v>1.006784279243487</v>
       </c>
       <c r="Q26">
-        <v>1.002557252462775</v>
+        <v>1.005211969492411</v>
       </c>
       <c r="R26">
-        <v>0.9983275947584994</v>
+        <v>0.9971780105298316</v>
       </c>
       <c r="S26">
-        <v>0.9870362103227596</v>
+        <v>1.005277034018153</v>
       </c>
       <c r="T26">
-        <v>0.9983275947584994</v>
+        <v>0.9971780105298317</v>
       </c>
       <c r="U26">
-        <v>0.9962922619670753</v>
+        <v>0.9984491437892449</v>
       </c>
       <c r="V26">
-        <v>1.001845892953665</v>
+        <v>0.9943524096519001</v>
       </c>
       <c r="W26">
-        <v>0.9969927461753506</v>
+        <v>0.9998742544909258</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.009668793966508</v>
+        <v>1.115105351567228</v>
       </c>
       <c r="D27">
-        <v>1.001040935957537</v>
+        <v>1.029946971293431</v>
       </c>
       <c r="E27">
-        <v>0.9884428402798249</v>
+        <v>0.8472504445910208</v>
       </c>
       <c r="F27">
-        <v>0.9884428402798249</v>
+        <v>0.8472504445910208</v>
       </c>
       <c r="G27">
-        <v>0.9970195822287732</v>
+        <v>0.9647117227429128</v>
       </c>
       <c r="H27">
-        <v>0.9926036778496644</v>
+        <v>0.8997111596768109</v>
       </c>
       <c r="I27">
-        <v>1.003750895833441</v>
+        <v>1.042593233433387</v>
       </c>
       <c r="J27">
-        <v>0.997866297434185</v>
+        <v>0.9671625356242599</v>
       </c>
       <c r="K27">
-        <v>1.003753271623544</v>
+        <v>1.055477299533582</v>
       </c>
       <c r="L27">
-        <v>1.009668793966508</v>
+        <v>1.115105351567228</v>
       </c>
       <c r="M27">
-        <v>1.009668793966508</v>
+        <v>1.115105351567228</v>
       </c>
       <c r="N27">
-        <v>1.009668793966508</v>
+        <v>1.115105351567228</v>
       </c>
       <c r="O27">
-        <v>1.001040935957537</v>
+        <v>1.029946971293431</v>
       </c>
       <c r="P27">
-        <v>0.9947418881186809</v>
+        <v>0.9385987079422258</v>
       </c>
       <c r="Q27">
-        <v>0.999453616695861</v>
+        <v>0.9985547534588453</v>
       </c>
       <c r="R27">
-        <v>0.9997175234012898</v>
+        <v>0.9974342558172266</v>
       </c>
       <c r="S27">
-        <v>0.9957833578905156</v>
+        <v>0.9481199838362372</v>
       </c>
       <c r="T27">
-        <v>0.9997175234012898</v>
+        <v>0.9974342558172266</v>
       </c>
       <c r="U27">
-        <v>0.9992547169095136</v>
+        <v>0.9898663257689848</v>
       </c>
       <c r="V27">
-        <v>1.001337532320913</v>
+        <v>1.014914130928634</v>
       </c>
       <c r="W27">
-        <v>0.9992682868966847</v>
+        <v>0.990244839807829</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.018670272646722</v>
+        <v>1.024060416900022</v>
       </c>
       <c r="D28">
-        <v>1.00109403866382</v>
+        <v>1.014928241332748</v>
       </c>
       <c r="E28">
-        <v>0.9820179820052889</v>
+        <v>0.9559941260427273</v>
       </c>
       <c r="F28">
-        <v>0.9820179820052889</v>
+        <v>0.9559941260427273</v>
       </c>
       <c r="G28">
-        <v>0.9939797031826695</v>
+        <v>0.9930494035766586</v>
       </c>
       <c r="H28">
-        <v>0.9875084656121129</v>
+        <v>0.9715021113786799</v>
       </c>
       <c r="I28">
-        <v>1.006464600347601</v>
+        <v>1.009032940833332</v>
       </c>
       <c r="J28">
-        <v>0.9957102591028153</v>
+        <v>0.9901862635928029</v>
       </c>
       <c r="K28">
-        <v>1.006482354469099</v>
+        <v>1.017188465745833</v>
       </c>
       <c r="L28">
-        <v>1.018670272646722</v>
+        <v>1.024060416900022</v>
       </c>
       <c r="M28">
-        <v>1.018670272646722</v>
+        <v>1.024060416900022</v>
       </c>
       <c r="N28">
-        <v>1.018670272646722</v>
+        <v>1.024060416900022</v>
       </c>
       <c r="O28">
-        <v>1.00109403866382</v>
+        <v>1.014928241332748</v>
       </c>
       <c r="P28">
-        <v>0.9915560103345544</v>
+        <v>0.9854611836877378</v>
       </c>
       <c r="Q28">
-        <v>0.9984021488833176</v>
+        <v>1.002557252462775</v>
       </c>
       <c r="R28">
-        <v>1.000594097771944</v>
+        <v>0.9983275947584994</v>
       </c>
       <c r="S28">
-        <v>0.9929407599239747</v>
+        <v>0.9870362103227596</v>
       </c>
       <c r="T28">
-        <v>1.000594097771944</v>
+        <v>0.9983275947584994</v>
       </c>
       <c r="U28">
-        <v>0.9993731381046616</v>
+        <v>0.9962922619670753</v>
       </c>
       <c r="V28">
-        <v>1.003232565013074</v>
+        <v>1.001845892953665</v>
       </c>
       <c r="W28">
-        <v>0.998990959503766</v>
+        <v>0.9969927461753506</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="D29">
+        <v>1.001040935957537</v>
+      </c>
+      <c r="E29">
+        <v>0.9884428402798249</v>
+      </c>
+      <c r="F29">
+        <v>0.9884428402798249</v>
+      </c>
+      <c r="G29">
+        <v>0.9970195822287732</v>
+      </c>
+      <c r="H29">
+        <v>0.9926036778496644</v>
+      </c>
+      <c r="I29">
+        <v>1.003750895833441</v>
+      </c>
+      <c r="J29">
+        <v>0.997866297434185</v>
+      </c>
+      <c r="K29">
+        <v>1.003753271623544</v>
+      </c>
+      <c r="L29">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="M29">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="N29">
+        <v>1.009668793966508</v>
+      </c>
+      <c r="O29">
+        <v>1.001040935957537</v>
+      </c>
+      <c r="P29">
+        <v>0.9947418881186809</v>
+      </c>
+      <c r="Q29">
+        <v>0.999453616695861</v>
+      </c>
+      <c r="R29">
+        <v>0.9997175234012898</v>
+      </c>
+      <c r="S29">
+        <v>0.9957833578905156</v>
+      </c>
+      <c r="T29">
+        <v>0.9997175234012898</v>
+      </c>
+      <c r="U29">
+        <v>0.9992547169095136</v>
+      </c>
+      <c r="V29">
+        <v>1.001337532320913</v>
+      </c>
+      <c r="W29">
+        <v>0.9992682868966847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="D30">
+        <v>1.00109403866382</v>
+      </c>
+      <c r="E30">
+        <v>0.9820179820052889</v>
+      </c>
+      <c r="F30">
+        <v>0.9820179820052889</v>
+      </c>
+      <c r="G30">
+        <v>0.9939797031826695</v>
+      </c>
+      <c r="H30">
+        <v>0.9875084656121129</v>
+      </c>
+      <c r="I30">
+        <v>1.006464600347601</v>
+      </c>
+      <c r="J30">
+        <v>0.9957102591028153</v>
+      </c>
+      <c r="K30">
+        <v>1.006482354469099</v>
+      </c>
+      <c r="L30">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="M30">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="N30">
+        <v>1.018670272646722</v>
+      </c>
+      <c r="O30">
+        <v>1.00109403866382</v>
+      </c>
+      <c r="P30">
+        <v>0.9915560103345544</v>
+      </c>
+      <c r="Q30">
+        <v>0.9984021488833176</v>
+      </c>
+      <c r="R30">
+        <v>1.000594097771944</v>
+      </c>
+      <c r="S30">
+        <v>0.9929407599239747</v>
+      </c>
+      <c r="T30">
+        <v>1.000594097771944</v>
+      </c>
+      <c r="U30">
+        <v>0.9993731381046616</v>
+      </c>
+      <c r="V30">
+        <v>1.003232565013074</v>
+      </c>
+      <c r="W30">
+        <v>0.998990959503766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9957149610171717</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.987904605184721</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.020756630526591</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.020756630526591</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000790844699677</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.013203652427902</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9983070072411691</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.004994796435934</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9908640991047456</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9957149610171717</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9957149610171717</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9957149610171717</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.987904605184721</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004330617855656</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9964497008103275</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001458732242828</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.004552010715749</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001458732242828</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002342748291104</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.001017190836318</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.001567074579739</v>
       </c>
     </row>
